--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1365.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1365.xlsx
@@ -9283,22 +9283,22 @@
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0</v>
+        <v>0.02046181630548834</v>
       </c>
       <c r="K65" s="171" t="n">
-        <v>0</v>
+        <v>0.0003165088226510716</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0</v>
+        <v>0.04952031654490527</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0</v>
+        <v>0.0002716288798909634</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0</v>
+        <v>0.07759076016646244</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0</v>
+        <v>0.0002222582476101869</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9328,19 +9328,19 @@
         <v>0.04758561931508916</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001051524327744424</v>
+        <v>0.001392143962848298</v>
       </c>
       <c r="L66" s="172" t="n">
         <v>0.1207812598656226</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.000967016918260512</v>
+        <v>0.001481004215796061</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.1939769004161561</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0008930018877195008</v>
+        <v>0.001289022187822498</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.03406287810808736</v>
+        <v>0.04015402587729647</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001508905905208704</v>
+        <v>0.003172522683602282</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.04969048305805679</v>
+        <v>0.05476675882919226</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001484694453987368</v>
+        <v>0.003178435703317575</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.1258861900050395</v>
+        <v>0.1361341882086319</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.00138742967063935</v>
+        <v>0.003179328771186397</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.2044841569575924</v>
+        <v>0.2248344917973122</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001524188218894477</v>
+        <v>0.003177399303568573</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.03578372034623997</v>
+        <v>0.04634664908763794</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002263358857813055</v>
+        <v>0.004758784025403422</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.05314830807964811</v>
+        <v>0.05982490773356217</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002227041680981051</v>
+        <v>0.004767653554976364</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.1316845811353953</v>
+        <v>0.1504256173187349</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002081144505959024</v>
+        <v>0.004768993156779595</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.2168098637682145</v>
+        <v>0.2446602942269248</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002286282328341716</v>
+        <v>0.004766098955352859</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.04234866547165828</v>
+        <v>0.04781973636625381</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003017811810417408</v>
+        <v>0.006345045367204563</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.05562165684816825</v>
+        <v>0.06472640743944069</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002969388907974735</v>
+        <v>0.006356871406635151</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.1414863636118391</v>
+        <v>0.1631886748230306</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002774859341278699</v>
+        <v>0.006358657542372794</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.2300744648371599</v>
+        <v>0.2643730543257102</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003048376437788954</v>
+        <v>0.006354798607137145</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.01732145214777902</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.03976224726804632</v>
+        <v>0.04965575878470381</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003772264763021759</v>
+        <v>0.007931306709005704</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.05871541935182593</v>
+        <v>0.06876068435046101</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003711736134968419</v>
+        <v>0.007946089258293938</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.1476011008033786</v>
+        <v>0.1733416917387148</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003468574176598374</v>
+        <v>0.007948321927965993</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.2422983748664845</v>
+        <v>0.2813439693067888</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003810470547236193</v>
+        <v>0.007943498258921431</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.0450289995191082</v>
+        <v>0.05393718741454755</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004526717715626111</v>
+        <v>0.009517568050806844</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.06163448557882992</v>
+        <v>0.07201716487025626</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004454083361962103</v>
+        <v>0.009535307109952727</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.1540383560790214</v>
+        <v>0.1829029990829829</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004162289011918049</v>
+        <v>0.009537986313559191</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.2561020085582441</v>
+        <v>0.2949442363832805</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004572564656683431</v>
+        <v>0.009532197910705718</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.05115345600854805</v>
+        <v>0.0547464933273447</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005281170668230463</v>
+        <v>0.01110382939260799</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.06518374551738894</v>
+        <v>0.0745852754024597</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005196430588955786</v>
+        <v>0.01112452496161151</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.161807692807775</v>
+        <v>0.1889909278730308</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.004856003847237724</v>
+        <v>0.01112765069915239</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.2682057806144947</v>
+        <v>0.3055450527683053</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.00533465876613067</v>
+        <v>0.01112089756249</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.05014015052006993</v>
+        <v>0.05916614759465497</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006035623620834815</v>
+        <v>0.01269009073440913</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.06766808915571179</v>
+        <v>0.07635444235070442</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.00593877781594947</v>
+        <v>0.0127137428132703</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.1676186743586471</v>
+        <v>0.1947238091260541</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005549718682557398</v>
+        <v>0.01271731508474559</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.2761301057372929</v>
+        <v>0.3141176156749834</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006096752875577908</v>
+        <v>0.01270959721427429</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.05099361683737789</v>
+        <v>0.06127862128803802</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006790076573439166</v>
+        <v>0.01427635207621027</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.06999240648200719</v>
+        <v>0.07891409211862373</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006681125042943155</v>
+        <v>0.01430296066492909</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.173280864100645</v>
+        <v>0.1979199738592483</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006243433517877073</v>
+        <v>0.01430697947033879</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.2863953986286938</v>
+        <v>0.3214331223164349</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006858846985025147</v>
+        <v>0.01429829686605858</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.05071838874417611</v>
+        <v>0.06116638547905348</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007544529526043519</v>
+        <v>0.01586261341801141</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.07166158748448394</v>
+        <v>0.08005365110985065</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007423472269936839</v>
+        <v>0.01589217851658788</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.1782038254027765</v>
+        <v>0.2026977530898094</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.006937148353196748</v>
+        <v>0.01589664385593199</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.297622073990754</v>
+        <v>0.32496276990578</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007620941094472386</v>
+        <v>0.01588699651784286</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.0513190000241686</v>
+        <v>0.05891191123926107</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008298982478647871</v>
+        <v>0.01744887475981255</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.07408052215135073</v>
+        <v>0.08106254572801851</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008165819496930522</v>
+        <v>0.01748139636824667</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.1828971216340493</v>
+        <v>0.2053754778349327</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.007630863188516423</v>
+        <v>0.01748630824152518</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.3059305465255294</v>
+        <v>0.3327777556561384</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008383035203919625</v>
+        <v>0.01747569616962715</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.05379998446105949</v>
+        <v>0.05859766964022041</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009053435431252222</v>
+        <v>0.01903513610161369</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0765541004708163</v>
+        <v>0.08253020237676038</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008908166723924206</v>
+        <v>0.01907061421990545</v>
       </c>
       <c r="L77" t="n">
-        <v>0.1892703161634705</v>
+        <v>0.2082714791118142</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008324578023836097</v>
+        <v>0.01907597262711838</v>
       </c>
       <c r="N77" t="n">
-        <v>0.3123412309350759</v>
+        <v>0.3372492767806305</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009145129313366862</v>
+        <v>0.01906439582141144</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.05616587583855286</v>
+        <v>0.06230613175349126</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009807888383856574</v>
+        <v>0.02062139744341483</v>
       </c>
       <c r="J78" t="n">
-        <v>0.07808721243108953</v>
+        <v>0.08314604745970956</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009650513950917889</v>
+        <v>0.02065983207156424</v>
       </c>
       <c r="L78" t="n">
-        <v>0.1933329723600481</v>
+        <v>0.2124040879376494</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009018292859155772</v>
+        <v>0.02066563701271158</v>
       </c>
       <c r="N78" t="n">
-        <v>0.3199745419214496</v>
+        <v>0.3384485304923764</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009907223422814101</v>
+        <v>0.02065309547319572</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.05542120794035281</v>
+        <v>0.05911444277521198</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01056234133646093</v>
+        <v>0.02220765878521597</v>
       </c>
       <c r="J79" t="n">
-        <v>0.07918474802037896</v>
+        <v>0.08419950738049913</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01039286117791157</v>
+        <v>0.02224904992322303</v>
       </c>
       <c r="L79" t="n">
-        <v>0.1975946535927894</v>
+        <v>0.213091635329634</v>
       </c>
       <c r="M79" t="n">
-        <v>0.009712007694475448</v>
+        <v>0.02225530139830478</v>
       </c>
       <c r="N79" t="n">
-        <v>0.3269508941867064</v>
+        <v>0.3430467140044962</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01066931753226134</v>
+        <v>0.02224179512498001</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.06357051455016341</v>
+        <v>0.058951489484947</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01131679428906528</v>
+        <v>0.02379392012701711</v>
       </c>
       <c r="J80" t="n">
-        <v>0.08145159722689356</v>
+        <v>0.08580507110424644</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01113520840490526</v>
+        <v>0.02383826777488182</v>
       </c>
       <c r="L80" t="n">
-        <v>0.2010649232307022</v>
+        <v>0.2170997454956707</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01040572252979512</v>
+        <v>0.02384496578389798</v>
       </c>
       <c r="N80" t="n">
-        <v>0.3320907024329024</v>
+        <v>0.3488484517800871</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01143141164170858</v>
+        <v>0.0238304947767643</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.06061832945168877</v>
+        <v>0.05976408711739956</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01207124724166963</v>
+        <v>0.02538018146881825</v>
       </c>
       <c r="J81" t="n">
-        <v>0.08289265003884198</v>
+        <v>0.08628180956054475</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01187755563189894</v>
+        <v>0.0254274856265406</v>
       </c>
       <c r="L81" t="n">
-        <v>0.205053344642794</v>
+        <v>0.2195377979853685</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0110994373651148</v>
+        <v>0.02543463016949118</v>
       </c>
       <c r="N81" t="n">
-        <v>0.3371143813620935</v>
+        <v>0.3540280733858382</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01219350575115582</v>
+        <v>0.02541919442854858</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.06156918642863296</v>
+        <v>0.06754705791190413</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01282570019427398</v>
+        <v>0.02696644281061939</v>
       </c>
       <c r="J82" t="n">
-        <v>0.08381279644443297</v>
+        <v>0.08742196468510426</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01261990285889263</v>
+        <v>0.02701670347819939</v>
       </c>
       <c r="L82" t="n">
-        <v>0.2096694811980721</v>
+        <v>0.2214838323721026</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01179315220043447</v>
+        <v>0.02702429455508438</v>
       </c>
       <c r="N82" t="n">
-        <v>0.3457423456763358</v>
+        <v>0.3564570090391546</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01295559986060306</v>
+        <v>0.02700789408033287</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.06542761926470009</v>
+        <v>0.0612952241077951</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01358015314687833</v>
+        <v>0.02855270415242053</v>
       </c>
       <c r="J83" t="n">
-        <v>0.08521692643187524</v>
+        <v>0.08891872501827518</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01336225008588631</v>
+        <v>0.02860592132985818</v>
       </c>
       <c r="L83" t="n">
-        <v>0.2118228962655444</v>
+        <v>0.2249205453116757</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01248686703575415</v>
+        <v>0.02861395894067758</v>
       </c>
       <c r="N83" t="n">
-        <v>0.3487950100776852</v>
+        <v>0.36310751981836</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01371769397005029</v>
+        <v>0.02859659373211715</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.06419816174359425</v>
+        <v>0.06200340794440692</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01433460609948269</v>
+        <v>0.03013896549422167</v>
       </c>
       <c r="J84" t="n">
-        <v>0.08630992998937768</v>
+        <v>0.08966527910040782</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01410459731287999</v>
+        <v>0.03019513918151697</v>
       </c>
       <c r="L84" t="n">
-        <v>0.2145231532142184</v>
+        <v>0.227830633459891</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01318058187107382</v>
+        <v>0.03020362332627077</v>
       </c>
       <c r="N84" t="n">
-        <v>0.3520927892681976</v>
+        <v>0.3662518668017778</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01447978807949753</v>
+        <v>0.03018529338390144</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.0618853476490195</v>
+        <v>0.064666431661074</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01508905905208704</v>
+        <v>0.03172522683602282</v>
       </c>
       <c r="J85" t="n">
-        <v>0.08679669710514888</v>
+        <v>0.09075481547185245</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01484694453987368</v>
+        <v>0.03178435703317575</v>
       </c>
       <c r="L85" t="n">
-        <v>0.2184798154131016</v>
+        <v>0.2286967934725512</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0138742967063935</v>
+        <v>0.03179328771186397</v>
       </c>
       <c r="N85" t="n">
-        <v>0.3573560979499294</v>
+        <v>0.3670623110677317</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01524188218894477</v>
+        <v>0.03177399303568573</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.06549371076468</v>
+        <v>0.06327911749713078</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01584351200469139</v>
+        <v>0.03331148817782396</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0883821177673977</v>
+        <v>0.09168052267295941</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01558929176686736</v>
+        <v>0.03337357488483454</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2192024462312016</v>
+        <v>0.2325017220054595</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01456801154171317</v>
+        <v>0.03338295209745717</v>
       </c>
       <c r="N86" t="n">
-        <v>0.3600053508249363</v>
+        <v>0.3710111136945449</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01600397629839201</v>
+        <v>0.03336269268747001</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.06602778487427974</v>
+        <v>0.06583628769191166</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01659796495729574</v>
+        <v>0.0348977495196251</v>
       </c>
       <c r="J87" t="n">
-        <v>0.08877108196433288</v>
+        <v>0.09223558924407894</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01633163899386104</v>
+        <v>0.03496279273649333</v>
       </c>
       <c r="L87" t="n">
-        <v>0.2232006090375259</v>
+        <v>0.2329281157144186</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01526172637703285</v>
+        <v>0.03497261648305037</v>
       </c>
       <c r="N87" t="n">
-        <v>0.3649609625952743</v>
+        <v>0.3740705357605412</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01676607040783925</v>
+        <v>0.0349513923392543</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.06549210376152288</v>
+        <v>0.06533276448475107</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01735241790990009</v>
+        <v>0.03648401086142624</v>
       </c>
       <c r="J88" t="n">
-        <v>0.08996847968416315</v>
+        <v>0.09241320372556132</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01707398622085473</v>
+        <v>0.03655201058815212</v>
       </c>
       <c r="L88" t="n">
-        <v>0.2230838672010823</v>
+        <v>0.2341586712552316</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01595544121235252</v>
+        <v>0.03656228086864357</v>
       </c>
       <c r="N88" t="n">
-        <v>0.3658433479629993</v>
+        <v>0.3785128383440439</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01752816451728649</v>
+        <v>0.03654009199103859</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.0698912012101135</v>
+        <v>0.06876337011498347</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01810687086250444</v>
+        <v>0.03807027220322737</v>
       </c>
       <c r="J89" t="n">
-        <v>0.08977920091509721</v>
+        <v>0.09310655465775687</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01781633344784841</v>
+        <v>0.03814122843981091</v>
       </c>
       <c r="L89" t="n">
-        <v>0.226261784090878</v>
+        <v>0.2353760852837014</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01664915604767219</v>
+        <v>0.03815194525423676</v>
       </c>
       <c r="N89" t="n">
-        <v>0.3696729216301677</v>
+        <v>0.3803102825233767</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01829025862673372</v>
+        <v>0.03812879164282287</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.06522961100375566</v>
+        <v>0.06512292682194327</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0188613238151088</v>
+        <v>0.03965653354502852</v>
       </c>
       <c r="J90" t="n">
-        <v>0.09070813564534393</v>
+        <v>0.09410883058101586</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01855868067484209</v>
+        <v>0.03973044629146969</v>
       </c>
       <c r="L90" t="n">
-        <v>0.2272439230759208</v>
+        <v>0.2373630544556309</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01734287088299187</v>
+        <v>0.03974160963982996</v>
       </c>
       <c r="N90" t="n">
-        <v>0.3701700982988352</v>
+        <v>0.380435129376863</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01905235273618096</v>
+        <v>0.03971749129460716</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0665118669261535</v>
+        <v>0.06640625684496486</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01961577676771315</v>
+        <v>0.04124279488682966</v>
       </c>
       <c r="J91" t="n">
-        <v>0.09106017386311198</v>
+        <v>0.09371322003568856</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01930102790183578</v>
+        <v>0.04131966414312848</v>
       </c>
       <c r="L91" t="n">
-        <v>0.2295398475252183</v>
+        <v>0.2389022754268231</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01803658571831154</v>
+        <v>0.04133127402542316</v>
       </c>
       <c r="N91" t="n">
-        <v>0.3705552926710578</v>
+        <v>0.3821596399828263</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0198144468456282</v>
+        <v>0.04130619094639144</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.06674250276101108</v>
+        <v>0.07060818242338271</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0203702297203175</v>
+        <v>0.0428290562286308</v>
       </c>
       <c r="J92" t="n">
-        <v>0.09204020555661012</v>
+        <v>0.09491291156212527</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02004337512882946</v>
+        <v>0.04290888199478727</v>
       </c>
       <c r="L92" t="n">
-        <v>0.230659120807778</v>
+        <v>0.2390764448530809</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01873030055363122</v>
+        <v>0.04292093841101636</v>
       </c>
       <c r="N92" t="n">
-        <v>0.3719489194488915</v>
+        <v>0.3861560754195903</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02057654095507544</v>
+        <v>0.04289489059817573</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.06592605229203248</v>
+        <v>0.07275009902067187</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02112468267292185</v>
+        <v>0.04441531757043194</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0918531207140471</v>
+        <v>0.0951712386301783</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02078572235582314</v>
+        <v>0.04449809984644606</v>
       </c>
       <c r="L93" t="n">
-        <v>0.2313113062926075</v>
+        <v>0.2415625197312453</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0194240153889509</v>
+        <v>0.04451060279660956</v>
       </c>
       <c r="N93" t="n">
-        <v>0.3750713933343924</v>
+        <v>0.3879538008323121</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02133863506452268</v>
+        <v>0.04448359024996001</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.07106704930292181</v>
+        <v>0.06574864724389209</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0218791356255262</v>
+        <v>0.04600157891223308</v>
       </c>
       <c r="J94" t="n">
-        <v>0.09200380932363171</v>
+        <v>0.09447095499169177</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02152806958281683</v>
+        <v>0.04608731769810485</v>
       </c>
       <c r="L94" t="n">
-        <v>0.2319059673487142</v>
+        <v>0.2409604156940054</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02011773022427057</v>
+        <v>0.04610026718220276</v>
       </c>
       <c r="N94" t="n">
-        <v>0.3756431290296164</v>
+        <v>0.3873537650988139</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02210072917396992</v>
+        <v>0.0460722899017443</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.06417002757738316</v>
+        <v>0.068714392531443</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02263358857813056</v>
+        <v>0.04758784025403422</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0927971613735727</v>
+        <v>0.09464494657886487</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02227041680981051</v>
+        <v>0.04767653554976364</v>
       </c>
       <c r="L95" t="n">
-        <v>0.232152667345106</v>
+        <v>0.2402023507852309</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02081144505959024</v>
+        <v>0.04768993156779595</v>
       </c>
       <c r="N95" t="n">
-        <v>0.3772845412366197</v>
+        <v>0.3871337178220984</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02286282328341716</v>
+        <v>0.04766098955352859</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.06823952089912062</v>
+        <v>0.06763666823114603</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02338804153073491</v>
+        <v>0.04917410159583536</v>
       </c>
       <c r="J96" t="n">
-        <v>0.09273806685207876</v>
+        <v>0.09426058642699027</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0230127640368042</v>
+        <v>0.04926575340142242</v>
       </c>
       <c r="L96" t="n">
-        <v>0.2331609696507903</v>
+        <v>0.2400949600850389</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02150515989490992</v>
+        <v>0.04927959595338915</v>
       </c>
       <c r="N96" t="n">
-        <v>0.3773160446574582</v>
+        <v>0.3839773373470931</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0236249173928644</v>
+        <v>0.04924968920531288</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.06728006305183827</v>
+        <v>0.0695182031721903</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02414249448333926</v>
+        <v>0.05076036293763651</v>
       </c>
       <c r="J97" t="n">
-        <v>0.09243141574735873</v>
+        <v>0.09432160863865809</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02375511126379788</v>
+        <v>0.05085497125308121</v>
       </c>
       <c r="L97" t="n">
-        <v>0.2350404376347745</v>
+        <v>0.2406484312761853</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02219887473022959</v>
+        <v>0.05086926033898236</v>
       </c>
       <c r="N97" t="n">
-        <v>0.3749580539941875</v>
+        <v>0.3832992610970578</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02438701150231163</v>
+        <v>0.05083838885709716</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.07029618781924019</v>
+        <v>0.06836172618376489</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02489694743594361</v>
+        <v>0.05234662427943765</v>
       </c>
       <c r="J98" t="n">
-        <v>0.09228209804762129</v>
+        <v>0.09393160304953536</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02449745849079157</v>
+        <v>0.05244418910474</v>
       </c>
       <c r="L98" t="n">
-        <v>0.2343006346660663</v>
+        <v>0.2404718837200628</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02289258956554927</v>
+        <v>0.05245892472457556</v>
       </c>
       <c r="N98" t="n">
-        <v>0.3774306210747729</v>
+        <v>0.3850141082836623</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02514910561175887</v>
+        <v>0.05242708850888145</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.07025390961572923</v>
+        <v>0.06616996609505889</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02565140038854796</v>
+        <v>0.05393288562123879</v>
       </c>
       <c r="J99" t="n">
-        <v>0.09299474710334911</v>
+        <v>0.09439415949528911</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02523980571778525</v>
+        <v>0.05403340695639879</v>
       </c>
       <c r="L99" t="n">
-        <v>0.2333511241136733</v>
+        <v>0.239874436778064</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02358630440086894</v>
+        <v>0.05404858911016876</v>
       </c>
       <c r="N99" t="n">
-        <v>0.3759987422393148</v>
+        <v>0.3820364981185764</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02591119972120611</v>
+        <v>0.05401578816066573</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.07006262430669771</v>
+        <v>0.07094565173526142</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02640585334115231</v>
+        <v>0.05551914696303992</v>
       </c>
       <c r="J100" t="n">
-        <v>0.09305584272150887</v>
+        <v>0.09331286781158631</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02598215294477893</v>
+        <v>0.05562262480805757</v>
       </c>
       <c r="L100" t="n">
-        <v>0.2348014693466032</v>
+        <v>0.2367652098115816</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02428001923618862</v>
+        <v>0.05563825349576196</v>
       </c>
       <c r="N100" t="n">
-        <v>0.375628697791223</v>
+        <v>0.3839810498134696</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02667329383065335</v>
+        <v>0.05560448781245002</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0657406746389855</v>
+        <v>0.06969151193356156</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02716030629375666</v>
+        <v>0.05710540830484107</v>
       </c>
       <c r="J101" t="n">
-        <v>0.09285870985517354</v>
+        <v>0.093191317834094</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02672450017177262</v>
+        <v>0.05721184265971636</v>
       </c>
       <c r="L101" t="n">
-        <v>0.2340612337338633</v>
+        <v>0.2361533221820081</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02497373407150829</v>
+        <v>0.05722791788135515</v>
       </c>
       <c r="N101" t="n">
-        <v>0.3732269915811246</v>
+        <v>0.3811623825800118</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02743538794010059</v>
+        <v>0.0571931874642343</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.07031261202497223</v>
+        <v>0.06541027551914841</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02791475924636102</v>
+        <v>0.05869166964664221</v>
       </c>
       <c r="J102" t="n">
-        <v>0.09270791057393991</v>
+        <v>0.09303309939847916</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0274668473987663</v>
+        <v>0.05880106051137515</v>
       </c>
       <c r="L102" t="n">
-        <v>0.2356142553387508</v>
+        <v>0.2370478932507361</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02566744890682797</v>
+        <v>0.05881758226694835</v>
       </c>
       <c r="N102" t="n">
-        <v>0.3725001274596462</v>
+        <v>0.3808951156298721</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02819748204954783</v>
+        <v>0.0587818871160186</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.06780298787703755</v>
+        <v>0.06910467132121106</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02866921219896537</v>
+        <v>0.06027793098844335</v>
       </c>
       <c r="J103" t="n">
-        <v>0.09240800694740471</v>
+        <v>0.09274180234040881</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02820919462575999</v>
+        <v>0.06039027836303393</v>
       </c>
       <c r="L103" t="n">
-        <v>0.2354141960851759</v>
+        <v>0.2360580423791584</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02636116374214764</v>
+        <v>0.06040724665254155</v>
       </c>
       <c r="N103" t="n">
-        <v>0.3681546092774152</v>
+        <v>0.3793938681747208</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02895957615899507</v>
+        <v>0.06037058676780288</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.06223635360756108</v>
+        <v>0.06777742816893863</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02942366515156972</v>
+        <v>0.06186419233024449</v>
       </c>
       <c r="J104" t="n">
-        <v>0.09216356104516484</v>
+        <v>0.09182101649554998</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02895154185275367</v>
+        <v>0.06197949621469272</v>
       </c>
       <c r="L104" t="n">
-        <v>0.2341705515932717</v>
+        <v>0.2335928889286675</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02705487857746731</v>
+        <v>0.06199691103813474</v>
       </c>
       <c r="N104" t="n">
-        <v>0.3661969408850581</v>
+        <v>0.3742732594262269</v>
       </c>
       <c r="O104" t="n">
-        <v>0.0297216702684423</v>
+        <v>0.06195928641958717</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.06163726062892244</v>
+        <v>0.06943127489152018</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03017811810417408</v>
+        <v>0.06345045367204563</v>
       </c>
       <c r="J105" t="n">
-        <v>0.09177913493681698</v>
+        <v>0.0919743316995696</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02969388907974736</v>
+        <v>0.06356871406635151</v>
       </c>
       <c r="L105" t="n">
-        <v>0.2328949014387185</v>
+        <v>0.2335615522606561</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02774859341278699</v>
+        <v>0.06358657542372795</v>
       </c>
       <c r="N105" t="n">
-        <v>0.3629336261332022</v>
+        <v>0.3732479085960607</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03048376437788954</v>
+        <v>0.06354798607137145</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.06703026035350133</v>
+        <v>0.06806894031814484</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03093257105677842</v>
+        <v>0.06503671501384678</v>
       </c>
       <c r="J106" t="n">
-        <v>0.09135929069195796</v>
+        <v>0.09120533778813476</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03043623630674104</v>
+        <v>0.0651579319180103</v>
       </c>
       <c r="L106" t="n">
-        <v>0.2331988251971966</v>
+        <v>0.2310731517365168</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02844230824810667</v>
+        <v>0.06517623980932115</v>
       </c>
       <c r="N106" t="n">
-        <v>0.3574711688724744</v>
+        <v>0.3718324348958916</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03124585848733678</v>
+        <v>0.06513668572315574</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.06443990419367732</v>
+        <v>0.06469315327800169</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03168702400938278</v>
+        <v>0.06662297635564791</v>
       </c>
       <c r="J107" t="n">
-        <v>0.09110859038018458</v>
+        <v>0.09101762459691241</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03117858353373472</v>
+        <v>0.06674714976966908</v>
       </c>
       <c r="L107" t="n">
-        <v>0.2321939024443865</v>
+        <v>0.2310368067176421</v>
       </c>
       <c r="M107" t="n">
-        <v>0.02913602308342634</v>
+        <v>0.06676590419491435</v>
       </c>
       <c r="N107" t="n">
-        <v>0.3541160729535017</v>
+        <v>0.3697414575373893</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03200795259678402</v>
+        <v>0.06672538537494002</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.06189074356183007</v>
+        <v>0.06430664260027985</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03244147696198713</v>
+        <v>0.06820923769744906</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0906315960710936</v>
+        <v>0.09001478196156958</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0319209307607284</v>
+        <v>0.06833636762132787</v>
       </c>
       <c r="L108" t="n">
-        <v>0.2318917127559684</v>
+        <v>0.2294616365654249</v>
       </c>
       <c r="M108" t="n">
-        <v>0.02982973791874602</v>
+        <v>0.06835556858050755</v>
       </c>
       <c r="N108" t="n">
-        <v>0.351374842226911</v>
+        <v>0.3678895957322231</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03277004670623126</v>
+        <v>0.06831408502672431</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.06540732987033923</v>
+        <v>0.06491213711416839</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03319592991459148</v>
+        <v>0.0697954990392502</v>
       </c>
       <c r="J109" t="n">
-        <v>0.08983286983428181</v>
+        <v>0.08970039971777326</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03266327798772209</v>
+        <v>0.06992558547298666</v>
       </c>
       <c r="L109" t="n">
-        <v>0.2300038357076227</v>
+        <v>0.2277567606412576</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03052345275406569</v>
+        <v>0.06994523296610074</v>
       </c>
       <c r="N109" t="n">
-        <v>0.3472539805433292</v>
+        <v>0.3677914686920633</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0335321408156785</v>
+        <v>0.06990278467850861</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.06501421453158443</v>
+        <v>0.06251236564885641</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03395038286719584</v>
+        <v>0.07138176038105133</v>
       </c>
       <c r="J110" t="n">
-        <v>0.090116973739346</v>
+        <v>0.08967806770119045</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03340562521471577</v>
+        <v>0.07151480332464545</v>
       </c>
       <c r="L110" t="n">
-        <v>0.2308418508750297</v>
+        <v>0.2261312983065328</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03121716758938537</v>
+        <v>0.07153489735169394</v>
       </c>
       <c r="N110" t="n">
-        <v>0.3448599917533837</v>
+        <v>0.3620616956285789</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03429423492512573</v>
+        <v>0.07149148433029288</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.05973594895794529</v>
+        <v>0.06211005703353302</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03470483581980019</v>
+        <v>0.07296802172285248</v>
       </c>
       <c r="J111" t="n">
-        <v>0.08958846985588294</v>
+        <v>0.0891513757474882</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03414797244170946</v>
+        <v>0.07310402117630424</v>
       </c>
       <c r="L111" t="n">
-        <v>0.2294173378338699</v>
+        <v>0.2252943689226434</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03191088242470504</v>
+        <v>0.07312456173728714</v>
       </c>
       <c r="N111" t="n">
-        <v>0.3455993797077008</v>
+        <v>0.3636148957534401</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03505632903457297</v>
+        <v>0.07308018398207718</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.06359708456180149</v>
+        <v>0.06270794009738731</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03545928877240454</v>
+        <v>0.07455428306465361</v>
       </c>
       <c r="J112" t="n">
-        <v>0.08845192025348948</v>
+        <v>0.08792391369233347</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03489031966870314</v>
+        <v>0.07469323902796303</v>
       </c>
       <c r="L112" t="n">
-        <v>0.2285418761598234</v>
+        <v>0.2238550918509817</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03260459726002472</v>
+        <v>0.07471422612288033</v>
       </c>
       <c r="N112" t="n">
-        <v>0.341378648256908</v>
+        <v>0.3587656882783162</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03581842314402021</v>
+        <v>0.07466888363386145</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.05859203993237447</v>
+        <v>0.06530874366960837</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03621374172500889</v>
+        <v>0.07614054440645475</v>
       </c>
       <c r="J113" t="n">
-        <v>0.08851188700176231</v>
+        <v>0.08739927137139329</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03563266689569682</v>
+        <v>0.07628245687962182</v>
       </c>
       <c r="L113" t="n">
-        <v>0.2266270454285707</v>
+        <v>0.2220225864529406</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03329831209534439</v>
+        <v>0.07630389050847353</v>
       </c>
       <c r="N113" t="n">
-        <v>0.3405043012516321</v>
+        <v>0.3568286924148771</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03658051725346745</v>
+        <v>0.07625758328564575</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.05862541587386129</v>
+        <v>0.06690919136855529</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03696819467761324</v>
+        <v>0.0777268057482559</v>
       </c>
       <c r="J114" t="n">
-        <v>0.08797293217029829</v>
+        <v>0.08718023940393176</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03637501412269051</v>
+        <v>0.07787167473128061</v>
       </c>
       <c r="L114" t="n">
-        <v>0.2262844252157922</v>
+        <v>0.2224050450356286</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03399202693066407</v>
+        <v>0.07789355489406673</v>
       </c>
       <c r="N114" t="n">
-        <v>0.3395795738975992</v>
+        <v>0.3554123635112242</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03734261136291469</v>
+        <v>0.07784628293743004</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.06568649501292333</v>
+        <v>0.06346098230205025</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03772264763021759</v>
+        <v>0.07931306709005703</v>
       </c>
       <c r="J115" t="n">
-        <v>0.08713961782869416</v>
+        <v>0.08681408396056474</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03711736134968419</v>
+        <v>0.07946089258293938</v>
       </c>
       <c r="L115" t="n">
-        <v>0.2244255950971681</v>
+        <v>0.2202759925663491</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03468574176598374</v>
+        <v>0.07948321927965993</v>
       </c>
       <c r="N115" t="n">
-        <v>0.3423396462970123</v>
+        <v>0.3549897862990862</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03810470547236193</v>
+        <v>0.07943498258921432</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.06177369988191744</v>
+        <v>0.06196018742045271</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03847710058282194</v>
+        <v>0.08089932843185817</v>
       </c>
       <c r="J116" t="n">
-        <v>0.08681650604654677</v>
+        <v>0.08577563731963646</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03785970857667788</v>
+        <v>0.08105011043459817</v>
       </c>
       <c r="L116" t="n">
-        <v>0.221862134648379</v>
+        <v>0.2173621047420555</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03537945660130341</v>
+        <v>0.08107288366525313</v>
       </c>
       <c r="N116" t="n">
-        <v>0.3418512923525343</v>
+        <v>0.3495750299972128</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03886679958180916</v>
+        <v>0.08102368224099861</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.06588545301320049</v>
+        <v>0.059415697575452</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0392315535354263</v>
+        <v>0.08248558977365932</v>
       </c>
       <c r="J117" t="n">
-        <v>0.08660815889345282</v>
+        <v>0.08547659559486183</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03860205580367156</v>
+        <v>0.08263932828625696</v>
       </c>
       <c r="L117" t="n">
-        <v>0.2208056234451048</v>
+        <v>0.2155930935322497</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03607317143662309</v>
+        <v>0.08266254805084633</v>
       </c>
       <c r="N117" t="n">
-        <v>0.3424973818423175</v>
+        <v>0.3460157257447347</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0396288936912564</v>
+        <v>0.08261238189278289</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.06002017693912938</v>
+        <v>0.06083640361873739</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03998600648803066</v>
+        <v>0.08407185111546045</v>
       </c>
       <c r="J118" t="n">
-        <v>0.08631913843900914</v>
+        <v>0.08432865489995582</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03934440303066524</v>
+        <v>0.08422854613791575</v>
       </c>
       <c r="L118" t="n">
-        <v>0.2198676410630264</v>
+        <v>0.2134986709064338</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03676688627194277</v>
+        <v>0.08425221243643952</v>
       </c>
       <c r="N118" t="n">
-        <v>0.3419607845445137</v>
+        <v>0.3460595046807822</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04039098780070365</v>
+        <v>0.08420108154456718</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.06217629419206093</v>
+        <v>0.06023119640199817</v>
       </c>
       <c r="G119" t="n">
-        <v>0.040740459440635</v>
+        <v>0.0856581124572616</v>
       </c>
       <c r="J119" t="n">
-        <v>0.08615400675281253</v>
+        <v>0.08354351134863326</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04008675025765893</v>
+        <v>0.08581776398957454</v>
       </c>
       <c r="L119" t="n">
-        <v>0.2193597670778237</v>
+        <v>0.2136085488341099</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03746060110726244</v>
+        <v>0.08584187682203272</v>
       </c>
       <c r="N119" t="n">
-        <v>0.3440243702372752</v>
+        <v>0.3425539979444856</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04115308191015088</v>
+        <v>0.08578978119635146</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.06035222730435202</v>
+        <v>0.05760896677692361</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04149491239323935</v>
+        <v>0.08724437379906273</v>
       </c>
       <c r="J120" t="n">
-        <v>0.08521732590445973</v>
+        <v>0.08313286105460908</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04082909748465261</v>
+        <v>0.08740698184123333</v>
       </c>
       <c r="L120" t="n">
-        <v>0.2181935810651773</v>
+        <v>0.2115524392847801</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03815431594258211</v>
+        <v>0.08743154120762592</v>
       </c>
       <c r="N120" t="n">
-        <v>0.344971008698754</v>
+        <v>0.337546836674976</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04191517601959812</v>
+        <v>0.08737848084813575</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.06654639880835954</v>
+        <v>0.05797860559520306</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0422493653458437</v>
+        <v>0.08883063514086388</v>
       </c>
       <c r="J121" t="n">
-        <v>0.08501365796354761</v>
+        <v>0.08240840013159824</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04157144471164629</v>
+        <v>0.08899619969289212</v>
       </c>
       <c r="L121" t="n">
-        <v>0.2184806626007674</v>
+        <v>0.2075600542279466</v>
       </c>
       <c r="M121" t="n">
-        <v>0.03884803077790179</v>
+        <v>0.08902120559321912</v>
       </c>
       <c r="N121" t="n">
-        <v>0.3449835697071022</v>
+        <v>0.3356856520113833</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04267727012904536</v>
+        <v>0.08896718049992003</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.06375723123644031</v>
+        <v>0.05634900370852571</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04300381829844806</v>
+        <v>0.09041689648266502</v>
       </c>
       <c r="J122" t="n">
-        <v>0.08474756499967286</v>
+        <v>0.08178182469331564</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04231379193863998</v>
+        <v>0.09058541754455089</v>
       </c>
       <c r="L122" t="n">
-        <v>0.2174325912602744</v>
+        <v>0.2062611056331112</v>
       </c>
       <c r="M122" t="n">
-        <v>0.03954174561322146</v>
+        <v>0.09061086997881232</v>
       </c>
       <c r="N122" t="n">
-        <v>0.3475449230404719</v>
+        <v>0.3315180750928383</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04343936423849259</v>
+        <v>0.09055588015170432</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.06498314712095123</v>
+        <v>0.06072905196858092</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04375827125105241</v>
+        <v>0.09200315782446616</v>
       </c>
       <c r="J123" t="n">
-        <v>0.08512360908243231</v>
+        <v>0.08076483085347615</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04305613916563366</v>
+        <v>0.09217463539620969</v>
       </c>
       <c r="L123" t="n">
-        <v>0.2149609466193787</v>
+        <v>0.2047853054697764</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04023546044854114</v>
+        <v>0.09220053436440552</v>
       </c>
       <c r="N123" t="n">
-        <v>0.3487379384770153</v>
+        <v>0.3286917370584715</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04420145834793984</v>
+        <v>0.0921445798034886</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.06422256899424916</v>
+        <v>0.05712764122705793</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04451272420365676</v>
+        <v>0.0935894191662673</v>
       </c>
       <c r="J124" t="n">
-        <v>0.08424635228142276</v>
+        <v>0.07926911472579472</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04379848639262734</v>
+        <v>0.09376385324786848</v>
       </c>
       <c r="L124" t="n">
-        <v>0.2149773082537606</v>
+        <v>0.2035623657074439</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04092917528386081</v>
+        <v>0.09379019874999872</v>
       </c>
       <c r="N124" t="n">
-        <v>0.3511454857948842</v>
+        <v>0.3246542690474131</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04496355245738708</v>
+        <v>0.09373327945527289</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.06347391938869097</v>
+        <v>0.05955366233564607</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04526717715626111</v>
+        <v>0.09517568050806845</v>
       </c>
       <c r="J125" t="n">
-        <v>0.08412035666624097</v>
+        <v>0.07860637242398634</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04454083361962103</v>
+        <v>0.09535307109952727</v>
       </c>
       <c r="L125" t="n">
-        <v>0.2139932557391004</v>
+        <v>0.199521998315616</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04162289011918049</v>
+        <v>0.09537986313559191</v>
       </c>
       <c r="N125" t="n">
-        <v>0.355050434772231</v>
+        <v>0.322253302198794</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04572564656683431</v>
+        <v>0.09532197910705718</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.06173562083663352</v>
+        <v>0.05496668007557837</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04602163010886547</v>
+        <v>0.09676194184986958</v>
       </c>
       <c r="J126" t="n">
-        <v>0.08465018430648376</v>
+        <v>0.078052747839794</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04528318084661472</v>
+        <v>0.09694228895118606</v>
       </c>
       <c r="L126" t="n">
-        <v>0.2143203686510786</v>
+        <v>0.1989129106970847</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04231660495450016</v>
+        <v>0.09696952752118511</v>
       </c>
       <c r="N126" t="n">
-        <v>0.3557356551872075</v>
+        <v>0.3191733408853334</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04648774067628155</v>
+        <v>0.09691067875884146</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.06600609587043367</v>
+        <v>0.05932745866094567</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04677608306146982</v>
+        <v>0.09834820319167073</v>
       </c>
       <c r="J127" t="n">
-        <v>0.08444381073148906</v>
+        <v>0.07693092363387556</v>
       </c>
       <c r="K127" t="n">
-        <v>0.0460255280736084</v>
+        <v>0.09853150680284484</v>
       </c>
       <c r="L127" t="n">
-        <v>0.2140702265653754</v>
+        <v>0.1959327418408911</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04301031978981983</v>
+        <v>0.09855919190677831</v>
       </c>
       <c r="N127" t="n">
-        <v>0.3577840168179661</v>
+        <v>0.3140126462890948</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04724983478572879</v>
+        <v>0.09849937841062575</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.06228376702244828</v>
+        <v>0.05364872304877746</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04753053601407417</v>
+        <v>0.09993446453347186</v>
       </c>
       <c r="J128" t="n">
-        <v>0.08444350791710202</v>
+        <v>0.07655294706058054</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04676787530060209</v>
+        <v>0.1001207246545036</v>
       </c>
       <c r="L128" t="n">
-        <v>0.2125544090576711</v>
+        <v>0.1941083308134469</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04370403462513951</v>
+        <v>0.1001488562923715</v>
       </c>
       <c r="N128" t="n">
-        <v>0.3600783894426586</v>
+        <v>0.311826249654267</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04801192889517603</v>
+        <v>0.10008807806241</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.06456705682503425</v>
+        <v>0.05094320049587157</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04828498896667852</v>
+        <v>0.101520725875273</v>
       </c>
       <c r="J129" t="n">
-        <v>0.08445204396159116</v>
+        <v>0.07593556111011825</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04751022252759576</v>
+        <v>0.1017099425061624</v>
       </c>
       <c r="L129" t="n">
-        <v>0.2133844957036463</v>
+        <v>0.1908822103077989</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04439774946045918</v>
+        <v>0.1017385206779647</v>
       </c>
       <c r="N129" t="n">
-        <v>0.3607016428394374</v>
+        <v>0.3059823349704691</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04877402300462327</v>
+        <v>0.1016767777141943</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.06385438781054842</v>
+        <v>0.05122361825902581</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04903944191928287</v>
+        <v>0.1031069872170741</v>
       </c>
       <c r="J130" t="n">
-        <v>0.08485839195554971</v>
+        <v>0.07429550877269799</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04825256975458945</v>
+        <v>0.1032991603578212</v>
       </c>
       <c r="L130" t="n">
-        <v>0.2130763783469184</v>
+        <v>0.1904969130169933</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04509146429577886</v>
+        <v>0.1033281850635579</v>
       </c>
       <c r="N130" t="n">
-        <v>0.3649366467864543</v>
+        <v>0.30554908622732</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04953611711407051</v>
+        <v>0.1032654773659786</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.06314418251134765</v>
+        <v>0.05550270359503794</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04979389487188722</v>
+        <v>0.1046932485588753</v>
       </c>
       <c r="J131" t="n">
-        <v>0.08595152498957094</v>
+        <v>0.07394953303852901</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04899491698158313</v>
+        <v>0.10488837820948</v>
       </c>
       <c r="L131" t="n">
-        <v>0.2119688506994187</v>
+        <v>0.1872949716340764</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04578517913109854</v>
+        <v>0.1049178494491511</v>
       </c>
       <c r="N131" t="n">
-        <v>0.3652662710618615</v>
+        <v>0.3017946874144385</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05029821122351774</v>
+        <v>0.1048541770177629</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.06243486345978881</v>
+        <v>0.04979318376070578</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05054834782449157</v>
+        <v>0.1062795099006764</v>
       </c>
       <c r="J132" t="n">
-        <v>0.08562041615424797</v>
+        <v>0.07241437689782067</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04973726420857681</v>
+        <v>0.1064775960611388</v>
       </c>
       <c r="L132" t="n">
-        <v>0.2122565228258589</v>
+        <v>0.1847189188520947</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04647889396641821</v>
+        <v>0.1065075138347443</v>
       </c>
       <c r="N132" t="n">
-        <v>0.3693733854438112</v>
+        <v>0.2971873225214435</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05106030533296498</v>
+        <v>0.1064428766695472</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0687248531882288</v>
+        <v>0.05410778601282712</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05130280077709592</v>
+        <v>0.1078657712424776</v>
       </c>
       <c r="J133" t="n">
-        <v>0.08605403854017403</v>
+        <v>0.0715067833407822</v>
       </c>
       <c r="K133" t="n">
-        <v>0.0504796114355705</v>
+        <v>0.1080668139127976</v>
       </c>
       <c r="L133" t="n">
-        <v>0.2133243719494237</v>
+        <v>0.1830112873640947</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04717260880173788</v>
+        <v>0.1080971782203375</v>
       </c>
       <c r="N133" t="n">
-        <v>0.3696408597104552</v>
+        <v>0.290895175537954</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05182239944241222</v>
+        <v>0.1080315763213315</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.06901257422902445</v>
+        <v>0.04845923760819978</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05205725372970028</v>
+        <v>0.1094520325842787</v>
       </c>
       <c r="J134" t="n">
-        <v>0.08754136523794233</v>
+        <v>0.07104349535762294</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05122195866256418</v>
+        <v>0.1096560317644564</v>
       </c>
       <c r="L134" t="n">
-        <v>0.2147573752932976</v>
+        <v>0.1811146098631227</v>
       </c>
       <c r="M134" t="n">
-        <v>0.04786632363705756</v>
+        <v>0.1096868426059307</v>
       </c>
       <c r="N134" t="n">
-        <v>0.3728515636399459</v>
+        <v>0.2891864304535887</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05258449355185946</v>
+        <v>0.1096202759731158</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.06729644911453261</v>
+        <v>0.04986026580362156</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05281170668230463</v>
+        <v>0.1110382939260798</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0877713693381461</v>
+        <v>0.07034125593855214</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05196430588955787</v>
+        <v>0.1112452496161151</v>
       </c>
       <c r="L135" t="n">
-        <v>0.216140510080665</v>
+        <v>0.177571419042225</v>
       </c>
       <c r="M135" t="n">
-        <v>0.04856003847237723</v>
+        <v>0.1112765069915239</v>
       </c>
       <c r="N135" t="n">
-        <v>0.3749883670104354</v>
+        <v>0.2861292712579667</v>
       </c>
       <c r="O135" t="n">
-        <v>0.0533465876613067</v>
+        <v>0.1112089756249</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.0685749003771102</v>
+        <v>0.04632359785589024</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05356615963490898</v>
+        <v>0.112624555267881</v>
       </c>
       <c r="J136" t="n">
-        <v>0.08883302393137847</v>
+        <v>0.06971680807377914</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05270665311655156</v>
+        <v>0.1128344674677739</v>
       </c>
       <c r="L136" t="n">
-        <v>0.2173587535347102</v>
+        <v>0.1751242475944481</v>
       </c>
       <c r="M136" t="n">
-        <v>0.04925375330769691</v>
+        <v>0.1128661713771171</v>
       </c>
       <c r="N136" t="n">
-        <v>0.3764341396000753</v>
+        <v>0.2828918819407067</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05410868177075393</v>
+        <v>0.1127976752766843</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.06784635054911403</v>
+        <v>0.05086196102180363</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05432061258751333</v>
+        <v>0.1142108166096821</v>
       </c>
       <c r="J137" t="n">
-        <v>0.08901530210823271</v>
+        <v>0.0689868947535132</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05344900034354524</v>
+        <v>0.1144236853194327</v>
       </c>
       <c r="L137" t="n">
-        <v>0.2171970828786179</v>
+        <v>0.1744156282128385</v>
       </c>
       <c r="M137" t="n">
-        <v>0.04994746814301659</v>
+        <v>0.1144558357627103</v>
       </c>
       <c r="N137" t="n">
-        <v>0.3797717511870183</v>
+        <v>0.2806424464914279</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05487077588020117</v>
+        <v>0.1143863749284686</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.06710922216290101</v>
+        <v>0.04648808255815952</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05507506554011769</v>
+        <v>0.1157970779514833</v>
       </c>
       <c r="J138" t="n">
-        <v>0.089607176959302</v>
+        <v>0.06796825896796363</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05419134757053892</v>
+        <v>0.1160129031710915</v>
       </c>
       <c r="L138" t="n">
-        <v>0.2191404753355723</v>
+        <v>0.1737880935904424</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05064118297833626</v>
+        <v>0.1160455001483035</v>
       </c>
       <c r="N138" t="n">
-        <v>0.3802840715494162</v>
+        <v>0.2764491488997488</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05563286998964841</v>
+        <v>0.1159750745802529</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.07136193775082798</v>
+        <v>0.04821468972175573</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05582951849272205</v>
+        <v>0.1173833392932844</v>
       </c>
       <c r="J139" t="n">
-        <v>0.09079762157517955</v>
+        <v>0.06767764370733971</v>
       </c>
       <c r="K139" t="n">
-        <v>0.0549336947975326</v>
+        <v>0.1176021210227503</v>
       </c>
       <c r="L139" t="n">
-        <v>0.2190739081287582</v>
+        <v>0.1732841764203062</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05133489781365594</v>
+        <v>0.1176351645338967</v>
       </c>
       <c r="N139" t="n">
-        <v>0.3792539704654211</v>
+        <v>0.2762801731552887</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05639496409909565</v>
+        <v>0.1175637742320372</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.06460291984525181</v>
+        <v>0.04505450976939007</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0565839714453264</v>
+        <v>0.1189696006350855</v>
       </c>
       <c r="J140" t="n">
-        <v>0.09137560904645851</v>
+        <v>0.06753179196185075</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05567604202452629</v>
+        <v>0.1191913388744091</v>
       </c>
       <c r="L140" t="n">
-        <v>0.2226823584813597</v>
+        <v>0.1729464093954766</v>
       </c>
       <c r="M140" t="n">
-        <v>0.0520286126489756</v>
+        <v>0.1192248289194899</v>
       </c>
       <c r="N140" t="n">
-        <v>0.3843643177131851</v>
+        <v>0.2742037032476663</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05715705820854289</v>
+        <v>0.1191524738838215</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.07183059097852938</v>
+        <v>0.05001689019803009</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05733842439793074</v>
+        <v>0.1205558619768867</v>
       </c>
       <c r="J141" t="n">
-        <v>0.09173011246373215</v>
+        <v>0.06794743723848605</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05641838925151997</v>
+        <v>0.1207805567260679</v>
       </c>
       <c r="L141" t="n">
-        <v>0.2227508036165614</v>
+        <v>0.1711173252089997</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05272232748429528</v>
+        <v>0.1208144933050831</v>
       </c>
       <c r="N141" t="n">
-        <v>0.3818979830708604</v>
+        <v>0.2770871065997585</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05791915231799014</v>
+        <v>0.1207411735356058</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.06704337368301753</v>
+        <v>0.046031236377508</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0580928773505351</v>
+        <v>0.1221421233186878</v>
       </c>
       <c r="J142" t="n">
-        <v>0.09265010491759369</v>
+        <v>0.06736049762397724</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05716073647851366</v>
+        <v>0.1223697745777267</v>
       </c>
       <c r="L142" t="n">
-        <v>0.2242642207575478</v>
+        <v>0.1706481626810749</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05341604231961496</v>
+        <v>0.1224041576906763</v>
       </c>
       <c r="N142" t="n">
-        <v>0.3855378363165989</v>
+        <v>0.2767444484624346</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05868124642743736</v>
+        <v>0.1223298731873901</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.07023969049107318</v>
+        <v>0.04706419668926973</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05884733030313945</v>
+        <v>0.123728384660489</v>
       </c>
       <c r="J143" t="n">
-        <v>0.09312455949863628</v>
+        <v>0.06729827898653054</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05790308370550733</v>
+        <v>0.1239589924293854</v>
       </c>
       <c r="L143" t="n">
-        <v>0.2263075871275032</v>
+        <v>0.1726419945724046</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05410975715493463</v>
+        <v>0.1239938220762695</v>
       </c>
       <c r="N143" t="n">
-        <v>0.3844667472285528</v>
+        <v>0.2753022972556523</v>
       </c>
       <c r="O143" t="n">
-        <v>0.0594433405368846</v>
+        <v>0.1239185728391743</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.06541796393505313</v>
+        <v>0.04711483593912187</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0596017832557438</v>
+        <v>0.1253146460022901</v>
       </c>
       <c r="J144" t="n">
-        <v>0.09304244929745313</v>
+        <v>0.06775955105732424</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05864543093250103</v>
+        <v>0.1255482102810442</v>
       </c>
       <c r="L144" t="n">
-        <v>0.2289658799496123</v>
+        <v>0.1708955900383784</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05480347199025432</v>
+        <v>0.1255834864618627</v>
       </c>
       <c r="N144" t="n">
-        <v>0.3876675855848741</v>
+        <v>0.2757556428446912</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06020543464633184</v>
+        <v>0.1255072724909586</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.07157661654731427</v>
+        <v>0.04818221893287108</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06035623620834815</v>
+        <v>0.1269009073440913</v>
       </c>
       <c r="J145" t="n">
-        <v>0.09379274740463749</v>
+        <v>0.06764308356753675</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05938777815949471</v>
+        <v>0.127137428132703</v>
       </c>
       <c r="L145" t="n">
-        <v>0.2288240764470593</v>
+        <v>0.1710058237922046</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05549718682557398</v>
+        <v>0.1271731508474559</v>
       </c>
       <c r="N145" t="n">
-        <v>0.3879538008323121</v>
+        <v>0.2773994750948314</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06096752875577909</v>
+        <v>0.1270959721427429</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.07275009902067187</v>
+        <v>0.04926541047632402</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0611106891609525</v>
+        <v>0.1284871686858924</v>
       </c>
       <c r="J146" t="n">
-        <v>0.09476442691078248</v>
+        <v>0.06814764624834639</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06013012538648839</v>
+        <v>0.1287266459843618</v>
       </c>
       <c r="L146" t="n">
-        <v>0.2315671538430287</v>
+        <v>0.1716695705470913</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05619090166089365</v>
+        <v>0.1287628152330491</v>
       </c>
       <c r="N146" t="n">
-        <v>0.3841524869126929</v>
+        <v>0.2784287838713533</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06172962286522633</v>
+        <v>0.1286846717945272</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.06983523702607136</v>
+        <v>0.05036347537528725</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06186514211355685</v>
+        <v>0.1300734300276936</v>
       </c>
       <c r="J147" t="n">
-        <v>0.09444646090648136</v>
+        <v>0.06817200883093158</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06087247261348207</v>
+        <v>0.1303158638360206</v>
       </c>
       <c r="L147" t="n">
-        <v>0.2317800893607052</v>
+        <v>0.1725837050162471</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05688461649621333</v>
+        <v>0.1303524796186423</v>
       </c>
       <c r="N147" t="n">
-        <v>0.3845427611656327</v>
+        <v>0.2772385590395366</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06249171697467357</v>
+        <v>0.1302733714463115</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.06695721369995007</v>
+        <v>0.04747547843556746</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0626195950661612</v>
+        <v>0.1316596913694947</v>
       </c>
       <c r="J148" t="n">
-        <v>0.0951712386301783</v>
+        <v>0.0685149410464706</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06161481984047575</v>
+        <v>0.1319050816876794</v>
       </c>
       <c r="L148" t="n">
-        <v>0.234447860223273</v>
+        <v>0.1723451019128798</v>
       </c>
       <c r="M148" t="n">
-        <v>0.05757833133153301</v>
+        <v>0.1319421440042355</v>
       </c>
       <c r="N148" t="n">
-        <v>0.3860238404319091</v>
+        <v>0.2772237904646615</v>
       </c>
       <c r="O148" t="n">
-        <v>0.0632538110841208</v>
+        <v>0.1318620710980958</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.0680801885069926</v>
+        <v>0.05260048446297125</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06337404801876556</v>
+        <v>0.1332459527112958</v>
       </c>
       <c r="J149" t="n">
-        <v>0.09510196105543163</v>
+        <v>0.06807521262614187</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06235716706746944</v>
+        <v>0.1334942995393382</v>
       </c>
       <c r="L149" t="n">
-        <v>0.2357554436539167</v>
+        <v>0.174250635950198</v>
       </c>
       <c r="M149" t="n">
-        <v>0.05827204616685269</v>
+        <v>0.1335318083898287</v>
       </c>
       <c r="N149" t="n">
-        <v>0.3843960549589577</v>
+        <v>0.2795794680120079</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06401590519356803</v>
+        <v>0.13345077074988</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.07120324446114734</v>
+        <v>0.04973755826330527</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06412850097136991</v>
+        <v>0.1348322140530969</v>
       </c>
       <c r="J150" t="n">
-        <v>0.09476522429520672</v>
+        <v>0.06835159330112373</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06309951429446313</v>
+        <v>0.1350835173909969</v>
       </c>
       <c r="L150" t="n">
-        <v>0.2374878168758206</v>
+        <v>0.1743971818414098</v>
       </c>
       <c r="M150" t="n">
-        <v>0.05896576100217236</v>
+        <v>0.1351214727754219</v>
       </c>
       <c r="N150" t="n">
-        <v>0.3843597349942141</v>
+        <v>0.2775005815468561</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06477799930301527</v>
+        <v>0.1350394704016643</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.07332546457636269</v>
+        <v>0.04588576464237613</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06488295392397425</v>
+        <v>0.1364184753948981</v>
       </c>
       <c r="J151" t="n">
-        <v>0.09552518739123096</v>
+        <v>0.06864285280259454</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06384186152145681</v>
+        <v>0.1366727352426557</v>
       </c>
       <c r="L151" t="n">
-        <v>0.2378299571121693</v>
+        <v>0.1745816142997235</v>
       </c>
       <c r="M151" t="n">
-        <v>0.05965947583749203</v>
+        <v>0.1367111371610151</v>
       </c>
       <c r="N151" t="n">
-        <v>0.3875152107851138</v>
+        <v>0.278482120934486</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06554009341246252</v>
+        <v>0.1366281700534486</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.07044593186658699</v>
+        <v>0.05004416840599048</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06563740687657861</v>
+        <v>0.1380047367366992</v>
       </c>
       <c r="J152" t="n">
-        <v>0.09538172736077478</v>
+        <v>0.06934776086173262</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06458420874845049</v>
+        <v>0.1382619530943145</v>
       </c>
       <c r="L152" t="n">
-        <v>0.2395668415861472</v>
+        <v>0.1750008080383473</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06035319067281171</v>
+        <v>0.1383008015466083</v>
       </c>
       <c r="N152" t="n">
-        <v>0.3848628125790923</v>
+        <v>0.2798190760401776</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06630218752190975</v>
+        <v>0.1382168697052329</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0715637293457687</v>
+        <v>0.05021183435995494</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06639185982918297</v>
+        <v>0.1395909980785004</v>
       </c>
       <c r="J153" t="n">
-        <v>0.0953347212211086</v>
+        <v>0.06916508720971638</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06532655597544418</v>
+        <v>0.1398511709459733</v>
       </c>
       <c r="L153" t="n">
-        <v>0.2415625197312453</v>
+        <v>0.1763516377704895</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06104690550813138</v>
+        <v>0.1398904659322015</v>
       </c>
       <c r="N153" t="n">
-        <v>0.3871028706235853</v>
+        <v>0.2806064367292112</v>
       </c>
       <c r="O153" t="n">
-        <v>0.067064281631357</v>
+        <v>0.1398055693570172</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.0736779400278562</v>
+        <v>0.05244659083064818</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06714631278178733</v>
+        <v>0.1411772594203015</v>
       </c>
       <c r="J154" t="n">
-        <v>0.09618404598950285</v>
+        <v>0.0696382112157572</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06606890320243786</v>
+        <v>0.1414403887976321</v>
       </c>
       <c r="L154" t="n">
-        <v>0.2413938310437244</v>
+        <v>0.1752336942187868</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06174062034345105</v>
+        <v>0.1414801303177947</v>
       </c>
       <c r="N154" t="n">
-        <v>0.3873357151660284</v>
+        <v>0.2810416209349907</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06782637574080423</v>
+        <v>0.1413942690088015</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.06778764692679787</v>
+        <v>0.05283572385623021</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06790076573439167</v>
+        <v>0.1427635207621027</v>
       </c>
       <c r="J155" t="n">
-        <v>0.09562957868322795</v>
+        <v>0.0698093726924353</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06681125042943155</v>
+        <v>0.1430296066492909</v>
       </c>
       <c r="L155" t="n">
-        <v>0.2423120532397521</v>
+        <v>0.1778146896561462</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06243433517877073</v>
+        <v>0.1430697947033879</v>
       </c>
       <c r="N155" t="n">
-        <v>0.3848616764538568</v>
+        <v>0.2857898279369251</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06858846985025147</v>
+        <v>0.1429829686605858</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.07289193305654211</v>
+        <v>0.05135307613861276</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06865521868699602</v>
+        <v>0.1443497821039038</v>
       </c>
       <c r="J156" t="n">
-        <v>0.09607119631955434</v>
+        <v>0.07005642663352003</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06755359765642523</v>
+        <v>0.1446188245009497</v>
       </c>
       <c r="L156" t="n">
-        <v>0.2427484466959536</v>
+        <v>0.1794452728413127</v>
       </c>
       <c r="M156" t="n">
-        <v>0.0631280500140904</v>
+        <v>0.1446594590889811</v>
       </c>
       <c r="N156" t="n">
-        <v>0.3867810847345065</v>
+        <v>0.2876491940890671</v>
       </c>
       <c r="O156" t="n">
-        <v>0.0693505639596987</v>
+        <v>0.1445716683123701</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.07098988143103732</v>
+        <v>0.05097041642226967</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06940967163960038</v>
+        <v>0.145936043445705</v>
       </c>
       <c r="J157" t="n">
-        <v>0.09620877591575243</v>
+        <v>0.07124223419264572</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06829594488341892</v>
+        <v>0.1462080423526085</v>
       </c>
       <c r="L157" t="n">
-        <v>0.2425995592249757</v>
+        <v>0.1808310989091922</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06382176484941007</v>
+        <v>0.1462491234745743</v>
       </c>
       <c r="N157" t="n">
-        <v>0.3858942702554129</v>
+        <v>0.2917684755166129</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07011265806914595</v>
+        <v>0.1461603679641544</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0690805750642319</v>
+        <v>0.05365951345167476</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07016412459220472</v>
+        <v>0.1475223047875061</v>
       </c>
       <c r="J158" t="n">
-        <v>0.09644219448909265</v>
+        <v>0.07172965652344664</v>
       </c>
       <c r="K158" t="n">
-        <v>0.0690382921104126</v>
+        <v>0.1477972602042673</v>
       </c>
       <c r="L158" t="n">
-        <v>0.2438619386394651</v>
+        <v>0.1822778229946905</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06451547968472976</v>
+        <v>0.1478387878601675</v>
       </c>
       <c r="N158" t="n">
-        <v>0.3841015632640113</v>
+        <v>0.2949964283447586</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07087475217859318</v>
+        <v>0.1477490676159386</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.06716309697007426</v>
+        <v>0.05539213597130195</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07091857754480908</v>
+        <v>0.1491085661293072</v>
       </c>
       <c r="J159" t="n">
-        <v>0.09667132905684538</v>
+        <v>0.07358155477955711</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06978063933740628</v>
+        <v>0.1493864780559261</v>
       </c>
       <c r="L159" t="n">
-        <v>0.2446321327520685</v>
+        <v>0.1866911002327135</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06520919452004943</v>
+        <v>0.1494284522457607</v>
       </c>
       <c r="N159" t="n">
-        <v>0.3871032940077377</v>
+        <v>0.3000818086987</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07163684628804043</v>
+        <v>0.1493377672677229</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.06823653016251277</v>
+        <v>0.05714005272562504</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07167303049741343</v>
+        <v>0.1506948274711084</v>
       </c>
       <c r="J160" t="n">
-        <v>0.09649605663628109</v>
+        <v>0.07376079011461141</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07052298656439997</v>
+        <v>0.1509756959075848</v>
       </c>
       <c r="L160" t="n">
-        <v>0.2458066893754327</v>
+        <v>0.1888765857581667</v>
       </c>
       <c r="M160" t="n">
-        <v>0.0659029093553691</v>
+        <v>0.1510181166313539</v>
       </c>
       <c r="N160" t="n">
-        <v>0.3846997927340273</v>
+        <v>0.3010733727036338</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07239894039748766</v>
+        <v>0.1509264669195072</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.07229995765549586</v>
+        <v>0.05487503245911791</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07242748345001777</v>
+        <v>0.1522810888129095</v>
       </c>
       <c r="J161" t="n">
-        <v>0.09651625424467018</v>
+        <v>0.07513022368224388</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07126533379139365</v>
+        <v>0.1525649137592436</v>
       </c>
       <c r="L161" t="n">
-        <v>0.2479821563222043</v>
+        <v>0.1916399347059561</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06659662419068878</v>
+        <v>0.1526077810169471</v>
       </c>
       <c r="N161" t="n">
-        <v>0.3842913896903157</v>
+        <v>0.3045198764847559</v>
       </c>
       <c r="O161" t="n">
-        <v>0.0731610345069349</v>
+        <v>0.1525151665712915</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.06735246246297188</v>
+        <v>0.05756884391625439</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07318193640262213</v>
+        <v>0.1538673501547106</v>
       </c>
       <c r="J162" t="n">
-        <v>0.09703179889928311</v>
+        <v>0.07585271663608877</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07200768101838734</v>
+        <v>0.1541541316109024</v>
       </c>
       <c r="L162" t="n">
-        <v>0.24845508140503</v>
+        <v>0.1934868022109872</v>
       </c>
       <c r="M162" t="n">
-        <v>0.06729033902600845</v>
+        <v>0.1541974454025403</v>
       </c>
       <c r="N162" t="n">
-        <v>0.3849784151240386</v>
+        <v>0.3083700761672622</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07392312861638213</v>
+        <v>0.1541038662230758</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.07339312759888927</v>
+        <v>0.05919325584150836</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07393638935522648</v>
+        <v>0.1554536114965118</v>
       </c>
       <c r="J163" t="n">
-        <v>0.09714256761739025</v>
+        <v>0.07719113012978042</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07275002824538102</v>
+        <v>0.1557433494625612</v>
       </c>
       <c r="L163" t="n">
-        <v>0.2485220124365567</v>
+        <v>0.1947228434081661</v>
       </c>
       <c r="M163" t="n">
-        <v>0.06798405386132814</v>
+        <v>0.1557871097881335</v>
       </c>
       <c r="N163" t="n">
-        <v>0.3841611992826315</v>
+        <v>0.312572727876349</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07468522272582938</v>
+        <v>0.1556925658748601</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.06742103607719639</v>
+        <v>0.05873404891819731</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07469084230783084</v>
+        <v>0.1570398728383129</v>
       </c>
       <c r="J164" t="n">
-        <v>0.09694843741626204</v>
+        <v>0.07781577851854886</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07349237547237469</v>
+        <v>0.15733256731422</v>
       </c>
       <c r="L164" t="n">
-        <v>0.2513794972294309</v>
+        <v>0.1970695528001748</v>
       </c>
       <c r="M164" t="n">
-        <v>0.06867776869664781</v>
+        <v>0.1573767741737267</v>
       </c>
       <c r="N164" t="n">
-        <v>0.3846400724135298</v>
+        <v>0.3165132757908969</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07544731683527661</v>
+        <v>0.1572812655266443</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.07043527091184168</v>
+        <v>0.05925115193454414</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07544529526043518</v>
+        <v>0.1586261341801141</v>
       </c>
       <c r="J165" t="n">
-        <v>0.09714928531316892</v>
+        <v>0.07859660673610201</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07423472269936837</v>
+        <v>0.1589217851658788</v>
       </c>
       <c r="L165" t="n">
-        <v>0.2510240835962996</v>
+        <v>0.1992993047741471</v>
       </c>
       <c r="M165" t="n">
-        <v>0.06937148353196748</v>
+        <v>0.1589664385593199</v>
       </c>
       <c r="N165" t="n">
-        <v>0.3831153647641694</v>
+        <v>0.3191854595172581</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07620941094472386</v>
+        <v>0.1588699651784286</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.0684352762993771</v>
+        <v>0.05575604729715657</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07619974821303954</v>
+        <v>0.1602123955219152</v>
       </c>
       <c r="J166" t="n">
-        <v>0.09744498832538136</v>
+        <v>0.07866118840204671</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07497706992636206</v>
+        <v>0.1605110030175376</v>
       </c>
       <c r="L166" t="n">
-        <v>0.2529523193498092</v>
+        <v>0.1998877135358281</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07006519836728715</v>
+        <v>0.1605561029449131</v>
       </c>
       <c r="N166" t="n">
-        <v>0.3843874065819856</v>
+        <v>0.3221916142976017</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07697150505417109</v>
+        <v>0.1604586648302129</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.07242263433342623</v>
+        <v>0.05724963058642984</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07695420116564389</v>
+        <v>0.1617986568637163</v>
       </c>
       <c r="J167" t="n">
-        <v>0.09703542347016962</v>
+        <v>0.07981070167236963</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07571941715335576</v>
+        <v>0.1621002208691963</v>
       </c>
       <c r="L167" t="n">
-        <v>0.2534607523026066</v>
+        <v>0.2011377719882959</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07075891320260683</v>
+        <v>0.1621457673305063</v>
       </c>
       <c r="N167" t="n">
-        <v>0.3846565281144139</v>
+        <v>0.3248365380428476</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07773359916361833</v>
+        <v>0.1620473644819972</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.07239799313076296</v>
+        <v>0.06173279738275922</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07770865411824823</v>
+        <v>0.1633849182055175</v>
       </c>
       <c r="J168" t="n">
-        <v>0.09762046776480428</v>
+        <v>0.08054632470305738</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07646176438034943</v>
+        <v>0.1636894387208551</v>
       </c>
       <c r="L168" t="n">
-        <v>0.2552459302673384</v>
+        <v>0.2038524730346291</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07145262803792651</v>
+        <v>0.1637354317160995</v>
       </c>
       <c r="N168" t="n">
-        <v>0.3826103115179459</v>
+        <v>0.326525028663916</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07849569327306556</v>
+        <v>0.1636360641337815</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.07436174587389496</v>
+        <v>0.06220644326653994</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07846310707085259</v>
+        <v>0.1649711795473186</v>
       </c>
       <c r="J169" t="n">
-        <v>0.09759999822655573</v>
+        <v>0.08056923565009659</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07720411160734311</v>
+        <v>0.1652786565725139</v>
       </c>
       <c r="L169" t="n">
-        <v>0.2558044010566516</v>
+        <v>0.205134809577906</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07214634287324617</v>
+        <v>0.1653250961016927</v>
       </c>
       <c r="N169" t="n">
-        <v>0.3851240309063547</v>
+        <v>0.327961884071727</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07925778738251281</v>
+        <v>0.1652247637855658</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.07131428574532996</v>
+        <v>0.0556714638181673</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07921756002345695</v>
+        <v>0.1665574408891198</v>
       </c>
       <c r="J170" t="n">
-        <v>0.09737389187269434</v>
+        <v>0.08108061266947382</v>
       </c>
       <c r="K170" t="n">
-        <v>0.0779464588343368</v>
+        <v>0.1668678744241727</v>
       </c>
       <c r="L170" t="n">
-        <v>0.2565327124831926</v>
+        <v>0.2058877745212052</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07284005770856584</v>
+        <v>0.1669147604872858</v>
       </c>
       <c r="N170" t="n">
-        <v>0.3846979974927806</v>
+        <v>0.331651902177201</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08001988149196004</v>
+        <v>0.1668134634373501</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.06925600592757566</v>
+        <v>0.05812875461803653</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07997201297606131</v>
+        <v>0.1681437022309209</v>
       </c>
       <c r="J171" t="n">
-        <v>0.09774202572049058</v>
+        <v>0.08248163391717571</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07868880606133048</v>
+        <v>0.1684570922758315</v>
       </c>
       <c r="L171" t="n">
-        <v>0.2565274123596084</v>
+        <v>0.2070143607676049</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07353377254388553</v>
+        <v>0.168504424872879</v>
       </c>
       <c r="N171" t="n">
-        <v>0.3853332303241304</v>
+        <v>0.334899880891258</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08078197560140729</v>
+        <v>0.1684021630891344</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.06818729960313977</v>
+        <v>0.06057921124654292</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08072646592866566</v>
+        <v>0.1697299635727221</v>
       </c>
       <c r="J172" t="n">
-        <v>0.09800427678721486</v>
+        <v>0.08257347754918888</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07943115328832417</v>
+        <v>0.1700463101274903</v>
       </c>
       <c r="L172" t="n">
-        <v>0.2573850484985454</v>
+        <v>0.2101175612201838</v>
       </c>
       <c r="M172" t="n">
-        <v>0.0742274873792052</v>
+        <v>0.1700940892584722</v>
       </c>
       <c r="N172" t="n">
-        <v>0.3847307484473105</v>
+        <v>0.3349106181248178</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08154406971085452</v>
+        <v>0.1699908627409187</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.06910855995453</v>
+        <v>0.06002372928408173</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08148091888127</v>
+        <v>0.1713162249145232</v>
       </c>
       <c r="J173" t="n">
-        <v>0.09756052209013759</v>
+        <v>0.08355732172149997</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08017350051531785</v>
+        <v>0.1716355279791491</v>
       </c>
       <c r="L173" t="n">
-        <v>0.2588021687126506</v>
+        <v>0.21100036878202</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07492120221452488</v>
+        <v>0.1716837536440654</v>
       </c>
       <c r="N173" t="n">
-        <v>0.3810915709092276</v>
+        <v>0.340788911788801</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08230616382030176</v>
+        <v>0.1715795623927029</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.06902018016425403</v>
+        <v>0.05746320431104818</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08223537183387436</v>
+        <v>0.1729024862563243</v>
       </c>
       <c r="J174" t="n">
-        <v>0.09731063864652918</v>
+        <v>0.08343434459009556</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08091584774231154</v>
+        <v>0.1732247458308079</v>
       </c>
       <c r="L174" t="n">
-        <v>0.2584753208145706</v>
+        <v>0.2126657763561922</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07561491704984455</v>
+        <v>0.1732734180296586</v>
       </c>
       <c r="N174" t="n">
-        <v>0.3810167167567887</v>
+        <v>0.3430395597941274</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08306825792974899</v>
+        <v>0.1731682620444872</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.06692255341481959</v>
+        <v>0.06289853190783756</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08298982478647871</v>
+        <v>0.1744887475981255</v>
       </c>
       <c r="J175" t="n">
-        <v>0.09745450347366015</v>
+        <v>0.08430572431096221</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08165819496930522</v>
+        <v>0.1748139636824667</v>
       </c>
       <c r="L175" t="n">
-        <v>0.2591010526169522</v>
+        <v>0.2137167768457786</v>
       </c>
       <c r="M175" t="n">
-        <v>0.07630863188516422</v>
+        <v>0.1748630824152518</v>
       </c>
       <c r="N175" t="n">
-        <v>0.3820072050369003</v>
+        <v>0.343767360051717</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08383035203919624</v>
+        <v>0.1747569616962715</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.06681607288873438</v>
+        <v>0.06334519817318177</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08374427773908306</v>
+        <v>0.1760750089399266</v>
       </c>
       <c r="J176" t="n">
-        <v>0.09739199358880078</v>
+        <v>0.08508568297462528</v>
       </c>
       <c r="K176" t="n">
-        <v>0.0824005421962989</v>
+        <v>0.1764031815341254</v>
       </c>
       <c r="L176" t="n">
-        <v>0.2611759119324419</v>
+        <v>0.2164873766567302</v>
       </c>
       <c r="M176" t="n">
-        <v>0.07700234672048391</v>
+        <v>0.1764527468008451</v>
       </c>
       <c r="N176" t="n">
-        <v>0.3813640547964688</v>
+        <v>0.3470343065022675</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08459244614864347</v>
+        <v>0.1763456613480558</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.07270113176850612</v>
+        <v>0.0628159884858111</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08449873069168741</v>
+        <v>0.1776612702817278</v>
       </c>
       <c r="J177" t="n">
-        <v>0.09802298600922159</v>
+        <v>0.08539888317940104</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08314288942329258</v>
+        <v>0.1779923993857842</v>
       </c>
       <c r="L177" t="n">
-        <v>0.2602964465736867</v>
+        <v>0.216842643477006</v>
       </c>
       <c r="M177" t="n">
-        <v>0.07769606155580358</v>
+        <v>0.1780424111864382</v>
       </c>
       <c r="N177" t="n">
-        <v>0.3809882850824016</v>
+        <v>0.3471360218275391</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08535454025809072</v>
+        <v>0.1779343609998401</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.07357812323664251</v>
+        <v>0.06029574882142545</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08525318364429176</v>
+        <v>0.1792475316235289</v>
       </c>
       <c r="J178" t="n">
-        <v>0.09754735775219299</v>
+        <v>0.0860271373394474</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08388523665028627</v>
+        <v>0.179581617237443</v>
       </c>
       <c r="L178" t="n">
-        <v>0.2620592043533331</v>
+        <v>0.2195373979783292</v>
       </c>
       <c r="M178" t="n">
-        <v>0.07838977639112325</v>
+        <v>0.1796320755720315</v>
       </c>
       <c r="N178" t="n">
-        <v>0.3799809149416045</v>
+        <v>0.3520967238627293</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08611663436753796</v>
+        <v>0.1795230606516243</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.06644744047565121</v>
+        <v>0.0647690946883947</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08600763659689611</v>
+        <v>0.18083379296533</v>
       </c>
       <c r="J179" t="n">
-        <v>0.09756498583498534</v>
+        <v>0.08675020681286137</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08462758387727996</v>
+        <v>0.1811708350891018</v>
       </c>
       <c r="L179" t="n">
-        <v>0.261160733084028</v>
+        <v>0.2211202273644802</v>
       </c>
       <c r="M179" t="n">
-        <v>0.07908349122644293</v>
+        <v>0.1812217399576246</v>
       </c>
       <c r="N179" t="n">
-        <v>0.3789429634209848</v>
+        <v>0.3550339929604414</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08687872847698519</v>
+        <v>0.1811117603034086</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.07230947666803998</v>
+        <v>0.06122064159508873</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08676208954950046</v>
+        <v>0.1824200543071312</v>
       </c>
       <c r="J180" t="n">
-        <v>0.09777574727486914</v>
+        <v>0.08774785295774003</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08536993110427364</v>
+        <v>0.1827600529407606</v>
       </c>
       <c r="L180" t="n">
-        <v>0.2616975805784181</v>
+        <v>0.2207397188392397</v>
       </c>
       <c r="M180" t="n">
-        <v>0.0797772060617626</v>
+        <v>0.1828114043432179</v>
       </c>
       <c r="N180" t="n">
-        <v>0.378375449567449</v>
+        <v>0.3566654094732792</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08764082258643242</v>
+        <v>0.1827004599551929</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.07016462499631652</v>
+        <v>0.06363500504987749</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08751654250210482</v>
+        <v>0.1840063156489323</v>
       </c>
       <c r="J181" t="n">
-        <v>0.09827951908911479</v>
+        <v>0.08809983713218043</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08611227833126732</v>
+        <v>0.1843492707924194</v>
       </c>
       <c r="L181" t="n">
-        <v>0.26206629464915</v>
+        <v>0.2242444596063882</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08047092089708228</v>
+        <v>0.184401068728811</v>
       </c>
       <c r="N181" t="n">
-        <v>0.3805793924279035</v>
+        <v>0.357808553753846</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08840291669587967</v>
+        <v>0.1842891596069772</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.06801327864298853</v>
+        <v>0.06299680056113087</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08827099545470916</v>
+        <v>0.1855925769907335</v>
       </c>
       <c r="J182" t="n">
-        <v>0.09815721633486542</v>
+        <v>0.0880859206942796</v>
       </c>
       <c r="K182" t="n">
-        <v>0.086854625558261</v>
+        <v>0.1859384886440782</v>
       </c>
       <c r="L182" t="n">
-        <v>0.2621634231088705</v>
+        <v>0.2245830368697062</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08116463573240196</v>
+        <v>0.1859907331144043</v>
       </c>
       <c r="N182" t="n">
-        <v>0.3799558110492556</v>
+        <v>0.3601810061547459</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08916501080532691</v>
+        <v>0.1858778592587615</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.0658558307905637</v>
+        <v>0.06629064363721877</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08902544840731352</v>
+        <v>0.1871788383325346</v>
       </c>
       <c r="J183" t="n">
-        <v>0.09758887492084002</v>
+        <v>0.0892858650021346</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08759697278525469</v>
+        <v>0.187527706495737</v>
       </c>
       <c r="L183" t="n">
-        <v>0.2614855137702262</v>
+        <v>0.2247040378329744</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08185835056772162</v>
+        <v>0.1875803974999974</v>
       </c>
       <c r="N183" t="n">
-        <v>0.3784057244784113</v>
+        <v>0.363000347028582</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08992710491477415</v>
+        <v>0.1874665589105458</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.06769267462154975</v>
+        <v>0.06450189961704172</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08977990135991787</v>
+        <v>0.1887650996743357</v>
       </c>
       <c r="J184" t="n">
-        <v>0.09777705639531152</v>
+        <v>0.08947943141384247</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08833932001224838</v>
+        <v>0.1891169243473957</v>
       </c>
       <c r="L184" t="n">
-        <v>0.262129114445864</v>
+        <v>0.2261560496999733</v>
       </c>
       <c r="M184" t="n">
-        <v>0.0825520654030413</v>
+        <v>0.1891700618855906</v>
       </c>
       <c r="N184" t="n">
-        <v>0.3786301517622778</v>
+        <v>0.3632841596998198</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09068919902422139</v>
+        <v>0.1890552585623301</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.06552420331845439</v>
+        <v>0.06167569731198665</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09053435431252223</v>
+        <v>0.1903513610161369</v>
       </c>
       <c r="J185" t="n">
-        <v>0.09802434512483051</v>
+        <v>0.08910795324166941</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08908166723924206</v>
+        <v>0.1907061421990545</v>
       </c>
       <c r="L185" t="n">
-        <v>0.2627767132075273</v>
+        <v>0.227436750067687</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08324578023836098</v>
+        <v>0.1907597262711838</v>
       </c>
       <c r="N185" t="n">
-        <v>0.3775301119477613</v>
+        <v>0.364414765864008</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09145129313366862</v>
+        <v>0.1906439582141144</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.07235081006378533</v>
+        <v>0.06684582870896459</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09128880726512659</v>
+        <v>0.191937622357938</v>
       </c>
       <c r="J186" t="n">
-        <v>0.09753332547594744</v>
+        <v>0.08923164059270171</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08982401446623574</v>
+        <v>0.1922953600507133</v>
       </c>
       <c r="L186" t="n">
-        <v>0.2623134718829769</v>
+        <v>0.2264049412138192</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08393949507368065</v>
+        <v>0.192349390656777</v>
       </c>
       <c r="N186" t="n">
-        <v>0.3745066240817692</v>
+        <v>0.3636257974179887</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09221338724311585</v>
+        <v>0.1922326578658986</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.07117288804005026</v>
+        <v>0.06201223719096455</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09204326021773093</v>
+        <v>0.1935238836997392</v>
       </c>
       <c r="J187" t="n">
-        <v>0.09670658181521279</v>
+        <v>0.08975045028503149</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09056636169322943</v>
+        <v>0.1938845779023721</v>
       </c>
       <c r="L187" t="n">
-        <v>0.2626436903593141</v>
+        <v>0.2270607491312505</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08463320990900032</v>
+        <v>0.1939390550423702</v>
       </c>
       <c r="N187" t="n">
-        <v>0.3745607072112074</v>
+        <v>0.3659169510463063</v>
       </c>
       <c r="O187" t="n">
-        <v>0.0929754813525631</v>
+        <v>0.1938213575176829</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.06699083042975688</v>
+        <v>0.06717486614097558</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09279771317033529</v>
+        <v>0.1951101450415403</v>
       </c>
       <c r="J188" t="n">
-        <v>0.09734669850917711</v>
+        <v>0.08956430783771797</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09130870892022311</v>
+        <v>0.1954737957540309</v>
       </c>
       <c r="L188" t="n">
-        <v>0.2620716937583336</v>
+        <v>0.2286039846139337</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08532692474431999</v>
+        <v>0.1955287194279634</v>
       </c>
       <c r="N188" t="n">
-        <v>0.3742933803829829</v>
+        <v>0.3679879234335058</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09373757546201034</v>
+        <v>0.1954100571694672</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.06480503041541291</v>
+        <v>0.06433365894198663</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09355216612293964</v>
+        <v>0.1966964063833415</v>
       </c>
       <c r="J189" t="n">
-        <v>0.09675625992439089</v>
+        <v>0.08977313876982025</v>
       </c>
       <c r="K189" t="n">
-        <v>0.0920510561472168</v>
+        <v>0.1970630136056897</v>
       </c>
       <c r="L189" t="n">
-        <v>0.2619018072018304</v>
+        <v>0.2298344584558216</v>
       </c>
       <c r="M189" t="n">
-        <v>0.08602063957963967</v>
+        <v>0.1971183838135566</v>
       </c>
       <c r="N189" t="n">
-        <v>0.3724056626440023</v>
+        <v>0.369338411264132</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09449966957145758</v>
+        <v>0.1969987568212515</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.06461588117952606</v>
+        <v>0.06948855897698676</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09430661907554398</v>
+        <v>0.1982826677251426</v>
       </c>
       <c r="J190" t="n">
-        <v>0.09603785042740455</v>
+        <v>0.09027686860039756</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09279340337421048</v>
+        <v>0.1986522314573485</v>
       </c>
       <c r="L190" t="n">
-        <v>0.2601383558115993</v>
+        <v>0.2287519814508674</v>
       </c>
       <c r="M190" t="n">
-        <v>0.08671435441495935</v>
+        <v>0.1987080481991498</v>
       </c>
       <c r="N190" t="n">
-        <v>0.3720985730411728</v>
+        <v>0.3670681112227298</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09526176368090482</v>
+        <v>0.1985874564730358</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.06542377590460403</v>
+        <v>0.06963950962896498</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09506107202814834</v>
+        <v>0.1998689290669437</v>
       </c>
       <c r="J191" t="n">
-        <v>0.09559405438476871</v>
+        <v>0.09097542284850903</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09353575060120417</v>
+        <v>0.2002414493090073</v>
       </c>
       <c r="L191" t="n">
-        <v>0.2602856647094351</v>
+        <v>0.2306563643930238</v>
       </c>
       <c r="M191" t="n">
-        <v>0.08740806925027902</v>
+        <v>0.200297712584743</v>
       </c>
       <c r="N191" t="n">
-        <v>0.3728731306214002</v>
+        <v>0.3686767199938434</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09602385779035205</v>
+        <v>0.2001761561248201</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.07022910777315453</v>
+        <v>0.06478645428091032</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09581552498075269</v>
+        <v>0.2014551904087449</v>
       </c>
       <c r="J192" t="n">
-        <v>0.09572745616303381</v>
+        <v>0.09096872703321375</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09427809782819785</v>
+        <v>0.2018306671606661</v>
       </c>
       <c r="L192" t="n">
-        <v>0.2592480590171325</v>
+        <v>0.2299474180762437</v>
       </c>
       <c r="M192" t="n">
-        <v>0.0881017840855987</v>
+        <v>0.2018873769703362</v>
       </c>
       <c r="N192" t="n">
-        <v>0.3697303544315919</v>
+        <v>0.3682639342620184</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09678595189979929</v>
+        <v>0.2017648557766044</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.06803226996768527</v>
+        <v>0.06392933631581178</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09656997793335705</v>
+        <v>0.203041451750546</v>
       </c>
       <c r="J193" t="n">
-        <v>0.09554064012875031</v>
+        <v>0.09095670667357102</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09502044505519153</v>
+        <v>0.2034198850123248</v>
       </c>
       <c r="L193" t="n">
-        <v>0.2582298638564866</v>
+        <v>0.2308249532944799</v>
       </c>
       <c r="M193" t="n">
-        <v>0.08879549892091837</v>
+        <v>0.2034770413559294</v>
       </c>
       <c r="N193" t="n">
-        <v>0.3685712635186541</v>
+        <v>0.3716294507117993</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09754804600924653</v>
+        <v>0.2033535554283886</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.06583365567070393</v>
+        <v>0.06406809911665839</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09732443088596139</v>
+        <v>0.2046277130923471</v>
       </c>
       <c r="J194" t="n">
-        <v>0.09513619064846877</v>
+        <v>0.09143928728863994</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09576279228218521</v>
+        <v>0.2050091028639836</v>
       </c>
       <c r="L194" t="n">
-        <v>0.256435404349292</v>
+        <v>0.2318887808416856</v>
       </c>
       <c r="M194" t="n">
-        <v>0.08948921375623804</v>
+        <v>0.2050667057415226</v>
       </c>
       <c r="N194" t="n">
-        <v>0.3671968769294939</v>
+        <v>0.3709729660277307</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09831014011869377</v>
+        <v>0.2049422550801729</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.06863365806471824</v>
+        <v>0.06820268606643916</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09807888383856574</v>
+        <v>0.2062139744341483</v>
       </c>
       <c r="J195" t="n">
-        <v>0.09441669208873964</v>
+        <v>0.09091639439747963</v>
       </c>
       <c r="K195" t="n">
-        <v>0.0965051395091789</v>
+        <v>0.2065983207156424</v>
       </c>
       <c r="L195" t="n">
-        <v>0.2552690056173436</v>
+        <v>0.2318387115118133</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09018292859155773</v>
+        <v>0.2066563701271158</v>
       </c>
       <c r="N195" t="n">
-        <v>0.3676082137110176</v>
+        <v>0.3721941768943576</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09907223422814102</v>
+        <v>0.2065309547319572</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.06943267033223591</v>
+        <v>0.06433304054814311</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0988333367911701</v>
+        <v>0.2078002357759494</v>
       </c>
       <c r="J196" t="n">
-        <v>0.09368472881611344</v>
+        <v>0.09148795351914936</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09724748673617259</v>
+        <v>0.2081875385673012</v>
       </c>
       <c r="L196" t="n">
-        <v>0.2559349927824363</v>
+        <v>0.231874556098816</v>
       </c>
       <c r="M196" t="n">
-        <v>0.0908766434268774</v>
+        <v>0.208246034512709</v>
       </c>
       <c r="N196" t="n">
-        <v>0.368106292910132</v>
+        <v>0.3745927799962248</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09983432833758825</v>
+        <v>0.2081196543837415</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.06523108565576463</v>
+        <v>0.07045910594475925</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09958778974377444</v>
+        <v>0.2093864971177506</v>
       </c>
       <c r="J197" t="n">
-        <v>0.0930428851971407</v>
+        <v>0.09155389017270822</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09798983396316627</v>
+        <v>0.20977675641896</v>
       </c>
       <c r="L197" t="n">
-        <v>0.2541376909663648</v>
+        <v>0.2329961253966466</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09157035826219707</v>
+        <v>0.2098356988983022</v>
       </c>
       <c r="N197" t="n">
-        <v>0.367592133573744</v>
+        <v>0.3746684720178771</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1005964224470355</v>
+        <v>0.2097083540355258</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.06402929721781211</v>
+        <v>0.06658082563927661</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1003422426963788</v>
+        <v>0.2109727584595517</v>
       </c>
       <c r="J198" t="n">
-        <v>0.09339374559837187</v>
+        <v>0.0920141298772154</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09873218119015995</v>
+        <v>0.2113659742706188</v>
       </c>
       <c r="L198" t="n">
-        <v>0.2518814252909241</v>
+        <v>0.2341032301992582</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09226407309751675</v>
+        <v>0.2114253632838954</v>
       </c>
       <c r="N198" t="n">
-        <v>0.3665667547487598</v>
+        <v>0.3749209496438591</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1013585165564827</v>
+        <v>0.2112970536873101</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.06982769820088607</v>
+        <v>0.06569814301468421</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1010966956489831</v>
+        <v>0.2125590198013528</v>
       </c>
       <c r="J199" t="n">
-        <v>0.09223989438635748</v>
+        <v>0.09176859815172998</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09947452841715362</v>
+        <v>0.2129551921222776</v>
       </c>
       <c r="L199" t="n">
-        <v>0.2530705208779088</v>
+        <v>0.2340956813006033</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09295778793283642</v>
+        <v>0.2130150276694886</v>
       </c>
       <c r="N199" t="n">
-        <v>0.3639311754820868</v>
+        <v>0.376149909558716</v>
       </c>
       <c r="O199" t="n">
-        <v>0.10212061066593</v>
+        <v>0.2128857533390943</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.06962668178749419</v>
+        <v>0.07081100145397105</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1018511486015875</v>
+        <v>0.214145281143154</v>
       </c>
       <c r="J200" t="n">
-        <v>0.09248391592764797</v>
+        <v>0.09211722051531128</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1002168756441473</v>
+        <v>0.2145444099739364</v>
       </c>
       <c r="L200" t="n">
-        <v>0.2508093028491139</v>
+        <v>0.2337732894946351</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09365150276815611</v>
+        <v>0.2146046920550818</v>
       </c>
       <c r="N200" t="n">
-        <v>0.3626864148206308</v>
+        <v>0.373955048446992</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1028827047753772</v>
+        <v>0.2144744529908786</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.06542664116014418</v>
+        <v>0.06891934434012616</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1026056015541918</v>
+        <v>0.2157315424849552</v>
       </c>
       <c r="J201" t="n">
-        <v>0.09132839458879392</v>
+        <v>0.09185992248701834</v>
       </c>
       <c r="K201" t="n">
-        <v>0.100959222871141</v>
+        <v>0.2161336278255951</v>
       </c>
       <c r="L201" t="n">
-        <v>0.2499020963263341</v>
+        <v>0.2341358655753063</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09434521760347576</v>
+        <v>0.216194356440675</v>
       </c>
       <c r="N201" t="n">
-        <v>0.3607334918112992</v>
+        <v>0.3767360629932327</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1036447988848244</v>
+        <v>0.2160631526426629</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.06922796950134379</v>
+        <v>0.06502311505613856</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1033600545067962</v>
+        <v>0.2173178038267563</v>
       </c>
       <c r="J202" t="n">
-        <v>0.09077591473634576</v>
+        <v>0.09259662958591038</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1017015700981347</v>
+        <v>0.2177228456772539</v>
       </c>
       <c r="L202" t="n">
-        <v>0.2480532264313643</v>
+        <v>0.2344832203365699</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09503893243879544</v>
+        <v>0.2177840208262682</v>
       </c>
       <c r="N202" t="n">
-        <v>0.3635734255009984</v>
+        <v>0.3752926498819821</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1044068929942717</v>
+        <v>0.2176518522944472</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.06603105999360066</v>
+        <v>0.06612225698499725</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1041145074594006</v>
+        <v>0.2189040651685574</v>
       </c>
       <c r="J203" t="n">
-        <v>0.09052906073685406</v>
+        <v>0.09262726733104655</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1024439173251284</v>
+        <v>0.2193120635289127</v>
       </c>
       <c r="L203" t="n">
-        <v>0.2465670182859995</v>
+        <v>0.2360151645723788</v>
       </c>
       <c r="M203" t="n">
-        <v>0.09573264727411512</v>
+        <v>0.2193736852118614</v>
       </c>
       <c r="N203" t="n">
-        <v>0.3591072349366351</v>
+        <v>0.3760245057977856</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1051689871037189</v>
+        <v>0.2192405519462315</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.06483630581942255</v>
+        <v>0.0692167135096913</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1048689604120049</v>
+        <v>0.2204903265103586</v>
       </c>
       <c r="J204" t="n">
-        <v>0.09059041695686927</v>
+        <v>0.09235176124148604</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1031862645521221</v>
+        <v>0.2209012813805715</v>
       </c>
       <c r="L204" t="n">
-        <v>0.2445477970120341</v>
+        <v>0.2356315090766857</v>
       </c>
       <c r="M204" t="n">
-        <v>0.0964263621094348</v>
+        <v>0.2209633495974546</v>
       </c>
       <c r="N204" t="n">
-        <v>0.3582359391651159</v>
+        <v>0.3791313274251874</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1059310812131661</v>
+        <v>0.2208292515980158</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.06864410016131714</v>
+        <v>0.07030642801320965</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1056234133646093</v>
+        <v>0.2220765878521597</v>
       </c>
       <c r="J205" t="n">
-        <v>0.09036256776294189</v>
+        <v>0.09257003683628794</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1039286117791157</v>
+        <v>0.2224904992322303</v>
       </c>
       <c r="L205" t="n">
-        <v>0.2442998877312633</v>
+        <v>0.2343320646434437</v>
       </c>
       <c r="M205" t="n">
-        <v>0.09712007694475447</v>
+        <v>0.2225530139830478</v>
       </c>
       <c r="N205" t="n">
-        <v>0.3598537829646331</v>
+        <v>0.377312811448733</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1066931753226134</v>
+        <v>0.2224179512498001</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.06745470531315557</v>
+        <v>0.07039134387854137</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1063778663172136</v>
+        <v>0.2236628491939608</v>
       </c>
       <c r="J206" t="n">
-        <v>0.08964809752162241</v>
+        <v>0.09278201963451151</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1046709590061094</v>
+        <v>0.2240797170838891</v>
       </c>
       <c r="L206" t="n">
-        <v>0.2427276155654818</v>
+        <v>0.2356166420666056</v>
       </c>
       <c r="M206" t="n">
-        <v>0.09781379178007414</v>
+        <v>0.224142678368641</v>
       </c>
       <c r="N206" t="n">
-        <v>0.3588312160735843</v>
+        <v>0.3792686545529667</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1074552694320606</v>
+        <v>0.2240066509015844</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.06826406785958399</v>
+        <v>0.07147140448867545</v>
       </c>
       <c r="G207" t="n">
-        <v>0.107132319269818</v>
+        <v>0.225249110535762</v>
       </c>
       <c r="J207" t="n">
-        <v>0.08894959059946138</v>
+        <v>0.09258763515521583</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1054133062331031</v>
+        <v>0.2256689349355479</v>
       </c>
       <c r="L207" t="n">
-        <v>0.2412353056364844</v>
+        <v>0.2369850521401243</v>
       </c>
       <c r="M207" t="n">
-        <v>0.09850750661539381</v>
+        <v>0.2257323427542342</v>
       </c>
       <c r="N207" t="n">
-        <v>0.3569649997893092</v>
+        <v>0.3774985534224334</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1082173635415079</v>
+        <v>0.2255953505533687</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.06607012780565719</v>
+        <v>0.06854655322660094</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1078867722224223</v>
+        <v>0.2268353718775631</v>
       </c>
       <c r="J208" t="n">
-        <v>0.08846963136300921</v>
+        <v>0.09278680891746012</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1061556534600968</v>
+        <v>0.2272581527872067</v>
       </c>
       <c r="L208" t="n">
-        <v>0.239227283066066</v>
+        <v>0.2353371056579527</v>
       </c>
       <c r="M208" t="n">
-        <v>0.0992012214507135</v>
+        <v>0.2273220071398274</v>
       </c>
       <c r="N208" t="n">
-        <v>0.354755525246877</v>
+        <v>0.3778022047416781</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1089794576509551</v>
+        <v>0.227184050205153</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.0628729045806051</v>
+        <v>0.06561673347530683</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1086412251750267</v>
+        <v>0.2284216332193643</v>
       </c>
       <c r="J209" t="n">
-        <v>0.088103681750044</v>
+        <v>0.09317946644030352</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1068980006870905</v>
+        <v>0.2288473706388655</v>
       </c>
       <c r="L209" t="n">
-        <v>0.2368078729760213</v>
+        <v>0.2361726134140436</v>
       </c>
       <c r="M209" t="n">
-        <v>0.09989493628603317</v>
+        <v>0.2289116715254206</v>
       </c>
       <c r="N209" t="n">
-        <v>0.3552031835813566</v>
+        <v>0.3791793051952453</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1097415517604023</v>
+        <v>0.2287727498569372</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.06367241761365772</v>
+        <v>0.07068188861778216</v>
       </c>
       <c r="G210" t="n">
-        <v>0.109395678127631</v>
+        <v>0.2300078945611654</v>
       </c>
       <c r="J210" t="n">
-        <v>0.08813720065937182</v>
+        <v>0.09296553324280522</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1076403479140841</v>
+        <v>0.2304365884905242</v>
       </c>
       <c r="L210" t="n">
-        <v>0.2349814004881453</v>
+        <v>0.23659138620235</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1005886511213528</v>
+        <v>0.2305013359110138</v>
       </c>
       <c r="N210" t="n">
-        <v>0.3542083659278166</v>
+        <v>0.3818295514676803</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1105036458698496</v>
+        <v>0.2303614495087215</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.064468686334045</v>
+        <v>0.06774196203701591</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1101501310802354</v>
+        <v>0.2315941559029665</v>
       </c>
       <c r="J211" t="n">
-        <v>0.08726962993031602</v>
+        <v>0.09364493484402435</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1083826951410778</v>
+        <v>0.232025806342183</v>
       </c>
       <c r="L211" t="n">
-        <v>0.2354521907242327</v>
+        <v>0.2367932348168247</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1012823659566725</v>
+        <v>0.232091000296607</v>
       </c>
       <c r="N211" t="n">
-        <v>0.3526714634213259</v>
+        <v>0.3788526402435271</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1112657399792968</v>
+        <v>0.2319501491605058</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.06126173017099687</v>
+        <v>0.06979689711599714</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1109045840328397</v>
+        <v>0.2331804172447677</v>
       </c>
       <c r="J212" t="n">
-        <v>0.08690096101207949</v>
+        <v>0.09341759676302007</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1091250423680715</v>
+        <v>0.2336150241938418</v>
       </c>
       <c r="L212" t="n">
-        <v>0.2340245688060784</v>
+        <v>0.2360779700514206</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1019760807919922</v>
+        <v>0.2336806646822002</v>
       </c>
       <c r="N212" t="n">
-        <v>0.3509928671969538</v>
+        <v>0.3808482682073313</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1120278340887441</v>
+        <v>0.2335388488122901</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.06705156855374335</v>
+        <v>0.07084663723771485</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1116590369854441</v>
+        <v>0.2347666785865688</v>
       </c>
       <c r="J213" t="n">
-        <v>0.0868311853538651</v>
+        <v>0.09368344451885162</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1098673895950652</v>
+        <v>0.2352042420455006</v>
       </c>
       <c r="L213" t="n">
-        <v>0.2323028598554772</v>
+        <v>0.2363454027000906</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1026697956273119</v>
+        <v>0.2352703290677934</v>
       </c>
       <c r="N213" t="n">
-        <v>0.3497729683897688</v>
+        <v>0.3830161320436373</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1127899281981913</v>
+        <v>0.2351275484640744</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.06683822091151437</v>
+        <v>0.07189112578515805</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1124134899380484</v>
+        <v>0.23635293992837</v>
       </c>
       <c r="J214" t="n">
-        <v>0.08636029440487587</v>
+        <v>0.09364240363057806</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1106097368220589</v>
+        <v>0.2367934598971594</v>
       </c>
       <c r="L214" t="n">
-        <v>0.2289913889942238</v>
+        <v>0.2383953435567875</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1033635104626315</v>
+        <v>0.2368599934533866</v>
       </c>
       <c r="N214" t="n">
-        <v>0.3484121581348398</v>
+        <v>0.3799559284369898</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1135520223076385</v>
+        <v>0.2367162481158587</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.06062170667353986</v>
+        <v>0.06793030614131576</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1131679428906528</v>
+        <v>0.2379392012701711</v>
       </c>
       <c r="J215" t="n">
-        <v>0.08628827961431464</v>
+        <v>0.09349439961725863</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1113520840490526</v>
+        <v>0.2383826777488182</v>
       </c>
       <c r="L215" t="n">
-        <v>0.2278944813441133</v>
+        <v>0.2380276034154644</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1040572252979512</v>
+        <v>0.2384496578389798</v>
       </c>
       <c r="N215" t="n">
-        <v>0.3463108275672357</v>
+        <v>0.3824673540719338</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1143141164170858</v>
+        <v>0.238304947767643</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.06140204526904981</v>
+        <v>0.07096412168917701</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1139223958432571</v>
+        <v>0.2395254626119723</v>
       </c>
       <c r="J216" t="n">
-        <v>0.0861151324313844</v>
+        <v>0.09353935799795247</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1120944312760462</v>
+        <v>0.239971895600477</v>
       </c>
       <c r="L216" t="n">
-        <v>0.2281164620269404</v>
+        <v>0.2368419930700742</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1047509401332709</v>
+        <v>0.240039322224573</v>
       </c>
       <c r="N216" t="n">
-        <v>0.3442693678220254</v>
+        <v>0.383650105633014</v>
       </c>
       <c r="O216" t="n">
-        <v>0.115076210526533</v>
+        <v>0.2398936474194272</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.06317925612727418</v>
+        <v>0.06799251581173082</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1146768487958615</v>
+        <v>0.2411117239537734</v>
       </c>
       <c r="J217" t="n">
-        <v>0.08494084430528791</v>
+        <v>0.09387720429171874</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1128367785030399</v>
+        <v>0.2415611134521357</v>
       </c>
       <c r="L217" t="n">
-        <v>0.2260616561644997</v>
+        <v>0.2382383233145694</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1054446549685906</v>
+        <v>0.2416289866101662</v>
       </c>
       <c r="N217" t="n">
-        <v>0.3436881700342779</v>
+        <v>0.3826038798047754</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1158383046359803</v>
+        <v>0.2414823470712115</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.05895335867744295</v>
+        <v>0.07001543189196618</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1154313017484658</v>
+        <v>0.2426979852955745</v>
       </c>
       <c r="J218" t="n">
-        <v>0.08496540668522827</v>
+        <v>0.09330786401761655</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1135791257300336</v>
+        <v>0.2431503313037945</v>
       </c>
       <c r="L218" t="n">
-        <v>0.2243343888785864</v>
+        <v>0.2378164049429032</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1061383698039103</v>
+        <v>0.2432186509957594</v>
       </c>
       <c r="N218" t="n">
-        <v>0.3414676253390621</v>
+        <v>0.3818283732717627</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1166003987454275</v>
+        <v>0.2430710467229958</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.06472437234878604</v>
+        <v>0.06603281331287213</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1161857547010702</v>
+        <v>0.2442842466373757</v>
       </c>
       <c r="J219" t="n">
-        <v>0.08468881102040828</v>
+        <v>0.09413126269470516</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1143214729570273</v>
+        <v>0.2447395491554533</v>
       </c>
       <c r="L219" t="n">
-        <v>0.2228195675823623</v>
+        <v>0.2380760487490285</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1068320846392299</v>
+        <v>0.2448083153813526</v>
       </c>
       <c r="N219" t="n">
-        <v>0.3410081248714467</v>
+        <v>0.3815232827185204</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1173624928548747</v>
+        <v>0.2446597463747801</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.06149231657053343</v>
+        <v>0.0710446034574377</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1169402076536745</v>
+        <v>0.2458705079791768</v>
       </c>
       <c r="J220" t="n">
-        <v>0.08401104876003086</v>
+        <v>0.09354732584204369</v>
       </c>
       <c r="K220" t="n">
-        <v>0.115063820184021</v>
+        <v>0.2463287670071121</v>
       </c>
       <c r="L220" t="n">
-        <v>0.2219795640268818</v>
+        <v>0.237717065526898</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1075257994745496</v>
+        <v>0.2463979797669458</v>
       </c>
       <c r="N220" t="n">
-        <v>0.3404100597665005</v>
+        <v>0.3803883048295937</v>
       </c>
       <c r="O220" t="n">
-        <v>0.118124586964322</v>
+        <v>0.2462484460265644</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.05925721077191508</v>
+        <v>0.06605074570865185</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1176946606062789</v>
+        <v>0.247456769320978</v>
       </c>
       <c r="J221" t="n">
-        <v>0.08353211135329901</v>
+        <v>0.09425597897869135</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1158061674110147</v>
+        <v>0.2479179848587709</v>
       </c>
       <c r="L221" t="n">
-        <v>0.2198134233713662</v>
+        <v>0.2372392660704647</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1082195143098693</v>
+        <v>0.247987644152539</v>
       </c>
       <c r="N221" t="n">
-        <v>0.3357738211592929</v>
+        <v>0.3824231362895273</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1188866810737692</v>
+        <v>0.2478371456783487</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.05801907438216096</v>
+        <v>0.06703565874436102</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1184491135588832</v>
+        <v>0.2490430306627791</v>
       </c>
       <c r="J222" t="n">
-        <v>0.08335199024941554</v>
+        <v>0.09394361992375234</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1165485146380084</v>
+        <v>0.2495072027104297</v>
       </c>
       <c r="L222" t="n">
-        <v>0.2188213408980295</v>
+        <v>0.2389104256292429</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1089132291451889</v>
+        <v>0.2495773085381322</v>
       </c>
       <c r="N222" t="n">
-        <v>0.3348998001848921</v>
+        <v>0.3829678839602678</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1196487751832165</v>
+        <v>0.2494258453301329</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.06077792683050101</v>
+        <v>0.06987629783198761</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1192035665114876</v>
+        <v>0.2506292920045802</v>
       </c>
       <c r="J223" t="n">
-        <v>0.08287067689758341</v>
+        <v>0.09335158204965154</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1172908618650021</v>
+        <v>0.2510964205620885</v>
       </c>
       <c r="L223" t="n">
-        <v>0.2161035118890856</v>
+        <v>0.2380293429249485</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1096069439805086</v>
+        <v>0.2511669729237254</v>
       </c>
       <c r="N223" t="n">
-        <v>0.3342883879783671</v>
+        <v>0.3822732620313429</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1204108692926637</v>
+        <v>0.2510145449819172</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.06453378754616521</v>
+        <v>0.07056050648560626</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1199580194640919</v>
+        <v>0.2522155533463814</v>
       </c>
       <c r="J224" t="n">
-        <v>0.08238816274700554</v>
+        <v>0.09345236827395446</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1180332090919957</v>
+        <v>0.2526856384137472</v>
       </c>
       <c r="L224" t="n">
-        <v>0.2144601316267487</v>
+        <v>0.237321433929794</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1103006588158283</v>
+        <v>0.2527566373093186</v>
       </c>
       <c r="N224" t="n">
-        <v>0.3333399756747873</v>
+        <v>0.3792359283250475</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1211729634021109</v>
+        <v>0.2526032446337015</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.06428667595838347</v>
+        <v>0.06610593468372808</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1207124724166963</v>
+        <v>0.2538018146881825</v>
       </c>
       <c r="J225" t="n">
-        <v>0.08240443924688483</v>
+        <v>0.09276919753708963</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1187755563189894</v>
+        <v>0.254274856265406</v>
       </c>
       <c r="L225" t="n">
-        <v>0.2149913953932325</v>
+        <v>0.2351456823768979</v>
       </c>
       <c r="M225" t="n">
-        <v>0.110994373651148</v>
+        <v>0.2543463016949118</v>
       </c>
       <c r="N225" t="n">
-        <v>0.3314549544092212</v>
+        <v>0.3764504394273522</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1219350575115582</v>
+        <v>0.2541919442854858</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.05803661149638582</v>
+        <v>0.0705302324048642</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1214669253693007</v>
+        <v>0.2553880760299836</v>
       </c>
       <c r="J226" t="n">
-        <v>0.08161949784642424</v>
+        <v>0.09182528877948536</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1195179035459831</v>
+        <v>0.2558640741170648</v>
       </c>
       <c r="L226" t="n">
-        <v>0.2124974984707512</v>
+        <v>0.2342610719993781</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1116880884864676</v>
+        <v>0.255935966080505</v>
       </c>
       <c r="N226" t="n">
-        <v>0.3283337153167378</v>
+        <v>0.3762113519242281</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1226971516210054</v>
+        <v>0.2557806439372701</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0627836135894022</v>
+        <v>0.06585104962752564</v>
       </c>
       <c r="G227" t="n">
-        <v>0.122221378321905</v>
+        <v>0.2569743373717848</v>
       </c>
       <c r="J227" t="n">
-        <v>0.08183332999482661</v>
+        <v>0.09054386094157015</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1202602507729768</v>
+        <v>0.2574532919687236</v>
       </c>
       <c r="L227" t="n">
-        <v>0.2117786361415189</v>
+        <v>0.2316265865303528</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1123818033217873</v>
+        <v>0.2575256304660982</v>
       </c>
       <c r="N227" t="n">
-        <v>0.3279766495324058</v>
+        <v>0.3718132224016458</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1234592457304527</v>
+        <v>0.2573693435890544</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.05852770166666255</v>
+        <v>0.06508603633022356</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1229758312745094</v>
+        <v>0.2585605987135859</v>
       </c>
       <c r="J228" t="n">
-        <v>0.08094592714129491</v>
+        <v>0.08994813296377245</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1210025979999705</v>
+        <v>0.2590425098203824</v>
       </c>
       <c r="L228" t="n">
-        <v>0.2089350036877494</v>
+        <v>0.2279012097029403</v>
       </c>
       <c r="M228" t="n">
-        <v>0.113075518157107</v>
+        <v>0.2591152948516914</v>
       </c>
       <c r="N228" t="n">
-        <v>0.3245841481912942</v>
+        <v>0.3651506074455763</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1242213398398999</v>
+        <v>0.2589580432408387</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.05826889515739683</v>
+        <v>0.06525284249146898</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1237302842271137</v>
+        <v>0.2601468600553871</v>
       </c>
       <c r="J229" t="n">
-        <v>0.08055728073503203</v>
+        <v>0.08866132378652065</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1217449452269641</v>
+        <v>0.2606317276720412</v>
       </c>
       <c r="L229" t="n">
-        <v>0.2068667963916567</v>
+        <v>0.2244439252502587</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1137692329924267</v>
+        <v>0.2607049592372846</v>
       </c>
       <c r="N229" t="n">
-        <v>0.3229566024284719</v>
+        <v>0.3641180636419903</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1249834339493471</v>
+        <v>0.260546742892623</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.06000721349083503</v>
+        <v>0.06236911808977307</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1244847371797181</v>
+        <v>0.2617331213971882</v>
       </c>
       <c r="J230" t="n">
-        <v>0.08006738222524089</v>
+        <v>0.08750665235024317</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1224872924539578</v>
+        <v>0.2622209455237</v>
       </c>
       <c r="L230" t="n">
-        <v>0.2058742095354549</v>
+        <v>0.2225137169054261</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1144629478277463</v>
+        <v>0.2622946236228778</v>
       </c>
       <c r="N230" t="n">
-        <v>0.3217944033790078</v>
+        <v>0.3564101475768586</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1257455280587944</v>
+        <v>0.2621354425444073</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.05874267609620709</v>
+        <v>0.06645251310364687</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1252391901323224</v>
+        <v>0.2633193827389894</v>
       </c>
       <c r="J231" t="n">
-        <v>0.08007622306112443</v>
+        <v>0.08620733759536849</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1232296396809515</v>
+        <v>0.2638101633753587</v>
       </c>
       <c r="L231" t="n">
-        <v>0.203457438401358</v>
+        <v>0.2198695684015607</v>
       </c>
       <c r="M231" t="n">
-        <v>0.115156662663066</v>
+        <v>0.263884288008471</v>
       </c>
       <c r="N231" t="n">
-        <v>0.3202979421779706</v>
+        <v>0.3537214158361525</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1265076221682416</v>
+        <v>0.2637241421961915</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.06247530240274296</v>
+        <v>0.05952067751160151</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1259936430849268</v>
+        <v>0.2649056440807905</v>
       </c>
       <c r="J232" t="n">
-        <v>0.07978379469188553</v>
+        <v>0.08528659846232496</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1239719869079452</v>
+        <v>0.2653993812270176</v>
       </c>
       <c r="L232" t="n">
-        <v>0.20131667827158</v>
+        <v>0.2174704634717808</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1158503774983857</v>
+        <v>0.2654739523940642</v>
       </c>
       <c r="N232" t="n">
-        <v>0.3171676099604295</v>
+        <v>0.347046425005842</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1272697162776888</v>
+        <v>0.2653128418479758</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.06120511183967262</v>
+        <v>0.06259126129214804</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1267480960375311</v>
+        <v>0.2664919054225917</v>
       </c>
       <c r="J233" t="n">
-        <v>0.07939008856672712</v>
+        <v>0.08436765389154109</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1247143341349389</v>
+        <v>0.2669885990786763</v>
       </c>
       <c r="L233" t="n">
-        <v>0.2011521244283347</v>
+        <v>0.2130753858492044</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1165440923337054</v>
+        <v>0.2670636167796574</v>
       </c>
       <c r="N233" t="n">
-        <v>0.3165037978614532</v>
+        <v>0.3427797316718989</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1280318103871361</v>
+        <v>0.2669015414997601</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.05893212383622602</v>
+        <v>0.06268191442379759</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1275025489901355</v>
+        <v>0.2680781667643928</v>
       </c>
       <c r="J234" t="n">
-        <v>0.07839509613485211</v>
+        <v>0.08327372282344529</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1254566813619326</v>
+        <v>0.2685778169303351</v>
       </c>
       <c r="L234" t="n">
-        <v>0.1989639721538365</v>
+        <v>0.2115433192669497</v>
       </c>
       <c r="M234" t="n">
-        <v>0.117237807169025</v>
+        <v>0.2686532811652506</v>
       </c>
       <c r="N234" t="n">
-        <v>0.3140068970161103</v>
+        <v>0.3369158924202932</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1287939044965833</v>
+        <v>0.2684902411515444</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.05665635782163311</v>
+        <v>0.05581028688506123</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1282570019427398</v>
+        <v>0.2696644281061939</v>
       </c>
       <c r="J235" t="n">
-        <v>0.07839880884546342</v>
+        <v>0.08132802419846592</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1261990285889263</v>
+        <v>0.2701670347819939</v>
       </c>
       <c r="L235" t="n">
-        <v>0.1977524167302991</v>
+        <v>0.208133247458135</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1179315220043447</v>
+        <v>0.2702429455508438</v>
       </c>
       <c r="N235" t="n">
-        <v>0.3097772985594701</v>
+        <v>0.3350494638369962</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1295559986060305</v>
+        <v>0.2700789408033287</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.0593778332251239</v>
+        <v>0.05599402865445008</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1290114548953442</v>
+        <v>0.2712506894479951</v>
       </c>
       <c r="J236" t="n">
-        <v>0.07770121814776394</v>
+        <v>0.08075377695703152</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1269413758159199</v>
+        <v>0.2717562526336527</v>
       </c>
       <c r="L236" t="n">
-        <v>0.1945176534399365</v>
+        <v>0.2057041541558783</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1186252368396644</v>
+        <v>0.271832609936437</v>
       </c>
       <c r="N236" t="n">
-        <v>0.3099153936266015</v>
+        <v>0.3294750025079786</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1303180927154778</v>
+        <v>0.271667640455113</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.0610965694759283</v>
+        <v>0.05624556796618606</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1297659078479485</v>
+        <v>0.2728369507897963</v>
       </c>
       <c r="J237" t="n">
-        <v>0.07770231549095664</v>
+        <v>0.08006924792902249</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1276837230429136</v>
+        <v>0.2733454704853115</v>
       </c>
       <c r="L237" t="n">
-        <v>0.1935598775649629</v>
+        <v>0.203503106257134</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1193189516749841</v>
+        <v>0.2734222743220302</v>
       </c>
       <c r="N237" t="n">
-        <v>0.307921573352573</v>
+        <v>0.3251656264412074</v>
       </c>
       <c r="O237" t="n">
-        <v>0.131080186824925</v>
+        <v>0.2732563401068973</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.05581258600327625</v>
+        <v>0.05751250493393441</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1305203608005529</v>
+        <v>0.2744232121315974</v>
       </c>
       <c r="J238" t="n">
-        <v>0.07680209232424436</v>
+        <v>0.07880864514843917</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1284260702699073</v>
+        <v>0.2749346883369703</v>
       </c>
       <c r="L238" t="n">
-        <v>0.190579284387592</v>
+        <v>0.199164296883215</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1200126665103037</v>
+        <v>0.2750119387076234</v>
       </c>
       <c r="N238" t="n">
-        <v>0.303496228872454</v>
+        <v>0.3198510009821507</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1318422809343723</v>
+        <v>0.2748450397586815</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.05952590223639778</v>
+        <v>0.0567767439479016</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1312748137531572</v>
+        <v>0.2760094734733985</v>
       </c>
       <c r="J239" t="n">
-        <v>0.07730054009683011</v>
+        <v>0.07824450241290788</v>
       </c>
       <c r="K239" t="n">
-        <v>0.129168417496901</v>
+        <v>0.276523906188629</v>
       </c>
       <c r="L239" t="n">
-        <v>0.190076069190038</v>
+        <v>0.1963164984078598</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1207063813456234</v>
+        <v>0.2766016030932166</v>
       </c>
       <c r="N239" t="n">
-        <v>0.3007397513213127</v>
+        <v>0.3157219528432275</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1326043750438195</v>
+        <v>0.2764337394104658</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.05423653760452279</v>
+        <v>0.05903824319463399</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1320292667057616</v>
+        <v>0.2775957348151996</v>
       </c>
       <c r="J240" t="n">
-        <v>0.07659765025791672</v>
+        <v>0.07687676471589767</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1299107647238947</v>
+        <v>0.2781131240402878</v>
       </c>
       <c r="L240" t="n">
-        <v>0.1866504272545149</v>
+        <v>0.1958595710964174</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1214000961809431</v>
+        <v>0.2781912674788098</v>
       </c>
       <c r="N240" t="n">
-        <v>0.2984525318342186</v>
+        <v>0.3139782580163795</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1333664691532667</v>
+        <v>0.2780224390622501</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.05794451153688129</v>
+        <v>0.05729696086067797</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1327837196583659</v>
+        <v>0.2791819961570008</v>
       </c>
       <c r="J241" t="n">
-        <v>0.07629341425670715</v>
+        <v>0.07550537705087774</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1306531119508884</v>
+        <v>0.2797023418919466</v>
       </c>
       <c r="L241" t="n">
-        <v>0.1852025538632367</v>
+        <v>0.1919933752142368</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1220938110162628</v>
+        <v>0.2797809318644029</v>
       </c>
       <c r="N241" t="n">
-        <v>0.2982349615462401</v>
+        <v>0.3079196924935476</v>
       </c>
       <c r="O241" t="n">
-        <v>0.134128563262714</v>
+        <v>0.2796111387140344</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.0576498434627032</v>
+        <v>0.05755285513257995</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1335381726109703</v>
+        <v>0.2807682574988019</v>
       </c>
       <c r="J242" t="n">
-        <v>0.07578782354240431</v>
+        <v>0.07453028441131705</v>
       </c>
       <c r="K242" t="n">
-        <v>0.131395459177882</v>
+        <v>0.2812915597436054</v>
       </c>
       <c r="L242" t="n">
-        <v>0.1827326442984174</v>
+        <v>0.1900177710266666</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1227875258515824</v>
+        <v>0.2813705962499961</v>
       </c>
       <c r="N242" t="n">
-        <v>0.2967874315924466</v>
+        <v>0.3049460322666734</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1348906573721612</v>
+        <v>0.2811998383658187</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.0563525528112185</v>
+        <v>0.05180588419688628</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1342926255635747</v>
+        <v>0.282354518840603</v>
       </c>
       <c r="J243" t="n">
-        <v>0.07478086956421107</v>
+        <v>0.07415143179068473</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1321378064048757</v>
+        <v>0.2828807775952642</v>
       </c>
       <c r="L243" t="n">
-        <v>0.1804408938422709</v>
+        <v>0.1878326187990558</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1234812406869021</v>
+        <v>0.2829602606355893</v>
       </c>
       <c r="N243" t="n">
-        <v>0.2935103331079066</v>
+        <v>0.3007570533276982</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1356527514816085</v>
+        <v>0.282788538017603</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.05805265901165715</v>
+        <v>0.05405600624014337</v>
       </c>
       <c r="G244" t="n">
-        <v>0.135047078516179</v>
+        <v>0.2839407801824042</v>
       </c>
       <c r="J244" t="n">
-        <v>0.07487254377133043</v>
+        <v>0.07246876418244989</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1328801536318694</v>
+        <v>0.284469995446923</v>
       </c>
       <c r="L244" t="n">
-        <v>0.1792274977770112</v>
+        <v>0.1842377787967536</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1241749555222218</v>
+        <v>0.2845499250211825</v>
       </c>
       <c r="N244" t="n">
-        <v>0.291904057227689</v>
+        <v>0.2985525316685633</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1364148455910557</v>
+        <v>0.2843772376693872</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.05175018149324909</v>
+        <v>0.05130317944889756</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1358015314687833</v>
+        <v>0.2855270415242053</v>
       </c>
       <c r="J245" t="n">
-        <v>0.07466283761296522</v>
+        <v>0.07188222658008155</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1336225008588631</v>
+        <v>0.2860592132985818</v>
       </c>
       <c r="L245" t="n">
-        <v>0.1781926513848525</v>
+        <v>0.1826331112851087</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1248686703575415</v>
+        <v>0.2861395894067758</v>
       </c>
       <c r="N245" t="n">
-        <v>0.2859689950868628</v>
+        <v>0.2917322432812102</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1371769397005029</v>
+        <v>0.2859659373211715</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.05344513968522431</v>
+        <v>0.05454736200969533</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1365559844213877</v>
+        <v>0.2871133028660065</v>
       </c>
       <c r="J246" t="n">
-        <v>0.07375174253831836</v>
+        <v>0.07129176397704887</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1343648480858568</v>
+        <v>0.2876484311502406</v>
       </c>
       <c r="L246" t="n">
-        <v>0.1756365499480086</v>
+        <v>0.1790184765294699</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1255623851928611</v>
+        <v>0.2877292537923689</v>
       </c>
       <c r="N246" t="n">
-        <v>0.2848055378204969</v>
+        <v>0.2891959641575802</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1379390338099502</v>
+        <v>0.2875546369729558</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.05813755301681275</v>
+        <v>0.05378851210908298</v>
       </c>
       <c r="G247" t="n">
-        <v>0.137310437373992</v>
+        <v>0.2886995642078076</v>
       </c>
       <c r="J247" t="n">
-        <v>0.07363924999659288</v>
+        <v>0.06979732136682093</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1351071953128505</v>
+        <v>0.2892376490018994</v>
       </c>
       <c r="L247" t="n">
-        <v>0.1724593887486937</v>
+        <v>0.1763937347951865</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1262561000281808</v>
+        <v>0.2893189181779621</v>
       </c>
       <c r="N247" t="n">
-        <v>0.2833140765636601</v>
+        <v>0.2843434702896144</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1387011279193974</v>
+        <v>0.2891433366247401</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.05082744091724439</v>
+        <v>0.04702658793360691</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1380648903265964</v>
+        <v>0.2902858255496087</v>
       </c>
       <c r="J248" t="n">
-        <v>0.07292535143699153</v>
+        <v>0.06889884374286678</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1358495425398441</v>
+        <v>0.2908268668535582</v>
       </c>
       <c r="L248" t="n">
-        <v>0.1721613630691215</v>
+        <v>0.1742587463476071</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1269498148635005</v>
+        <v>0.2909085825635553</v>
       </c>
       <c r="N248" t="n">
-        <v>0.2789950024514213</v>
+        <v>0.2828745376692545</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1394632220288446</v>
+        <v>0.2907320362765244</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.05451482281574917</v>
+        <v>0.05026154766981349</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1388193432792008</v>
+        <v>0.2918720868914099</v>
       </c>
       <c r="J249" t="n">
-        <v>0.07231003830871735</v>
+        <v>0.06839627609865553</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1365918897668378</v>
+        <v>0.292416084705217</v>
       </c>
       <c r="L249" t="n">
-        <v>0.1691426681915063</v>
+        <v>0.1736133714520808</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1276435296988201</v>
+        <v>0.2924982469491486</v>
       </c>
       <c r="N249" t="n">
-        <v>0.2777487066188493</v>
+        <v>0.2779889422884416</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1402253161382919</v>
+        <v>0.2923207359283087</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.05019971814155706</v>
+        <v>0.04749334950424916</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1395737962318051</v>
+        <v>0.293458348233211</v>
       </c>
       <c r="J250" t="n">
-        <v>0.07239330206097321</v>
+        <v>0.06658956342765626</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1373342369938315</v>
+        <v>0.2940053025568757</v>
       </c>
       <c r="L250" t="n">
-        <v>0.1669034993980618</v>
+        <v>0.1706574703739563</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1283372445341398</v>
+        <v>0.2940879113347417</v>
       </c>
       <c r="N250" t="n">
-        <v>0.2743755802010133</v>
+        <v>0.2731864601391172</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1409874102477391</v>
+        <v>0.293909435580093</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.05088214632389801</v>
+        <v>0.05072195162346027</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1403282491844094</v>
+        <v>0.2950446095750122</v>
       </c>
       <c r="J251" t="n">
-        <v>0.07237513414296198</v>
+        <v>0.06587865072333804</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1380765842208252</v>
+        <v>0.2955945204085346</v>
       </c>
       <c r="L251" t="n">
-        <v>0.1642440519710023</v>
+        <v>0.1662909033785828</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1290309593694595</v>
+        <v>0.2956775757203349</v>
       </c>
       <c r="N251" t="n">
-        <v>0.2743760143329816</v>
+        <v>0.2694668672132225</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1417495043571864</v>
+        <v>0.2954981352318773</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.05356212679200199</v>
+        <v>0.04294731221399321</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1410827021370138</v>
+        <v>0.2966308709168133</v>
       </c>
       <c r="J252" t="n">
-        <v>0.07105552600388666</v>
+        <v>0.06516348297916998</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1388189314478189</v>
+        <v>0.2971837382601933</v>
       </c>
       <c r="L252" t="n">
-        <v>0.1632645211925416</v>
+        <v>0.165213530731309</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1297246742047792</v>
+        <v>0.2972672401059281</v>
       </c>
       <c r="N252" t="n">
-        <v>0.2703504001498238</v>
+        <v>0.2660299395026994</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1425115984666336</v>
+        <v>0.2970868348836615</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.05223967897509896</v>
+        <v>0.04216938946239435</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1418371550896182</v>
+        <v>0.2982171322586145</v>
       </c>
       <c r="J253" t="n">
-        <v>0.07123446909295013</v>
+        <v>0.06434400518862113</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1395612786748126</v>
+        <v>0.2987729561118521</v>
       </c>
       <c r="L253" t="n">
-        <v>0.1601651023448937</v>
+        <v>0.1620252126974839</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1304183890400989</v>
+        <v>0.2988569044915213</v>
       </c>
       <c r="N253" t="n">
-        <v>0.2667991287866081</v>
+        <v>0.2615754529994881</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1432736925760809</v>
+        <v>0.2986755345354458</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.05491482230241887</v>
+        <v>0.04738814155521011</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1425916080422225</v>
+        <v>0.2998033936004156</v>
       </c>
       <c r="J254" t="n">
-        <v>0.07101195485935527</v>
+        <v>0.06312016234516062</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1403036259018063</v>
+        <v>0.3003621739635109</v>
       </c>
       <c r="L254" t="n">
-        <v>0.1581459907102729</v>
+        <v>0.1599258095424564</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1311121038754185</v>
+        <v>0.3004465688771145</v>
       </c>
       <c r="N254" t="n">
-        <v>0.2633225913784037</v>
+        <v>0.256303183695531</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1440357866855281</v>
+        <v>0.3002642341872301</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.0525875762031917</v>
+        <v>0.04360352667898684</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1433460609948269</v>
+        <v>0.3013896549422168</v>
       </c>
       <c r="J255" t="n">
-        <v>0.06998797475230503</v>
+        <v>0.0621918994422575</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1410459731287999</v>
+        <v>0.3019513918151697</v>
       </c>
       <c r="L255" t="n">
-        <v>0.1568073815708926</v>
+        <v>0.1564151815315756</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1318058187107382</v>
+        <v>0.3020362332627077</v>
       </c>
       <c r="N255" t="n">
-        <v>0.2620211790602797</v>
+        <v>0.2539129075827691</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1447978807949753</v>
+        <v>0.3018529338390144</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.05525796010664739</v>
+        <v>0.04681550302027093</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1441005139474312</v>
+        <v>0.3029759162840179</v>
       </c>
       <c r="J256" t="n">
-        <v>0.06996252022100233</v>
+        <v>0.06065916147338089</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1417883203557936</v>
+        <v>0.3035406096668285</v>
       </c>
       <c r="L256" t="n">
-        <v>0.1529494702089674</v>
+        <v>0.1543931889301902</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1324995335460579</v>
+        <v>0.3036258976483009</v>
       </c>
       <c r="N256" t="n">
-        <v>0.2587952829673046</v>
+        <v>0.2459044006531435</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1455599749044226</v>
+        <v>0.3034416334907987</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.04892599344201592</v>
+        <v>0.04402402876560878</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1448549669000355</v>
+        <v>0.304562177625819</v>
       </c>
       <c r="J257" t="n">
-        <v>0.06963558271465006</v>
+        <v>0.05962189343199985</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1425306675827873</v>
+        <v>0.3051298275184873</v>
       </c>
       <c r="L257" t="n">
-        <v>0.1505724519067111</v>
+        <v>0.1517596920036491</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1331932483813776</v>
+        <v>0.3052155620338941</v>
       </c>
       <c r="N257" t="n">
-        <v>0.2580452942345474</v>
+        <v>0.2421774388985959</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1463220690138698</v>
+        <v>0.305030333142583</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.05259169563852722</v>
+        <v>0.04122906210154673</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1456094198526399</v>
+        <v>0.3061484389676202</v>
       </c>
       <c r="J258" t="n">
-        <v>0.06870715368245116</v>
+        <v>0.05888004031158349</v>
       </c>
       <c r="K258" t="n">
-        <v>0.143273014809781</v>
+        <v>0.306719045370146</v>
       </c>
       <c r="L258" t="n">
-        <v>0.1497765219463377</v>
+        <v>0.1496145510173015</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1338869632166972</v>
+        <v>0.3068052264194873</v>
       </c>
       <c r="N258" t="n">
-        <v>0.2520716039970771</v>
+        <v>0.2381317983110676</v>
       </c>
       <c r="O258" t="n">
-        <v>0.147084163123317</v>
+        <v>0.3066190327943673</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.0532550861254113</v>
+        <v>0.03843056121463123</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1463638728052443</v>
+        <v>0.3077347003094213</v>
       </c>
       <c r="J259" t="n">
-        <v>0.06847722457360852</v>
+        <v>0.05793354710560085</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1440153620367747</v>
+        <v>0.3083082632218048</v>
       </c>
       <c r="L259" t="n">
-        <v>0.146261875610061</v>
+        <v>0.145857626236496</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1345806780520169</v>
+        <v>0.3083948908050805</v>
       </c>
       <c r="N259" t="n">
-        <v>0.2507746033899623</v>
+        <v>0.2344672548824997</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1478462572327643</v>
+        <v>0.3082077324461516</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.05291618433189808</v>
+        <v>0.04062848429140863</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1471183257578486</v>
+        <v>0.3093209616512224</v>
       </c>
       <c r="J260" t="n">
-        <v>0.06834578683732508</v>
+        <v>0.05658235880752106</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1447577092637683</v>
+        <v>0.3098974810734636</v>
       </c>
       <c r="L260" t="n">
-        <v>0.1442287081800952</v>
+        <v>0.1427887779265816</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1352743928873366</v>
+        <v>0.3099845551906737</v>
       </c>
       <c r="N260" t="n">
-        <v>0.2460546835482721</v>
+        <v>0.2317835846048338</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1486083513422115</v>
+        <v>0.3097964320979358</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.05157500968721752</v>
+        <v>0.04182278951842533</v>
       </c>
       <c r="G261" t="n">
-        <v>0.147872778710453</v>
+        <v>0.3109072229930236</v>
       </c>
       <c r="J261" t="n">
-        <v>0.06741283192280371</v>
+        <v>0.0558264204108132</v>
       </c>
       <c r="K261" t="n">
-        <v>0.145500056490762</v>
+        <v>0.3114866989251224</v>
       </c>
       <c r="L261" t="n">
-        <v>0.1408772149386543</v>
+        <v>0.1421078663529074</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1359681077226563</v>
+        <v>0.3115742195762669</v>
       </c>
       <c r="N261" t="n">
-        <v>0.2447122356070754</v>
+        <v>0.2254805634700112</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1493704454516588</v>
+        <v>0.3113851317497202</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.04723158162059959</v>
+        <v>0.04101343508222767</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1486272316630573</v>
+        <v>0.3124934843348248</v>
       </c>
       <c r="J262" t="n">
-        <v>0.0675783512792474</v>
+        <v>0.05406567690894633</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1462424037177557</v>
+        <v>0.3130759167767812</v>
       </c>
       <c r="L262" t="n">
-        <v>0.1394075911679523</v>
+        <v>0.1383147517808221</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1366618225579759</v>
+        <v>0.3131638839618601</v>
       </c>
       <c r="N262" t="n">
-        <v>0.2441476507014411</v>
+        <v>0.2202579674699732</v>
       </c>
       <c r="O262" t="n">
-        <v>0.150132539561106</v>
+        <v>0.3129738314015044</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.05288591956127428</v>
+        <v>0.0402003791693621</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1493816846156617</v>
+        <v>0.3140797456766259</v>
       </c>
       <c r="J263" t="n">
-        <v>0.06724233635585901</v>
+        <v>0.05300007329538958</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1469847509447494</v>
+        <v>0.31466513462844</v>
       </c>
       <c r="L263" t="n">
-        <v>0.1385200321502032</v>
+        <v>0.1362092944756748</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1373555373932956</v>
+        <v>0.3147535483474533</v>
       </c>
       <c r="N263" t="n">
-        <v>0.2401613199664379</v>
+        <v>0.2194155725966612</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1508946336705532</v>
+        <v>0.3145625310532887</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.05253804293847149</v>
+        <v>0.03738357996637495</v>
       </c>
       <c r="G264" t="n">
-        <v>0.150136137568266</v>
+        <v>0.315666007018427</v>
       </c>
       <c r="J264" t="n">
-        <v>0.06600477860184147</v>
+        <v>0.05262955456361196</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1477270981717431</v>
+        <v>0.3162543524800988</v>
       </c>
       <c r="L264" t="n">
-        <v>0.1344147331676209</v>
+        <v>0.1328913547028143</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1380492522286153</v>
+        <v>0.3163432127330466</v>
       </c>
       <c r="N264" t="n">
-        <v>0.2369536345371349</v>
+        <v>0.2115531548420164</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1516567277800005</v>
+        <v>0.3161512307050729</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1365.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1365.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.5773817382593005</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.02886908691296503</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.02886908691296503</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.04619053906074404</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.08637504951033594</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03637504951033593</v>
+        <v>0.04758561931508916</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0008037985011765412</v>
+        <v>0.001051524327744424</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9276,29 +9250,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.01732145214777902</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0.0002679328337255137</v>
+        <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0.02046181630548834</v>
+        <v>0</v>
       </c>
       <c r="K65" s="171" t="n">
-        <v>0.0003165088226510716</v>
+        <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.04952031654490527</v>
+        <v>0.05314375434087396</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0002716288798909634</v>
+        <v>0.0002609656323412369</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.07759076016646244</v>
+        <v>0.08534983618310865</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0002222582476101869</v>
+        <v>0.0002514693315818114</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.03637504951033593</v>
+        <v>0.01998596011233744</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0008037985011765412</v>
+        <v>0.0003091481523568606</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.04758561931508916</v>
+        <v>0.01998596011233744</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001392143962848298</v>
+        <v>0.0003091481523568606</v>
       </c>
       <c r="L66" s="172" t="n">
         <v>0.1207812598656226</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001481004215796061</v>
+        <v>0.000847291014094925</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.1939769004161561</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001289022187822498</v>
+        <v>0.0008164588687721151</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.04015402587729647</v>
+        <v>0.04372841885524847</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003172522683602282</v>
+        <v>0.000828717663186756</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.05476675882919226</v>
+        <v>0.04372841885524847</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003178435703317575</v>
+        <v>0.000828717663186756</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.1361341882086319</v>
+        <v>0.1327786376850877</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003179328771186397</v>
+        <v>0.001939720331904001</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.2248344917973122</v>
+        <v>0.2145411545391605</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003177399303568573</v>
+        <v>0.001939410461096736</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.04634664908763794</v>
+        <v>0.04758561931508916</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004758784025403422</v>
+        <v>0.001051524327744424</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.05982490773356217</v>
+        <v>0.04758561931508916</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004767653554976364</v>
+        <v>0.001051524327744424</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.1504256173187349</v>
+        <v>0.1437180543324419</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004768993156779595</v>
+        <v>0.002909580497856001</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.2446602942269248</v>
+        <v>0.2311787938989889</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004766098955352859</v>
+        <v>0.002909115691645105</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.04781973636625381</v>
+        <v>0.04860139284096858</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006345045367204563</v>
+        <v>0.001657435326373512</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.06472640743944069</v>
+        <v>0.04860139284096858</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006356871406635151</v>
+        <v>0.001657435326373512</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.1631886748230306</v>
+        <v>0.1548824339499446</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006358657542372794</v>
+        <v>0.003879440663808001</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.2643730543257102</v>
+        <v>0.2478647211376802</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006354798607137145</v>
+        <v>0.003878820922193473</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0002679328337255137</v>
+        <v>0.0003091481523568606</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01732145214777902</v>
+        <v>0.01998596011233744</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.04965575878470381</v>
+        <v>0.04927916971860311</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.007931306709005704</v>
+        <v>0.00207179415796689</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.06876068435046101</v>
+        <v>0.04927916971860311</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.007946089258293938</v>
+        <v>0.00207179415796689</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.1733416917387148</v>
+        <v>0.1640995585714238</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.007948321927965993</v>
+        <v>0.004849300829760001</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.2813439693067888</v>
+        <v>0.2644440972595139</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.007943498258921431</v>
+        <v>0.004848526152741841</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.05393718741454755</v>
+        <v>0.04994340049623072</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009517568050806844</v>
+        <v>0.002486152989560268</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.07201716487025626</v>
+        <v>0.04994340049623072</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009535307109952727</v>
+        <v>0.002486152989560268</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.1829029990829829</v>
+        <v>0.1726972102307073</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009537986313559191</v>
+        <v>0.005819160995712002</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.2949442363832805</v>
+        <v>0.2782620832687702</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009532197910705718</v>
+        <v>0.00581823138329021</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.0547464933273447</v>
+        <v>0.0505942215143441</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01110382939260799</v>
+        <v>0.002900511821153646</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.0745852754024597</v>
+        <v>0.0505942215143441</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01112452496161151</v>
+        <v>0.002900511821153646</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.1889909278730308</v>
+        <v>0.181503170961623</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01112765069915239</v>
+        <v>0.006789021161664003</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.3055450527683053</v>
+        <v>0.2918638401697284</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01112089756249</v>
+        <v>0.006787936613838577</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.05916614759465497</v>
+        <v>0.05123176911343584</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01269009073440913</v>
+        <v>0.003314870652747024</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.07635444235070442</v>
+        <v>0.05123176911343584</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.0127137428132703</v>
+        <v>0.003314870652747024</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.1947238091260541</v>
+        <v>0.1879452227979985</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01271731508474559</v>
+        <v>0.007758881327616002</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.3141176156749834</v>
+        <v>0.3037945289666689</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01270959721427429</v>
+        <v>0.007757641844386946</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.06127862128803802</v>
+        <v>0.05185617963399855</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01427635207621027</v>
+        <v>0.003729229484340403</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.07891409211862373</v>
+        <v>0.05185617963399855</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01430296066492909</v>
+        <v>0.003729229484340403</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.1979199738592483</v>
+        <v>0.1955511477736619</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01430697947033879</v>
+        <v>0.008728741493568002</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.3214331223164349</v>
+        <v>0.3120993106638713</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01429829686605858</v>
+        <v>0.008727347074935315</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.06116638547905348</v>
+        <v>0.05246758941652489</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01586261341801141</v>
+        <v>0.00414358831593378</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.08005365110985065</v>
+        <v>0.05246758941652489</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01589217851658788</v>
+        <v>0.00414358831593378</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.2026977530898094</v>
+        <v>0.2014487279224408</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01589664385593199</v>
+        <v>0.009698601659520002</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.32496276990578</v>
+        <v>0.3254233462656151</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01588699651784286</v>
+        <v>0.009697052305483683</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.05891191123926107</v>
+        <v>0.05306613480150747</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01744887475981255</v>
+        <v>0.004557947147527159</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.08106254572801851</v>
+        <v>0.05306613480150747</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01748139636824667</v>
+        <v>0.004557947147527159</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.2053754778349327</v>
+        <v>0.2055657452781631</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01748630824152518</v>
+        <v>0.010668461825472</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.3327777556561384</v>
+        <v>0.3325117967761804</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01747569616962715</v>
+        <v>0.01066675753603205</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.05859766964022041</v>
+        <v>0.05365195212943895</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01903513610161369</v>
+        <v>0.004972305979120536</v>
       </c>
       <c r="J77" t="n">
-        <v>0.08253020237676038</v>
+        <v>0.05365195212943895</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01907061421990545</v>
+        <v>0.004972305979120536</v>
       </c>
       <c r="L77" t="n">
-        <v>0.2082714791118142</v>
+        <v>0.2116299818746567</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01907597262711838</v>
+        <v>0.011638321991424</v>
       </c>
       <c r="N77" t="n">
-        <v>0.3372492767806305</v>
+        <v>0.3425098231998469</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01906439582141144</v>
+        <v>0.01163646276658042</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.06230613175349126</v>
+        <v>0.05422517774081194</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02062139744341483</v>
+        <v>0.005386664810713915</v>
       </c>
       <c r="J78" t="n">
-        <v>0.08314604745970956</v>
+        <v>0.05422517774081194</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02065983207156424</v>
+        <v>0.005386664810713915</v>
       </c>
       <c r="L78" t="n">
-        <v>0.2124040879376494</v>
+        <v>0.2175692197457493</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02066563701271158</v>
+        <v>0.012608182157376</v>
       </c>
       <c r="N78" t="n">
-        <v>0.3384485304923764</v>
+        <v>0.3483625865408946</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02065309547319572</v>
+        <v>0.01260616799712879</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.05911444277521198</v>
+        <v>0.05478594797611905</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02220765878521597</v>
+        <v>0.005801023642307292</v>
       </c>
       <c r="J79" t="n">
-        <v>0.08419950738049913</v>
+        <v>0.05478594797611905</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02224904992322303</v>
+        <v>0.005801023642307292</v>
       </c>
       <c r="L79" t="n">
-        <v>0.213091635329634</v>
+        <v>0.2209112409252689</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02225530139830478</v>
+        <v>0.01357804232332801</v>
       </c>
       <c r="N79" t="n">
-        <v>0.3430467140044962</v>
+        <v>0.3544152478036029</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02224179512498001</v>
+        <v>0.01357587322767715</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.058951489484947</v>
+        <v>0.05533439917585294</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02379392012701711</v>
+        <v>0.006215382473900671</v>
       </c>
       <c r="J80" t="n">
-        <v>0.08580507110424644</v>
+        <v>0.05533439917585294</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02383826777488182</v>
+        <v>0.006215382473900671</v>
       </c>
       <c r="L80" t="n">
-        <v>0.2170997454956707</v>
+        <v>0.2245838274470431</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02384496578389798</v>
+        <v>0.01454790248928</v>
       </c>
       <c r="N80" t="n">
-        <v>0.3488484517800871</v>
+        <v>0.3614129679922519</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0238304947767643</v>
+        <v>0.01454557845822552</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.05976408711739956</v>
+        <v>0.05587066768050619</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02538018146881825</v>
+        <v>0.006629741305494048</v>
       </c>
       <c r="J81" t="n">
-        <v>0.08628180956054475</v>
+        <v>0.05587066768050619</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0254274856265406</v>
+        <v>0.006629741305494048</v>
       </c>
       <c r="L81" t="n">
-        <v>0.2195377979853685</v>
+        <v>0.2273147613448999</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02543463016949118</v>
+        <v>0.015517762655232</v>
       </c>
       <c r="N81" t="n">
-        <v>0.3540280733858382</v>
+        <v>0.3653009081111216</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02541919442854858</v>
+        <v>0.01551528368877389</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.06754705791190413</v>
+        <v>0.05639488983057148</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02696644281061939</v>
+        <v>0.007044100137087427</v>
       </c>
       <c r="J82" t="n">
-        <v>0.08742196468510426</v>
+        <v>0.05639488983057148</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02701670347819939</v>
+        <v>0.007044100137087427</v>
       </c>
       <c r="L82" t="n">
-        <v>0.2214838323721026</v>
+        <v>0.230131824652667</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02702429455508438</v>
+        <v>0.01648762282118401</v>
       </c>
       <c r="N82" t="n">
-        <v>0.3564570090391546</v>
+        <v>0.3688242291644913</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02700789408033287</v>
+        <v>0.01648498891932226</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0612952241077951</v>
+        <v>0.05690720196654143</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02855270415242053</v>
+        <v>0.007458458968680805</v>
       </c>
       <c r="J83" t="n">
-        <v>0.08891872501827518</v>
+        <v>0.05690720196654143</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02860592132985818</v>
+        <v>0.007458458968680805</v>
       </c>
       <c r="L83" t="n">
-        <v>0.2249205453116757</v>
+        <v>0.2311627994041724</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02861395894067758</v>
+        <v>0.017457482987136</v>
       </c>
       <c r="N83" t="n">
-        <v>0.36310751981836</v>
+        <v>0.3712280921566412</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02859659373211715</v>
+        <v>0.01745469414987063</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.06200340794440692</v>
+        <v>0.05740774042890864</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03013896549422167</v>
+        <v>0.007872817800274183</v>
       </c>
       <c r="J84" t="n">
-        <v>0.08966527910040782</v>
+        <v>0.05740774042890864</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03019513918151697</v>
+        <v>0.007872817800274183</v>
       </c>
       <c r="L84" t="n">
-        <v>0.227830633459891</v>
+        <v>0.2342354676332438</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03020362332627077</v>
+        <v>0.01842734315308801</v>
       </c>
       <c r="N84" t="n">
-        <v>0.3662518668017778</v>
+        <v>0.377357658091851</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03018529338390144</v>
+        <v>0.018424399380419</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.064666431661074</v>
+        <v>0.05789664155816578</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03172522683602282</v>
+        <v>0.00828717663186756</v>
       </c>
       <c r="J85" t="n">
-        <v>0.09075481547185245</v>
+        <v>0.05789664155816578</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03178435703317575</v>
+        <v>0.00828717663186756</v>
       </c>
       <c r="L85" t="n">
-        <v>0.2286967934725512</v>
+        <v>0.2350776113737089</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03179328771186397</v>
+        <v>0.01939720331904</v>
       </c>
       <c r="N85" t="n">
-        <v>0.3670623110677317</v>
+        <v>0.3775580879744004</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03177399303568573</v>
+        <v>0.01939410461096737</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.06327911749713078</v>
+        <v>0.05837404169480544</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03331148817782396</v>
+        <v>0.00870153546346094</v>
       </c>
       <c r="J86" t="n">
-        <v>0.09168052267295941</v>
+        <v>0.05837404169480544</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03337357488483454</v>
+        <v>0.00870153546346094</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2325017220054595</v>
+        <v>0.2370170126593958</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03338295209745717</v>
+        <v>0.02036706348499201</v>
       </c>
       <c r="N86" t="n">
-        <v>0.3710111136945449</v>
+        <v>0.3808745428085692</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03336269268747001</v>
+        <v>0.02036380984151573</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.06583628769191166</v>
+        <v>0.05884007717932026</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0348977495196251</v>
+        <v>0.009115894295054317</v>
       </c>
       <c r="J87" t="n">
-        <v>0.09223558924407894</v>
+        <v>0.05884007717932026</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03496279273649333</v>
+        <v>0.009115894295054317</v>
       </c>
       <c r="L87" t="n">
-        <v>0.2329281157144186</v>
+        <v>0.2382814535241323</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03497261648305037</v>
+        <v>0.02133692365094401</v>
       </c>
       <c r="N87" t="n">
-        <v>0.3740705357605412</v>
+        <v>0.3809521835986376</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0349513923392543</v>
+        <v>0.0213335150720641</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.06533276448475107</v>
+        <v>0.05929488435220286</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03648401086142624</v>
+        <v>0.009530253126647695</v>
       </c>
       <c r="J88" t="n">
-        <v>0.09241320372556132</v>
+        <v>0.05929488435220286</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03655201058815212</v>
+        <v>0.009530253126647695</v>
       </c>
       <c r="L88" t="n">
-        <v>0.2341586712552316</v>
+        <v>0.2379987160017459</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03656228086864357</v>
+        <v>0.02230678381689601</v>
       </c>
       <c r="N88" t="n">
-        <v>0.3785128383440439</v>
+        <v>0.3846361713488851</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03654009199103859</v>
+        <v>0.02230322030261247</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.06876337011498347</v>
+        <v>0.05973859955394588</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03807027220322737</v>
+        <v>0.009944611958241072</v>
       </c>
       <c r="J89" t="n">
-        <v>0.09310655465775687</v>
+        <v>0.05973859955394588</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03814122843981091</v>
+        <v>0.009944611958241072</v>
       </c>
       <c r="L89" t="n">
-        <v>0.2353760852837014</v>
+        <v>0.2407965821260646</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03815194525423676</v>
+        <v>0.02327664398284801</v>
       </c>
       <c r="N89" t="n">
-        <v>0.3803102825233767</v>
+        <v>0.3842716670635912</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03812879164282287</v>
+        <v>0.02327292553316084</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.06512292682194327</v>
+        <v>0.06017135912504197</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03965653354502852</v>
+        <v>0.01035897078983445</v>
       </c>
       <c r="J90" t="n">
-        <v>0.09410883058101586</v>
+        <v>0.06017135912504197</v>
       </c>
       <c r="K90" t="n">
-        <v>0.03973044629146969</v>
+        <v>0.01035897078983445</v>
       </c>
       <c r="L90" t="n">
-        <v>0.2373630544556309</v>
+        <v>0.2391028339309165</v>
       </c>
       <c r="M90" t="n">
-        <v>0.03974160963982996</v>
+        <v>0.02424650414880001</v>
       </c>
       <c r="N90" t="n">
-        <v>0.380435129376863</v>
+        <v>0.3841038317470362</v>
       </c>
       <c r="O90" t="n">
-        <v>0.03971749129460716</v>
+        <v>0.0242426307637092</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.06640625684496486</v>
+        <v>0.06059329940598372</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04124279488682966</v>
+        <v>0.01077332962142783</v>
       </c>
       <c r="J91" t="n">
-        <v>0.09371322003568856</v>
+        <v>0.06059329940598372</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04131966414312848</v>
+        <v>0.01077332962142783</v>
       </c>
       <c r="L91" t="n">
-        <v>0.2389022754268231</v>
+        <v>0.2415625197312453</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04133127402542316</v>
+        <v>0.02521636431475201</v>
       </c>
       <c r="N91" t="n">
-        <v>0.3821596399828263</v>
+        <v>0.3879538008323121</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04130619094639144</v>
+        <v>0.02521233599425757</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.07060818242338271</v>
+        <v>0.06100455673726377</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0428290562286308</v>
+        <v>0.01118768845302121</v>
       </c>
       <c r="J92" t="n">
-        <v>0.09491291156212527</v>
+        <v>0.06100455673726377</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04290888199478727</v>
+        <v>0.01118768845302121</v>
       </c>
       <c r="L92" t="n">
-        <v>0.2390764448530809</v>
+        <v>0.2410516227175302</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04292093841101636</v>
+        <v>0.02618622448070401</v>
       </c>
       <c r="N92" t="n">
-        <v>0.3861560754195903</v>
+        <v>0.3876388120372615</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04289489059817573</v>
+        <v>0.02618204122480594</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.07275009902067187</v>
+        <v>0.06140526745937476</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04441531757043194</v>
+        <v>0.01160204728461458</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0951712386301783</v>
+        <v>0.06140526745937476</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04449809984644606</v>
+        <v>0.01160204728461458</v>
       </c>
       <c r="L93" t="n">
-        <v>0.2415625197312453</v>
+        <v>0.2396457988430202</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04451060279660956</v>
+        <v>0.02715608464665601</v>
       </c>
       <c r="N93" t="n">
-        <v>0.3879538008323121</v>
+        <v>0.3865250639608431</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04448359024996001</v>
+        <v>0.02715174645535431</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.06574864724389209</v>
+        <v>0.06179556791280932</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04600157891223308</v>
+        <v>0.01201640611620796</v>
       </c>
       <c r="J94" t="n">
-        <v>0.09447095499169177</v>
+        <v>0.06179556791280932</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04608731769810485</v>
+        <v>0.01201640611620796</v>
       </c>
       <c r="L94" t="n">
-        <v>0.2409604156940054</v>
+        <v>0.2398270034835012</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04610026718220276</v>
+        <v>0.02812594481260801</v>
       </c>
       <c r="N94" t="n">
-        <v>0.3873537650988139</v>
+        <v>0.3862354271148503</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0460722899017443</v>
+        <v>0.02812145168590268</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.068714392531443</v>
+        <v>0.06217559443806006</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04758784025403422</v>
+        <v>0.01243076494780134</v>
       </c>
       <c r="J95" t="n">
-        <v>0.09464494657886487</v>
+        <v>0.06217559443806006</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04767653554976364</v>
+        <v>0.01243076494780134</v>
       </c>
       <c r="L95" t="n">
-        <v>0.2402023507852309</v>
+        <v>0.2394007658377793</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04768993156779595</v>
+        <v>0.02909580497856001</v>
       </c>
       <c r="N95" t="n">
-        <v>0.3871337178220984</v>
+        <v>0.3836785886780503</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04766098955352859</v>
+        <v>0.02909115691645104</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.06763666823114603</v>
+        <v>0.06254548337561962</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04917410159583536</v>
+        <v>0.01284512377939472</v>
       </c>
       <c r="J96" t="n">
-        <v>0.09426058642699027</v>
+        <v>0.06254548337561962</v>
       </c>
       <c r="K96" t="n">
-        <v>0.04926575340142242</v>
+        <v>0.01284512377939472</v>
       </c>
       <c r="L96" t="n">
-        <v>0.2400949600850389</v>
+        <v>0.2392749193196939</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04927959595338915</v>
+        <v>0.03006566514451201</v>
       </c>
       <c r="N96" t="n">
-        <v>0.3839773373470931</v>
+        <v>0.3841664233270171</v>
       </c>
       <c r="O96" t="n">
-        <v>0.04924968920531288</v>
+        <v>0.03006086214699942</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.0695182031721903</v>
+        <v>0.06290537106598063</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05076036293763651</v>
+        <v>0.0132594826109881</v>
       </c>
       <c r="J97" t="n">
-        <v>0.09432160863865809</v>
+        <v>0.06290537106598063</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05085497125308121</v>
+        <v>0.0132594826109881</v>
       </c>
       <c r="L97" t="n">
-        <v>0.2406484312761853</v>
+        <v>0.2392572973430845</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05086926033898236</v>
+        <v>0.03103552531046401</v>
       </c>
       <c r="N97" t="n">
-        <v>0.3832992610970578</v>
+        <v>0.3860108057383247</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05083838885709716</v>
+        <v>0.03103056737754778</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.06836172618376489</v>
+        <v>0.06325539384963569</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05234662427943765</v>
+        <v>0.01367384144258147</v>
       </c>
       <c r="J98" t="n">
-        <v>0.09393160304953536</v>
+        <v>0.06325539384963569</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05244418910474</v>
+        <v>0.01367384144258147</v>
       </c>
       <c r="L98" t="n">
-        <v>0.2404718837200628</v>
+        <v>0.2380557333217908</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05245892472457556</v>
+        <v>0.03200538547641602</v>
       </c>
       <c r="N98" t="n">
-        <v>0.3850141082836623</v>
+        <v>0.3830236105885468</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05242708850888145</v>
+        <v>0.03200027260809615</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.06616996609505889</v>
+        <v>0.06359568806707748</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05393288562123879</v>
+        <v>0.01408820027417485</v>
       </c>
       <c r="J99" t="n">
-        <v>0.09439415949528911</v>
+        <v>0.06359568806707748</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05403340695639879</v>
+        <v>0.01408820027417485</v>
       </c>
       <c r="L99" t="n">
-        <v>0.239874436778064</v>
+        <v>0.2378780606696522</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05404858911016876</v>
+        <v>0.03297524564236801</v>
       </c>
       <c r="N99" t="n">
-        <v>0.3820364981185764</v>
+        <v>0.3827167125542571</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05401578816066573</v>
+        <v>0.03296997783864452</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.07094565173526142</v>
+        <v>0.0639263900587986</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05551914696303992</v>
+        <v>0.01450255910576823</v>
       </c>
       <c r="J100" t="n">
-        <v>0.09331286781158631</v>
+        <v>0.0639263900587986</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05562262480805757</v>
+        <v>0.01450255910576823</v>
       </c>
       <c r="L100" t="n">
-        <v>0.2367652098115816</v>
+        <v>0.2386321128005081</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05563825349576196</v>
+        <v>0.03394510580832001</v>
       </c>
       <c r="N100" t="n">
-        <v>0.3839810498134696</v>
+        <v>0.3804019863120298</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05560448781245002</v>
+        <v>0.03393968306919289</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.06969151193356156</v>
+        <v>0.06424763616529167</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05710540830484107</v>
+        <v>0.01491691793736161</v>
       </c>
       <c r="J101" t="n">
-        <v>0.093191317834094</v>
+        <v>0.06424763616529167</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05721184265971636</v>
+        <v>0.01491691793736161</v>
       </c>
       <c r="L101" t="n">
-        <v>0.2361533221820081</v>
+        <v>0.2366257231281982</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05722791788135515</v>
+        <v>0.03491496597427201</v>
       </c>
       <c r="N101" t="n">
-        <v>0.3811623825800118</v>
+        <v>0.3787913065384387</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0571931874642343</v>
+        <v>0.03490938829974126</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.06541027551914841</v>
+        <v>0.06455956272704932</v>
       </c>
       <c r="G102" t="n">
-        <v>0.05869166964664221</v>
+        <v>0.01533127676895499</v>
       </c>
       <c r="J102" t="n">
-        <v>0.09303309939847916</v>
+        <v>0.06455956272704932</v>
       </c>
       <c r="K102" t="n">
-        <v>0.05880106051137515</v>
+        <v>0.01533127676895499</v>
       </c>
       <c r="L102" t="n">
-        <v>0.2370478932507361</v>
+        <v>0.2357667250665621</v>
       </c>
       <c r="M102" t="n">
-        <v>0.05881758226694835</v>
+        <v>0.03588482614022401</v>
       </c>
       <c r="N102" t="n">
-        <v>0.3808951156298721</v>
+        <v>0.3785965479100577</v>
       </c>
       <c r="O102" t="n">
-        <v>0.0587818871160186</v>
+        <v>0.03587909353028963</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.06910467132121106</v>
+        <v>0.06486230608456421</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06027793098844335</v>
+        <v>0.01574563560054837</v>
       </c>
       <c r="J103" t="n">
-        <v>0.09274180234040881</v>
+        <v>0.06486230608456421</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06039027836303393</v>
+        <v>0.01574563560054837</v>
       </c>
       <c r="L103" t="n">
-        <v>0.2360580423791584</v>
+        <v>0.2364629520294391</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06040724665254155</v>
+        <v>0.03685468630617601</v>
       </c>
       <c r="N103" t="n">
-        <v>0.3793938681747208</v>
+        <v>0.3771295851034606</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06037058676780288</v>
+        <v>0.03684879876083799</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.06777742816893863</v>
+        <v>0.06515600257832893</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06186419233024449</v>
+        <v>0.01615999443214174</v>
       </c>
       <c r="J104" t="n">
-        <v>0.09182101649554998</v>
+        <v>0.06515600257832893</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06197949621469272</v>
+        <v>0.01615999443214174</v>
       </c>
       <c r="L104" t="n">
-        <v>0.2335928889286675</v>
+        <v>0.2356222374306688</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06199691103813474</v>
+        <v>0.03782454647212802</v>
       </c>
       <c r="N104" t="n">
-        <v>0.3742732594262269</v>
+        <v>0.3771022927952214</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06195928641958717</v>
+        <v>0.03781850399138637</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.06943127489152018</v>
+        <v>0.06544078854883614</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06345045367204563</v>
+        <v>0.01657435326373512</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0919743316995696</v>
+        <v>0.06544078854883614</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06356871406635151</v>
+        <v>0.01657435326373512</v>
       </c>
       <c r="L105" t="n">
-        <v>0.2335615522606561</v>
+        <v>0.2335524146840908</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06358657542372795</v>
+        <v>0.03879440663808001</v>
       </c>
       <c r="N105" t="n">
-        <v>0.3732479085960607</v>
+        <v>0.3767265456619141</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06354798607137145</v>
+        <v>0.03878820922193473</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.06806894031814484</v>
+        <v>0.06571680033657842</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06503671501384678</v>
+        <v>0.0169887120953285</v>
       </c>
       <c r="J106" t="n">
-        <v>0.09120533778813476</v>
+        <v>0.06571680033657842</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0651579319180103</v>
+        <v>0.0169887120953285</v>
       </c>
       <c r="L106" t="n">
-        <v>0.2310731517365168</v>
+        <v>0.2335613172035444</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06517623980932115</v>
+        <v>0.03976426680403201</v>
       </c>
       <c r="N106" t="n">
-        <v>0.3718324348958916</v>
+        <v>0.3754142183801122</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06513668572315574</v>
+        <v>0.03975791445248309</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.06469315327800169</v>
+        <v>0.06598417428204845</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06662297635564791</v>
+        <v>0.01740307092692188</v>
       </c>
       <c r="J107" t="n">
-        <v>0.09101762459691241</v>
+        <v>0.06598417428204845</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06674714976966908</v>
+        <v>0.01740307092692188</v>
       </c>
       <c r="L107" t="n">
-        <v>0.2310368067176421</v>
+        <v>0.2321567784028695</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06676590419491435</v>
+        <v>0.04073412696998401</v>
       </c>
       <c r="N107" t="n">
-        <v>0.3697414575373893</v>
+        <v>0.3742771856263899</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06672538537494002</v>
+        <v>0.04072761968303146</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.06430664260027985</v>
+        <v>0.06624304672573883</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06820923769744906</v>
+        <v>0.01781742975851526</v>
       </c>
       <c r="J108" t="n">
-        <v>0.09001478196156958</v>
+        <v>0.06624304672573883</v>
       </c>
       <c r="K108" t="n">
-        <v>0.06833636762132787</v>
+        <v>0.01781742975851526</v>
       </c>
       <c r="L108" t="n">
-        <v>0.2294616365654249</v>
+        <v>0.2308466316959053</v>
       </c>
       <c r="M108" t="n">
-        <v>0.06835556858050755</v>
+        <v>0.04170398713593602</v>
       </c>
       <c r="N108" t="n">
-        <v>0.3678895957322231</v>
+        <v>0.3723273220773209</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06831408502672431</v>
+        <v>0.04169732491357983</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.06491213711416839</v>
+        <v>0.06649355400814222</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0697954990392502</v>
+        <v>0.01823178859010863</v>
       </c>
       <c r="J109" t="n">
-        <v>0.08970039971777326</v>
+        <v>0.06649355400814222</v>
       </c>
       <c r="K109" t="n">
-        <v>0.06992558547298666</v>
+        <v>0.01823178859010863</v>
       </c>
       <c r="L109" t="n">
-        <v>0.2277567606412576</v>
+        <v>0.2302387104964914</v>
       </c>
       <c r="M109" t="n">
-        <v>0.06994523296610074</v>
+        <v>0.04267384730188802</v>
       </c>
       <c r="N109" t="n">
-        <v>0.3677914686920633</v>
+        <v>0.3712765024094794</v>
       </c>
       <c r="O109" t="n">
-        <v>0.06990278467850861</v>
+        <v>0.0426670301441282</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.06251236564885641</v>
+        <v>0.06673583246975121</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07138176038105133</v>
+        <v>0.01864614742170201</v>
       </c>
       <c r="J110" t="n">
-        <v>0.08967806770119045</v>
+        <v>0.06673583246975121</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07151480332464545</v>
+        <v>0.01864614742170201</v>
       </c>
       <c r="L110" t="n">
-        <v>0.2261312983065328</v>
+        <v>0.2293408482184673</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07153489735169394</v>
+        <v>0.04364370746784002</v>
       </c>
       <c r="N110" t="n">
-        <v>0.3620616956285789</v>
+        <v>0.366836601299439</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07149148433029288</v>
+        <v>0.04363673537467657</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.06211005703353302</v>
+        <v>0.06697001845105843</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07296802172285248</v>
+        <v>0.01906050625329539</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0891513757474882</v>
+        <v>0.06697001845105843</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07310402117630424</v>
+        <v>0.01906050625329539</v>
       </c>
       <c r="L111" t="n">
-        <v>0.2252943689226434</v>
+        <v>0.2289608782756726</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07312456173728714</v>
+        <v>0.04461356763379201</v>
       </c>
       <c r="N111" t="n">
-        <v>0.3636148957534401</v>
+        <v>0.3684194934237738</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07308018398207718</v>
+        <v>0.04460644060522494</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.06270794009738731</v>
+        <v>0.06719624829255652</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07455428306465361</v>
+        <v>0.01947486508488877</v>
       </c>
       <c r="J112" t="n">
-        <v>0.08792391369233347</v>
+        <v>0.06719624829255652</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07469323902796303</v>
+        <v>0.01947486508488877</v>
       </c>
       <c r="L112" t="n">
-        <v>0.2238550918509817</v>
+        <v>0.2275066340819468</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07471422612288033</v>
+        <v>0.04558342779974402</v>
       </c>
       <c r="N112" t="n">
-        <v>0.3587656882783162</v>
+        <v>0.3645370534590573</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07466888363386145</v>
+        <v>0.04557614583577331</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.06530874366960837</v>
+        <v>0.06741465833473813</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07614054440645475</v>
+        <v>0.01988922391648214</v>
       </c>
       <c r="J113" t="n">
-        <v>0.08739927137139329</v>
+        <v>0.06741465833473813</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07628245687962182</v>
+        <v>0.01988922391648214</v>
       </c>
       <c r="L113" t="n">
-        <v>0.2220225864529406</v>
+        <v>0.2273859490511294</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07630389050847353</v>
+        <v>0.04655328796569601</v>
       </c>
       <c r="N113" t="n">
-        <v>0.3568286924148771</v>
+        <v>0.3622011560818639</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07625758328564575</v>
+        <v>0.04654585106632168</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.06690919136855529</v>
+        <v>0.06762538491809586</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0777268057482559</v>
+        <v>0.02030358274807552</v>
       </c>
       <c r="J114" t="n">
-        <v>0.08718023940393176</v>
+        <v>0.06762538491809586</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07787167473128061</v>
+        <v>0.02030358274807552</v>
       </c>
       <c r="L114" t="n">
-        <v>0.2224050450356286</v>
+        <v>0.22570665659706</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07789355489406673</v>
+        <v>0.04752314813164802</v>
       </c>
       <c r="N114" t="n">
-        <v>0.3554123635112242</v>
+        <v>0.3615236759687672</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07784628293743004</v>
+        <v>0.04751555629687004</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.06346098230205025</v>
+        <v>0.06782856438312236</v>
       </c>
       <c r="G115" t="n">
-        <v>0.07931306709005703</v>
+        <v>0.0207179415796689</v>
       </c>
       <c r="J115" t="n">
-        <v>0.08681408396056474</v>
+        <v>0.06782856438312236</v>
       </c>
       <c r="K115" t="n">
-        <v>0.07946089258293938</v>
+        <v>0.0207179415796689</v>
       </c>
       <c r="L115" t="n">
-        <v>0.2202759925663491</v>
+        <v>0.2240765901335779</v>
       </c>
       <c r="M115" t="n">
-        <v>0.07948321927965993</v>
+        <v>0.04849300829760002</v>
       </c>
       <c r="N115" t="n">
-        <v>0.3549897862990862</v>
+        <v>0.3621164877963412</v>
       </c>
       <c r="O115" t="n">
-        <v>0.07943498258921432</v>
+        <v>0.04848526152741841</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.06196018742045271</v>
+        <v>0.06802433307031024</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08089932843185817</v>
+        <v>0.02113230041126228</v>
       </c>
       <c r="J116" t="n">
-        <v>0.08577563731963646</v>
+        <v>0.06802433307031024</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08105011043459817</v>
+        <v>0.02113230041126228</v>
       </c>
       <c r="L116" t="n">
-        <v>0.2173621047420555</v>
+        <v>0.2241035830745229</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08107288366525313</v>
+        <v>0.04946286846355202</v>
       </c>
       <c r="N116" t="n">
-        <v>0.3495750299972128</v>
+        <v>0.3587914662411597</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08102368224099861</v>
+        <v>0.04945496675796678</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.059415697575452</v>
+        <v>0.06821282732015212</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08248558977365932</v>
+        <v>0.02154665924285566</v>
       </c>
       <c r="J117" t="n">
-        <v>0.08547659559486183</v>
+        <v>0.06821282732015212</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08263932828625696</v>
+        <v>0.02154665924285566</v>
       </c>
       <c r="L117" t="n">
-        <v>0.2155930935322497</v>
+        <v>0.2248954688337343</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08266254805084633</v>
+        <v>0.05043272862950401</v>
       </c>
       <c r="N117" t="n">
-        <v>0.3460157257447347</v>
+        <v>0.3592604859797965</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08261238189278289</v>
+        <v>0.05042467198851515</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.06083640361873739</v>
+        <v>0.06839418347314068</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08407185111546045</v>
+        <v>0.02196101807444904</v>
       </c>
       <c r="J118" t="n">
-        <v>0.08432865489995582</v>
+        <v>0.06839418347314068</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08422854613791575</v>
+        <v>0.02196101807444904</v>
       </c>
       <c r="L118" t="n">
-        <v>0.2134986709064338</v>
+        <v>0.2226600808250518</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08425221243643952</v>
+        <v>0.05140258879545602</v>
       </c>
       <c r="N118" t="n">
-        <v>0.3460595046807822</v>
+        <v>0.3596354216888257</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08420108154456718</v>
+        <v>0.05139437721906352</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.06023119640199817</v>
+        <v>0.06856853786976844</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0856581124572616</v>
+        <v>0.02237537690604241</v>
       </c>
       <c r="J119" t="n">
-        <v>0.08354351134863326</v>
+        <v>0.06856853786976844</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08581776398957454</v>
+        <v>0.02237537690604241</v>
       </c>
       <c r="L119" t="n">
-        <v>0.2136085488341099</v>
+        <v>0.2235052524623147</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08584187682203272</v>
+        <v>0.05237244896140802</v>
       </c>
       <c r="N119" t="n">
-        <v>0.3425539979444856</v>
+        <v>0.3578281480448211</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08578978119635146</v>
+        <v>0.05236408244961188</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.05760896677692361</v>
+        <v>0.06873602685052817</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08724437379906273</v>
+        <v>0.02278973573763579</v>
       </c>
       <c r="J120" t="n">
-        <v>0.08313286105460908</v>
+        <v>0.06873602685052817</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08740698184123333</v>
+        <v>0.02278973573763579</v>
       </c>
       <c r="L120" t="n">
-        <v>0.2115524392847801</v>
+        <v>0.2215388171593628</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08743154120762592</v>
+        <v>0.05334230912736002</v>
       </c>
       <c r="N120" t="n">
-        <v>0.337546836674976</v>
+        <v>0.3580505397243566</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08737848084813575</v>
+        <v>0.05333378768016025</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.05797860559520306</v>
+        <v>0.06889678675591239</v>
       </c>
       <c r="G121" t="n">
-        <v>0.08883063514086388</v>
+        <v>0.02320409456922917</v>
       </c>
       <c r="J121" t="n">
-        <v>0.08240840013159824</v>
+        <v>0.06889678675591239</v>
       </c>
       <c r="K121" t="n">
-        <v>0.08899619969289212</v>
+        <v>0.02320409456922917</v>
       </c>
       <c r="L121" t="n">
-        <v>0.2075600542279466</v>
+        <v>0.2230676798509452</v>
       </c>
       <c r="M121" t="n">
-        <v>0.08902120559321912</v>
+        <v>0.05431216929331202</v>
       </c>
       <c r="N121" t="n">
-        <v>0.3356856520113833</v>
+        <v>0.3572124665413146</v>
       </c>
       <c r="O121" t="n">
-        <v>0.08896718049992003</v>
+        <v>0.05430349291070861</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05634900370852571</v>
+        <v>0.06905095392641376</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09041689648266502</v>
+        <v>0.02361845340082255</v>
       </c>
       <c r="J122" t="n">
-        <v>0.08178182469331564</v>
+        <v>0.06905095392641376</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09058541754455089</v>
+        <v>0.02361845340082255</v>
       </c>
       <c r="L122" t="n">
-        <v>0.2062611056331112</v>
+        <v>0.2218392857177306</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09061086997881232</v>
+        <v>0.05528202945926402</v>
       </c>
       <c r="N122" t="n">
-        <v>0.3315180750928383</v>
+        <v>0.3551274374293447</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09055588015170432</v>
+        <v>0.05527319814125699</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.06072905196858092</v>
+        <v>0.06919866470252492</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09200315782446616</v>
+        <v>0.02403281223241592</v>
       </c>
       <c r="J123" t="n">
-        <v>0.08076483085347615</v>
+        <v>0.06919866470252492</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09217463539620969</v>
+        <v>0.02403281223241592</v>
       </c>
       <c r="L123" t="n">
-        <v>0.2047853054697764</v>
+        <v>0.2206194748385408</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09220053436440552</v>
+        <v>0.05625188962521602</v>
       </c>
       <c r="N123" t="n">
-        <v>0.3286917370584715</v>
+        <v>0.3552452295878405</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0921445798034886</v>
+        <v>0.05624290337180535</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.05712764122705793</v>
+        <v>0.06934005542473851</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0935894191662673</v>
+        <v>0.0244471710640093</v>
       </c>
       <c r="J124" t="n">
-        <v>0.07926911472579472</v>
+        <v>0.06934005542473851</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09376385324786848</v>
+        <v>0.0244471710640093</v>
       </c>
       <c r="L124" t="n">
-        <v>0.2035623657074439</v>
+        <v>0.2204080296709037</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09379019874999872</v>
+        <v>0.05722174979116802</v>
       </c>
       <c r="N124" t="n">
-        <v>0.3246542690474131</v>
+        <v>0.3537672242614313</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09373327945527289</v>
+        <v>0.05721260860235372</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05955366233564607</v>
+        <v>0.06947526243354715</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09517568050806845</v>
+        <v>0.02486152989560268</v>
       </c>
       <c r="J125" t="n">
-        <v>0.07860637242398634</v>
+        <v>0.06947526243354715</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09535307109952727</v>
+        <v>0.02486152989560268</v>
       </c>
       <c r="L125" t="n">
-        <v>0.199521998315616</v>
+        <v>0.2208047326723468</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09537986313559191</v>
+        <v>0.05819160995712001</v>
       </c>
       <c r="N125" t="n">
-        <v>0.322253302198794</v>
+        <v>0.3554948026947461</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09532197910705718</v>
+        <v>0.05818231383290209</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05496668007557837</v>
+        <v>0.06960442206944344</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09676194184986958</v>
+        <v>0.02527588872719606</v>
       </c>
       <c r="J126" t="n">
-        <v>0.078052747839794</v>
+        <v>0.06960442206944344</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09694228895118606</v>
+        <v>0.02527588872719606</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1989129106970847</v>
+        <v>0.2215093663003981</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09696952752118511</v>
+        <v>0.05916147012307203</v>
       </c>
       <c r="N126" t="n">
-        <v>0.3191733408853334</v>
+        <v>0.3540293461324141</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09691067875884146</v>
+        <v>0.05915201906345045</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.05932745866094567</v>
+        <v>0.06972767067292</v>
       </c>
       <c r="G127" t="n">
-        <v>0.09834820319167073</v>
+        <v>0.02569024755878944</v>
       </c>
       <c r="J127" t="n">
-        <v>0.07693092363387556</v>
+        <v>0.06972767067292</v>
       </c>
       <c r="K127" t="n">
-        <v>0.09853150680284484</v>
+        <v>0.02569024755878944</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1959327418408911</v>
+        <v>0.2217217130125851</v>
       </c>
       <c r="M127" t="n">
-        <v>0.09855919190677831</v>
+        <v>0.06013133028902402</v>
       </c>
       <c r="N127" t="n">
-        <v>0.3140126462890948</v>
+        <v>0.3537722358190648</v>
       </c>
       <c r="O127" t="n">
-        <v>0.09849937841062575</v>
+        <v>0.06012172429399883</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05364872304877746</v>
+        <v>0.06984514458446954</v>
       </c>
       <c r="G128" t="n">
-        <v>0.09993446453347186</v>
+        <v>0.02610460639038282</v>
       </c>
       <c r="J128" t="n">
-        <v>0.07655294706058054</v>
+        <v>0.06984514458446954</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1001207246545036</v>
+        <v>0.02610460639038282</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1941083308134469</v>
+        <v>0.2195415552664358</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1001488562923715</v>
+        <v>0.06110119045497603</v>
       </c>
       <c r="N128" t="n">
-        <v>0.311826249654267</v>
+        <v>0.3518248529993273</v>
       </c>
       <c r="O128" t="n">
-        <v>0.10008807806241</v>
+        <v>0.0610914295245472</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05094320049587157</v>
+        <v>0.06995698014458458</v>
       </c>
       <c r="G129" t="n">
-        <v>0.101520725875273</v>
+        <v>0.02651896522197619</v>
       </c>
       <c r="J129" t="n">
-        <v>0.07593556111011825</v>
+        <v>0.06995698014458458</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1017099425061624</v>
+        <v>0.02651896522197619</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1908822103077989</v>
+        <v>0.2205686755194778</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1017385206779647</v>
+        <v>0.06207105062092802</v>
       </c>
       <c r="N129" t="n">
-        <v>0.3059823349704691</v>
+        <v>0.3514885789178308</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1016767777141943</v>
+        <v>0.06206113475509557</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05122361825902581</v>
+        <v>0.07006331369375784</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1031069872170741</v>
+        <v>0.02693332405356957</v>
       </c>
       <c r="J130" t="n">
-        <v>0.07429550877269799</v>
+        <v>0.07006331369375784</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1032991603578212</v>
+        <v>0.02693332405356957</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1904969130169933</v>
+        <v>0.2214028562292389</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1033281850635579</v>
+        <v>0.06304091078688001</v>
       </c>
       <c r="N130" t="n">
-        <v>0.30554908622732</v>
+        <v>0.3537647948192044</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1032654773659786</v>
+        <v>0.06303083998564393</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.05550270359503794</v>
+        <v>0.0701642815724819</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1046932485588753</v>
+        <v>0.02734768288516295</v>
       </c>
       <c r="J131" t="n">
-        <v>0.07394953303852901</v>
+        <v>0.0701642815724819</v>
       </c>
       <c r="K131" t="n">
-        <v>0.10488837820948</v>
+        <v>0.02734768288516295</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1872949716340764</v>
+        <v>0.2192438798532468</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1049178494491511</v>
+        <v>0.06401077095283203</v>
       </c>
       <c r="N131" t="n">
-        <v>0.3017946874144385</v>
+        <v>0.3499548819480774</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1048541770177629</v>
+        <v>0.06400054521619229</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04979318376070578</v>
+        <v>0.07026002012124941</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1062795099006764</v>
+        <v>0.02776204171675633</v>
       </c>
       <c r="J132" t="n">
-        <v>0.07241437689782067</v>
+        <v>0.07026002012124941</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1064775960611388</v>
+        <v>0.02776204171675633</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1847189188520947</v>
+        <v>0.2188915288490292</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1065075138347443</v>
+        <v>0.06498063111878402</v>
       </c>
       <c r="N132" t="n">
-        <v>0.2971873225214435</v>
+        <v>0.3513602215490793</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1064428766695472</v>
+        <v>0.06497025044674068</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05410778601282712</v>
+        <v>0.070350665680553</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1078657712424776</v>
+        <v>0.02817640054834971</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0715067833407822</v>
+        <v>0.070350665680553</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1080668139127976</v>
+        <v>0.02817640054834971</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1830112873640947</v>
+        <v>0.2193455856741141</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1080971782203375</v>
+        <v>0.06595049128473603</v>
       </c>
       <c r="N133" t="n">
-        <v>0.290895175537954</v>
+        <v>0.3519821948668391</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1080315763213315</v>
+        <v>0.06593995567728904</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04845923760819978</v>
+        <v>0.07043635459088526</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1094520325842787</v>
+        <v>0.02859075937994308</v>
       </c>
       <c r="J134" t="n">
-        <v>0.07104349535762294</v>
+        <v>0.07043635459088526</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1096560317644564</v>
+        <v>0.02859075937994308</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1811146098631227</v>
+        <v>0.218505832786029</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1096868426059307</v>
+        <v>0.06692035145068802</v>
       </c>
       <c r="N134" t="n">
-        <v>0.2891864304535887</v>
+        <v>0.351122183145986</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1096202759731158</v>
+        <v>0.06690966090783741</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04986026580362156</v>
+        <v>0.07051722319273884</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1110382939260798</v>
+        <v>0.02900511821153646</v>
       </c>
       <c r="J135" t="n">
-        <v>0.07034125593855214</v>
+        <v>0.07051722319273884</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1112452496161151</v>
+        <v>0.02900511821153646</v>
       </c>
       <c r="L135" t="n">
-        <v>0.177571419042225</v>
+        <v>0.2190720526423016</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1112765069915239</v>
+        <v>0.06789021161664002</v>
       </c>
       <c r="N135" t="n">
-        <v>0.2861292712579667</v>
+        <v>0.3521815676311492</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1112089756249</v>
+        <v>0.06787936613838577</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04632359785589024</v>
+        <v>0.07059340782660636</v>
       </c>
       <c r="G136" t="n">
-        <v>0.112624555267881</v>
+        <v>0.02941947704312984</v>
       </c>
       <c r="J136" t="n">
-        <v>0.06971680807377914</v>
+        <v>0.07059340782660636</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1128344674677739</v>
+        <v>0.02941947704312984</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1751242475944481</v>
+        <v>0.2192440277004598</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1128661713771171</v>
+        <v>0.06886007178259203</v>
       </c>
       <c r="N136" t="n">
-        <v>0.2828918819407067</v>
+        <v>0.3505617295669581</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1127976752766843</v>
+        <v>0.06884907136893414</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05086196102180363</v>
+        <v>0.0706650448329805</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1142108166096821</v>
+        <v>0.02983383587472322</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0689868947535132</v>
+        <v>0.0706650448329805</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1144236853194327</v>
+        <v>0.02983383587472322</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1744156282128385</v>
+        <v>0.2195215404180314</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1144558357627103</v>
+        <v>0.06982993194854402</v>
       </c>
       <c r="N137" t="n">
-        <v>0.2806424464914279</v>
+        <v>0.3488640501980417</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1143863749284686</v>
+        <v>0.06981877659948252</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04648808255815952</v>
+        <v>0.07073227055235386</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1157970779514833</v>
+        <v>0.03024819470631659</v>
       </c>
       <c r="J138" t="n">
-        <v>0.06796825896796363</v>
+        <v>0.07073227055235386</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1160129031710915</v>
+        <v>0.03024819470631659</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1737880935904424</v>
+        <v>0.218504373252544</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1160455001483035</v>
+        <v>0.07079979211449602</v>
       </c>
       <c r="N138" t="n">
-        <v>0.2764491488997488</v>
+        <v>0.3479899107690295</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1159750745802529</v>
+        <v>0.07078848183003088</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04821468972175573</v>
+        <v>0.07079522132521898</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1173833392932844</v>
+        <v>0.03066255353790997</v>
       </c>
       <c r="J139" t="n">
-        <v>0.06767764370733971</v>
+        <v>0.07079522132521898</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1176021210227503</v>
+        <v>0.03066255353790997</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1732841764203062</v>
+        <v>0.2183923086615253</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1176351645338967</v>
+        <v>0.07176965228044803</v>
       </c>
       <c r="N139" t="n">
-        <v>0.2762801731552887</v>
+        <v>0.3508406925245504</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1175637742320372</v>
+        <v>0.07175818706057925</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04505450976939007</v>
+        <v>0.07085403349206865</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1189696006350855</v>
+        <v>0.03107691236950336</v>
       </c>
       <c r="J140" t="n">
-        <v>0.06753179196185075</v>
+        <v>0.07085403349206865</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1191913388744091</v>
+        <v>0.03107691236950336</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1729464093954766</v>
+        <v>0.2177851291025032</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1192248289194899</v>
+        <v>0.07273951244640002</v>
       </c>
       <c r="N140" t="n">
-        <v>0.2742037032476663</v>
+        <v>0.3475177767092339</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1191524738838215</v>
+        <v>0.07272789229112761</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05001689019803009</v>
+        <v>0.07090884339339537</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1205558619768867</v>
+        <v>0.03149127120109673</v>
       </c>
       <c r="J141" t="n">
-        <v>0.06794743723848605</v>
+        <v>0.07090884339339537</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1207805567260679</v>
+        <v>0.03149127120109673</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1711173252089997</v>
+        <v>0.2176826170330054</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1208144933050831</v>
+        <v>0.07370937261235203</v>
       </c>
       <c r="N141" t="n">
-        <v>0.2770871065997585</v>
+        <v>0.3477225445677091</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1207411735356058</v>
+        <v>0.07369759752167598</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.046031236377508</v>
+        <v>0.07095978736969183</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1221421233186878</v>
+        <v>0.03190563003269011</v>
       </c>
       <c r="J142" t="n">
-        <v>0.06736049762397724</v>
+        <v>0.07095978736969183</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1223697745777267</v>
+        <v>0.03190563003269011</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1706481626810749</v>
+        <v>0.2189845549105596</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1224041576906763</v>
+        <v>0.07467923277830402</v>
       </c>
       <c r="N142" t="n">
-        <v>0.2767444484624346</v>
+        <v>0.3494563773446053</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1223298731873901</v>
+        <v>0.07466730275222434</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04706419668926973</v>
+        <v>0.07100700176145067</v>
       </c>
       <c r="G143" t="n">
-        <v>0.123728384660489</v>
+        <v>0.03231998886428349</v>
       </c>
       <c r="J143" t="n">
-        <v>0.06729827898653054</v>
+        <v>0.07100700176145067</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1239589924293854</v>
+        <v>0.03231998886428349</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1726419945724046</v>
+        <v>0.2181907251926937</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1239938220762695</v>
+        <v>0.07564909294425604</v>
       </c>
       <c r="N143" t="n">
-        <v>0.2753022972556523</v>
+        <v>0.3503206562845516</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1239185728391743</v>
+        <v>0.07563700798277273</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04711483593912187</v>
+        <v>0.07105062290916443</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1253146460022901</v>
+        <v>0.03273434769587687</v>
       </c>
       <c r="J144" t="n">
-        <v>0.06775955105732424</v>
+        <v>0.07105062290916443</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1255482102810442</v>
+        <v>0.03273434769587687</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1708955900383784</v>
+        <v>0.2180009103369352</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1255834864618627</v>
+        <v>0.07661895311020803</v>
       </c>
       <c r="N144" t="n">
-        <v>0.2757556428446912</v>
+        <v>0.3480167626321773</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1255072724909586</v>
+        <v>0.07660671321332109</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.04818221893287108</v>
+        <v>0.07109078715332584</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1269009073440913</v>
+        <v>0.03314870652747024</v>
       </c>
       <c r="J145" t="n">
-        <v>0.06764308356753675</v>
+        <v>0.07109078715332584</v>
       </c>
       <c r="K145" t="n">
-        <v>0.127137428132703</v>
+        <v>0.03314870652747024</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1710058237922046</v>
+        <v>0.2196148928008121</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1271731508474559</v>
+        <v>0.07758881327616002</v>
       </c>
       <c r="N145" t="n">
-        <v>0.2773994750948314</v>
+        <v>0.3489460776321117</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1270959721427429</v>
+        <v>0.07757641844386946</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04926541047632402</v>
+        <v>0.07112763083442747</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1284871686858924</v>
+        <v>0.03356306535906362</v>
       </c>
       <c r="J146" t="n">
-        <v>0.06814764624834639</v>
+        <v>0.07112763083442747</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1287266459843618</v>
+        <v>0.03356306535906362</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1716695705470913</v>
+        <v>0.2184324550418519</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1287628152330491</v>
+        <v>0.07855867344211202</v>
       </c>
       <c r="N146" t="n">
-        <v>0.2784287838713533</v>
+        <v>0.349109982528984</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1286846717945272</v>
+        <v>0.07854612367441782</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05036347537528725</v>
+        <v>0.07116129029296196</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1300734300276936</v>
+        <v>0.033977424190657</v>
       </c>
       <c r="J147" t="n">
-        <v>0.06817200883093158</v>
+        <v>0.07116129029296196</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1303158638360206</v>
+        <v>0.033977424190657</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1725837050162471</v>
+        <v>0.2192537794844583</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1303524796186423</v>
+        <v>0.07952853360806403</v>
       </c>
       <c r="N147" t="n">
-        <v>0.2772385590395366</v>
+        <v>0.346901731133437</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1302733714463115</v>
+        <v>0.07951582890496618</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04747547843556746</v>
+        <v>0.07119190186942197</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1316596913694947</v>
+        <v>0.03439178302225038</v>
       </c>
       <c r="J148" t="n">
-        <v>0.0685149410464706</v>
+        <v>0.07119190186942197</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1319050816876794</v>
+        <v>0.03439178302225038</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1723451019128798</v>
+        <v>0.2188799866667365</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1319421440042355</v>
+        <v>0.08049839377401603</v>
       </c>
       <c r="N148" t="n">
-        <v>0.2772237904646615</v>
+        <v>0.3474959209948254</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1318620710980958</v>
+        <v>0.08048553413551457</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05260048446297125</v>
+        <v>0.07121960190430009</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1332459527112958</v>
+        <v>0.03480614185384376</v>
       </c>
       <c r="J149" t="n">
-        <v>0.06807521262614187</v>
+        <v>0.07121960190430009</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1334942995393382</v>
+        <v>0.03480614185384376</v>
       </c>
       <c r="L149" t="n">
-        <v>0.174250635950198</v>
+        <v>0.2178108995280394</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1335318083898287</v>
+        <v>0.08146825393996802</v>
       </c>
       <c r="N149" t="n">
-        <v>0.2795794680120079</v>
+        <v>0.3491905764818242</v>
       </c>
       <c r="O149" t="n">
-        <v>0.13345077074988</v>
+        <v>0.08145523936606293</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04973755826330527</v>
+        <v>0.07124452673808894</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1348322140530969</v>
+        <v>0.03522050068543713</v>
       </c>
       <c r="J150" t="n">
-        <v>0.06835159330112373</v>
+        <v>0.07124452673808894</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1350835173909969</v>
+        <v>0.03522050068543713</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1743971818414098</v>
+        <v>0.2181462245115167</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1351214727754219</v>
+        <v>0.08243811410592003</v>
       </c>
       <c r="N150" t="n">
-        <v>0.2775005815468561</v>
+        <v>0.3469856716958519</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1350394704016643</v>
+        <v>0.0824249445966113</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04588576464237613</v>
+        <v>0.07126681271128119</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1364184753948981</v>
+        <v>0.03563485951703051</v>
       </c>
       <c r="J151" t="n">
-        <v>0.06864285280259454</v>
+        <v>0.07126681271128119</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1366727352426557</v>
+        <v>0.03563485951703051</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1745816142997235</v>
+        <v>0.2179856680603178</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1367111371610151</v>
+        <v>0.08340797427187203</v>
       </c>
       <c r="N151" t="n">
-        <v>0.278482120934486</v>
+        <v>0.3469811807383282</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1366281700534486</v>
+        <v>0.08339464982715966</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05004416840599048</v>
+        <v>0.07128659616436944</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1380047367366992</v>
+        <v>0.03604921834862389</v>
       </c>
       <c r="J152" t="n">
-        <v>0.06934776086173262</v>
+        <v>0.07128659616436944</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1382619530943145</v>
+        <v>0.03604921834862389</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1750008080383473</v>
+        <v>0.2171289366175926</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1383008015466083</v>
+        <v>0.08437783443782403</v>
       </c>
       <c r="N152" t="n">
-        <v>0.2798190760401776</v>
+        <v>0.3499770777106721</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1382168697052329</v>
+        <v>0.08436435505770803</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05021183435995494</v>
+        <v>0.07130401343784633</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1395909980785004</v>
+        <v>0.03646357718021727</v>
       </c>
       <c r="J153" t="n">
-        <v>0.06916508720971638</v>
+        <v>0.07130401343784633</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1398511709459733</v>
+        <v>0.03646357718021727</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1763516377704895</v>
+        <v>0.2190757366264905</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1398904659322015</v>
+        <v>0.08534769460377603</v>
       </c>
       <c r="N153" t="n">
-        <v>0.2806064367292112</v>
+        <v>0.3469733367143026</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1398055693570172</v>
+        <v>0.08533406028825639</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05244659083064818</v>
+        <v>0.07131920087220449</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1411772594203015</v>
+        <v>0.03687793601181064</v>
       </c>
       <c r="J154" t="n">
-        <v>0.0696382112157572</v>
+        <v>0.07131920087220449</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1414403887976321</v>
+        <v>0.03687793601181064</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1752336942187868</v>
+        <v>0.2170257745301613</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1414801303177947</v>
+        <v>0.08631755476972802</v>
       </c>
       <c r="N154" t="n">
-        <v>0.2810416209349907</v>
+        <v>0.3481699318506392</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1413942690088015</v>
+        <v>0.08630376551880477</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05283572385623021</v>
+        <v>0.07133229480793653</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1427635207621027</v>
+        <v>0.03729229484340402</v>
       </c>
       <c r="J155" t="n">
-        <v>0.0698093726924353</v>
+        <v>0.07133229480793653</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1430296066492909</v>
+        <v>0.03729229484340402</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1778146896561462</v>
+        <v>0.2183787567717543</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1430697947033879</v>
+        <v>0.08728741493568004</v>
       </c>
       <c r="N155" t="n">
-        <v>0.2857898279369251</v>
+        <v>0.3499668372211007</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1429829686605858</v>
+        <v>0.08727347074935314</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05135307613861276</v>
+        <v>0.07134343158553508</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1443497821039038</v>
+        <v>0.0377066536749974</v>
       </c>
       <c r="J156" t="n">
-        <v>0.07005642663352003</v>
+        <v>0.07134343158553508</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1446188245009497</v>
+        <v>0.0377066536749974</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1794452728413127</v>
+        <v>0.2172343897944194</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1446594590889811</v>
+        <v>0.08825727510163203</v>
       </c>
       <c r="N156" t="n">
-        <v>0.2876491940890671</v>
+        <v>0.3483640269271064</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1445716683123701</v>
+        <v>0.0882431759799015</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05097041642226967</v>
+        <v>0.07135274754549278</v>
       </c>
       <c r="G157" t="n">
-        <v>0.145936043445705</v>
+        <v>0.03812101250659078</v>
       </c>
       <c r="J157" t="n">
-        <v>0.07124223419264572</v>
+        <v>0.07135274754549278</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1462080423526085</v>
+        <v>0.03812101250659078</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1808310989091922</v>
+        <v>0.2165923800413063</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1462491234745743</v>
+        <v>0.08922713526758402</v>
       </c>
       <c r="N157" t="n">
-        <v>0.2917684755166129</v>
+        <v>0.3489614750700756</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1461603679641544</v>
+        <v>0.08921288121044987</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05365951345167476</v>
+        <v>0.07136037902830229</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1475223047875061</v>
+        <v>0.03853537133818416</v>
       </c>
       <c r="J158" t="n">
-        <v>0.07172965652344664</v>
+        <v>0.07136037902830229</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1477972602042673</v>
+        <v>0.03853537133818416</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1822778229946905</v>
+        <v>0.2171524339555643</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1478387878601675</v>
+        <v>0.09019699543353603</v>
       </c>
       <c r="N158" t="n">
-        <v>0.2949964283447586</v>
+        <v>0.3471591557514272</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1477490676159386</v>
+        <v>0.09018258644099823</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05539213597130195</v>
+        <v>0.07136646237445617</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1491085661293072</v>
+        <v>0.03894973016977753</v>
       </c>
       <c r="J159" t="n">
-        <v>0.07358155477955711</v>
+        <v>0.07136646237445617</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1493864780559261</v>
+        <v>0.03894973016977753</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1866911002327135</v>
+        <v>0.2186142579803434</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1494284522457607</v>
+        <v>0.09116685559948803</v>
       </c>
       <c r="N159" t="n">
-        <v>0.3000818086987</v>
+        <v>0.3478570430725806</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1493377672677229</v>
+        <v>0.09115229167154662</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05714005272562504</v>
+        <v>0.07137113392444712</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1506948274711084</v>
+        <v>0.03936408900137092</v>
       </c>
       <c r="J160" t="n">
-        <v>0.07376079011461141</v>
+        <v>0.07137113392444712</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1509756959075848</v>
+        <v>0.03936408900137092</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1888765857581667</v>
+        <v>0.2170775585587928</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1510181166313539</v>
+        <v>0.09213671576544004</v>
       </c>
       <c r="N160" t="n">
-        <v>0.3010733727036338</v>
+        <v>0.3465551111349546</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1509264669195072</v>
+        <v>0.09212199690209498</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05487503245911791</v>
+        <v>0.07137453001876772</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1522810888129095</v>
+        <v>0.03977844783296429</v>
       </c>
       <c r="J161" t="n">
-        <v>0.07513022368224388</v>
+        <v>0.07137453001876772</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1525649137592436</v>
+        <v>0.03977844783296429</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1916399347059561</v>
+        <v>0.2186420421340625</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1526077810169471</v>
+        <v>0.09310657593139203</v>
       </c>
       <c r="N161" t="n">
-        <v>0.3045198764847559</v>
+        <v>0.346953334039969</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1525151665712915</v>
+        <v>0.09309170213264335</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05756884391625439</v>
+        <v>0.07137678699791057</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1538673501547106</v>
+        <v>0.04019280666455767</v>
       </c>
       <c r="J162" t="n">
-        <v>0.07585271663608877</v>
+        <v>0.07137678699791057</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1541541316109024</v>
+        <v>0.04019280666455767</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1934868022109872</v>
+        <v>0.2177074151493018</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1541974454025403</v>
+        <v>0.09407643609734402</v>
       </c>
       <c r="N162" t="n">
-        <v>0.3083700761672622</v>
+        <v>0.3490516858890423</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1541038662230758</v>
+        <v>0.09406140736319171</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05919325584150836</v>
+        <v>0.0713780412023684</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1554536114965118</v>
+        <v>0.04060716549615104</v>
       </c>
       <c r="J163" t="n">
-        <v>0.07719113012978042</v>
+        <v>0.0713780412023684</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1557433494625612</v>
+        <v>0.04060716549615104</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1947228434081661</v>
+        <v>0.2177733840476606</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1557871097881335</v>
+        <v>0.09504629626329604</v>
       </c>
       <c r="N163" t="n">
-        <v>0.312572727876349</v>
+        <v>0.3482501407835941</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1556925658748601</v>
+        <v>0.09503111259374009</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05873404891819731</v>
+        <v>0.07137842897263373</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1570398728383129</v>
+        <v>0.04102152432774443</v>
       </c>
       <c r="J164" t="n">
-        <v>0.07781577851854886</v>
+        <v>0.07137842897263373</v>
       </c>
       <c r="K164" t="n">
-        <v>0.15733256731422</v>
+        <v>0.04102152432774443</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1970695528001748</v>
+        <v>0.2167396552722883</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1573767741737267</v>
+        <v>0.09601615642924803</v>
       </c>
       <c r="N164" t="n">
-        <v>0.3165132757908969</v>
+        <v>0.3491486728250432</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1572812655266443</v>
+        <v>0.09600081782428846</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05925115193454414</v>
+        <v>0.07137842897263372</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1586261341801141</v>
+        <v>0.04102152432774443</v>
       </c>
       <c r="J165" t="n">
-        <v>0.07859660673610201</v>
+        <v>0.07137842897263372</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1589217851658788</v>
+        <v>0.04102152432774443</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1992993047741471</v>
+        <v>0.2184059352663345</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1589664385593199</v>
+        <v>0.09698601659520004</v>
       </c>
       <c r="N165" t="n">
-        <v>0.3191854595172581</v>
+        <v>0.347147256114809</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1588699651784286</v>
+        <v>0.09697052305483682</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05575604729715657</v>
+        <v>0.07020623164060258</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1602123955219152</v>
+        <v>0.04102125579928041</v>
       </c>
       <c r="J166" t="n">
-        <v>0.07866118840204671</v>
+        <v>0.07020623164060258</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1605110030175376</v>
+        <v>0.04102125579928041</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1998877135358281</v>
+        <v>0.2181719304729491</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1605561029449131</v>
+        <v>0.09795587676115203</v>
       </c>
       <c r="N166" t="n">
-        <v>0.3221916142976017</v>
+        <v>0.3480458647543107</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1604586648302129</v>
+        <v>0.09794022828538519</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05724963058642984</v>
+        <v>0.06904700470748983</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1617986568637163</v>
+        <v>0.04102098727081639</v>
       </c>
       <c r="J167" t="n">
-        <v>0.07981070167236963</v>
+        <v>0.06904700470748983</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1621002208691963</v>
+        <v>0.04102098727081639</v>
       </c>
       <c r="L167" t="n">
-        <v>0.2011377719882959</v>
+        <v>0.2168373473352814</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1621457673305063</v>
+        <v>0.09892573692710403</v>
       </c>
       <c r="N167" t="n">
-        <v>0.3248365380428476</v>
+        <v>0.3500444728449672</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1620473644819972</v>
+        <v>0.09890993351593355</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.06173279738275922</v>
+        <v>0.0679013276761206</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1633849182055175</v>
+        <v>0.04102071874235238</v>
       </c>
       <c r="J168" t="n">
-        <v>0.08054632470305738</v>
+        <v>0.0679013276761206</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1636894387208551</v>
+        <v>0.04102071874235238</v>
       </c>
       <c r="L168" t="n">
-        <v>0.2038524730346291</v>
+        <v>0.2179018922964812</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1637354317160995</v>
+        <v>0.09989559709305604</v>
       </c>
       <c r="N168" t="n">
-        <v>0.326525028663916</v>
+        <v>0.349943054488198</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1636360641337815</v>
+        <v>0.09987963874648192</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.06220644326653994</v>
+        <v>0.06676978004921977</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1649711795473186</v>
+        <v>0.04102045021388836</v>
       </c>
       <c r="J169" t="n">
-        <v>0.08056923565009659</v>
+        <v>0.06676978004921977</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1652786565725139</v>
+        <v>0.04102045021388836</v>
       </c>
       <c r="L169" t="n">
-        <v>0.205134809577906</v>
+        <v>0.2161652717996981</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1653250961016927</v>
+        <v>0.100865457259008</v>
       </c>
       <c r="N169" t="n">
-        <v>0.327961884071727</v>
+        <v>0.349941583785422</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1652247637855658</v>
+        <v>0.1008493439770303</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0556714638181673</v>
+        <v>0.06565294132961122</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1665574408891198</v>
+        <v>0.04102018168542434</v>
       </c>
       <c r="J170" t="n">
-        <v>0.08108061266947382</v>
+        <v>0.06565294132961122</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1668678744241727</v>
+        <v>0.04102018168542434</v>
       </c>
       <c r="L170" t="n">
-        <v>0.2058877745212052</v>
+        <v>0.2178271922880817</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1669147604872858</v>
+        <v>0.10183531742496</v>
       </c>
       <c r="N170" t="n">
-        <v>0.331651902177201</v>
+        <v>0.3474400348380582</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1668134634373501</v>
+        <v>0.1018190492075787</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.05812875461803653</v>
+        <v>0.06455139102002108</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1681437022309209</v>
+        <v>0.04101991315696032</v>
       </c>
       <c r="J171" t="n">
-        <v>0.08248163391717571</v>
+        <v>0.06455139102002108</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1684570922758315</v>
+        <v>0.04101991315696032</v>
       </c>
       <c r="L171" t="n">
-        <v>0.2070143607676049</v>
+        <v>0.2166873602047815</v>
       </c>
       <c r="M171" t="n">
-        <v>0.168504424872879</v>
+        <v>0.102805177590912</v>
       </c>
       <c r="N171" t="n">
-        <v>0.334899880891258</v>
+        <v>0.3480383817475263</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1684021630891344</v>
+        <v>0.102788754438127</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.06057921124654292</v>
+        <v>0.06346570862327196</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1697299635727221</v>
+        <v>0.0410196446284963</v>
       </c>
       <c r="J172" t="n">
-        <v>0.08257347754918888</v>
+        <v>0.06346570862327196</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1700463101274903</v>
+        <v>0.0410196446284963</v>
       </c>
       <c r="L172" t="n">
-        <v>0.2101175612201838</v>
+        <v>0.2163454819929474</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1700940892584722</v>
+        <v>0.103775037756864</v>
       </c>
       <c r="N172" t="n">
-        <v>0.3349106181248178</v>
+        <v>0.3479365986152451</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1699908627409187</v>
+        <v>0.1037584596686754</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.06002372928408173</v>
+        <v>0.0623964736420913</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1713162249145232</v>
+        <v>0.04101937610003228</v>
       </c>
       <c r="J173" t="n">
-        <v>0.08355732172149997</v>
+        <v>0.0623964736420913</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1716355279791491</v>
+        <v>0.04101937610003228</v>
       </c>
       <c r="L173" t="n">
-        <v>0.21100036878202</v>
+        <v>0.2160012640957287</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1716837536440654</v>
+        <v>0.104744897922816</v>
       </c>
       <c r="N173" t="n">
-        <v>0.340788911788801</v>
+        <v>0.3466346595426338</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1715795623927029</v>
+        <v>0.1047281648992238</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.05746320431104818</v>
+        <v>0.06134426557930037</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1729024862563243</v>
+        <v>0.04101910757156827</v>
       </c>
       <c r="J174" t="n">
-        <v>0.08343434459009556</v>
+        <v>0.06134426557930037</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1732247458308079</v>
+        <v>0.04101910757156827</v>
       </c>
       <c r="L174" t="n">
-        <v>0.2126657763561922</v>
+        <v>0.2164544129562753</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1732734180296586</v>
+        <v>0.105714758088768</v>
       </c>
       <c r="N174" t="n">
-        <v>0.3430395597941274</v>
+        <v>0.3475325386311116</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1731682620444872</v>
+        <v>0.1056978701297721</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.06289853190783756</v>
+        <v>0.06030966393762802</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1744887475981255</v>
+        <v>0.04101883904310425</v>
       </c>
       <c r="J175" t="n">
-        <v>0.08430572431096221</v>
+        <v>0.06030966393762802</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1748139636824667</v>
+        <v>0.04101883904310425</v>
       </c>
       <c r="L175" t="n">
-        <v>0.2137167768457786</v>
+        <v>0.2179046350177365</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1748630824152518</v>
+        <v>0.10668461825472</v>
       </c>
       <c r="N175" t="n">
-        <v>0.343767360051717</v>
+        <v>0.3501302099820975</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1747569616962715</v>
+        <v>0.1066675753603205</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.06334519817318177</v>
+        <v>0.059293248219894</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1760750089399266</v>
+        <v>0.04101857051464024</v>
       </c>
       <c r="J176" t="n">
-        <v>0.08508568297462528</v>
+        <v>0.059293248219894</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1764031815341254</v>
+        <v>0.04101857051464024</v>
       </c>
       <c r="L176" t="n">
-        <v>0.2164873766567302</v>
+        <v>0.2171516367232622</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1764527468008451</v>
+        <v>0.107654478420672</v>
       </c>
       <c r="N176" t="n">
-        <v>0.3470343065022675</v>
+        <v>0.3474276476970108</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1763456613480558</v>
+        <v>0.1076372805908689</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.0628159884858111</v>
+        <v>0.05829559792882875</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1776612702817278</v>
+        <v>0.04101830198617622</v>
       </c>
       <c r="J177" t="n">
-        <v>0.08539888317940104</v>
+        <v>0.05829559792882875</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1779923993857842</v>
+        <v>0.04101830198617622</v>
       </c>
       <c r="L177" t="n">
-        <v>0.216842643477006</v>
+        <v>0.217095124516002</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1780424111864382</v>
+        <v>0.108624338586624</v>
       </c>
       <c r="N177" t="n">
-        <v>0.3471360218275391</v>
+        <v>0.3489248258772708</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1779343609998401</v>
+        <v>0.1086069858214172</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.06029574882142545</v>
+        <v>0.05731729256725041</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1792475316235289</v>
+        <v>0.0410180334577122</v>
       </c>
       <c r="J178" t="n">
-        <v>0.0860271373394474</v>
+        <v>0.05731729256725041</v>
       </c>
       <c r="K178" t="n">
-        <v>0.179581617237443</v>
+        <v>0.0410180334577122</v>
       </c>
       <c r="L178" t="n">
-        <v>0.2195373979783292</v>
+        <v>0.2171348048391053</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1796320755720315</v>
+        <v>0.109594198752576</v>
       </c>
       <c r="N178" t="n">
-        <v>0.3520967238627293</v>
+        <v>0.3467217186242963</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1795230606516243</v>
+        <v>0.1095766910519656</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.0647690946883947</v>
+        <v>0.05635891163789106</v>
       </c>
       <c r="G179" t="n">
-        <v>0.18083379296533</v>
+        <v>0.04101776492924818</v>
       </c>
       <c r="J179" t="n">
-        <v>0.08675020681286137</v>
+        <v>0.05635891163789106</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1811708350891018</v>
+        <v>0.04101776492924818</v>
       </c>
       <c r="L179" t="n">
-        <v>0.2211202273644802</v>
+        <v>0.2169703841357219</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1812217399576246</v>
+        <v>0.110564058918528</v>
       </c>
       <c r="N179" t="n">
-        <v>0.3550339929604414</v>
+        <v>0.3478183000395069</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1811117603034086</v>
+        <v>0.110546396282514</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.06122064159508873</v>
+        <v>0.05542103464356711</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1824200543071312</v>
+        <v>0.04101749640078417</v>
       </c>
       <c r="J180" t="n">
-        <v>0.08774785295774003</v>
+        <v>0.05542103464356711</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1827600529407606</v>
+        <v>0.04101749640078417</v>
       </c>
       <c r="L180" t="n">
-        <v>0.2207397188392397</v>
+        <v>0.2165015688490014</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1828114043432179</v>
+        <v>0.11153391908448</v>
       </c>
       <c r="N180" t="n">
-        <v>0.3566654094732792</v>
+        <v>0.3495145442243213</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1827004599551929</v>
+        <v>0.1115161015130623</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.06363500504987749</v>
+        <v>0.05450424108701246</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1840063156489323</v>
+        <v>0.04101722787232015</v>
       </c>
       <c r="J181" t="n">
-        <v>0.08809983713218043</v>
+        <v>0.05450424108701246</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1843492707924194</v>
+        <v>0.04101722787232015</v>
       </c>
       <c r="L181" t="n">
-        <v>0.2242444596063882</v>
+        <v>0.2166280654220934</v>
       </c>
       <c r="M181" t="n">
-        <v>0.184401068728811</v>
+        <v>0.112503779250432</v>
       </c>
       <c r="N181" t="n">
-        <v>0.357808553753846</v>
+        <v>0.347610425280159</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1842891596069772</v>
+        <v>0.1124858067436107</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.06299680056113087</v>
+        <v>0.05360911047104168</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1855925769907335</v>
+        <v>0.04101695934385613</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0880859206942796</v>
+        <v>0.05360911047104168</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1859384886440782</v>
+        <v>0.04101695934385613</v>
       </c>
       <c r="L182" t="n">
-        <v>0.2245830368697062</v>
+        <v>0.2160495802981475</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1859907331144043</v>
+        <v>0.113473639416384</v>
       </c>
       <c r="N182" t="n">
-        <v>0.3601810061547459</v>
+        <v>0.3499059173084388</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1858778592587615</v>
+        <v>0.1134555119741591</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.06629064363721877</v>
+        <v>0.05273622229840927</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1871788383325346</v>
+        <v>0.04101669081539212</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0892858650021346</v>
+        <v>0.05273622229840927</v>
       </c>
       <c r="K183" t="n">
-        <v>0.187527706495737</v>
+        <v>0.04101669081539212</v>
       </c>
       <c r="L183" t="n">
-        <v>0.2247040378329744</v>
+        <v>0.2159658199203133</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1875803974999974</v>
+        <v>0.114443499582336</v>
       </c>
       <c r="N183" t="n">
-        <v>0.363000347028582</v>
+        <v>0.3496009944105803</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1874665589105458</v>
+        <v>0.1144252172047074</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.06450189961704172</v>
+        <v>0.05188615607187166</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1887650996743357</v>
+        <v>0.0410164222869281</v>
       </c>
       <c r="J184" t="n">
-        <v>0.08947943141384247</v>
+        <v>0.05188615607187166</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1891169243473957</v>
+        <v>0.0410164222869281</v>
       </c>
       <c r="L184" t="n">
-        <v>0.2261560496999733</v>
+        <v>0.2161764907317404</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1891700618855906</v>
+        <v>0.115413359748288</v>
       </c>
       <c r="N184" t="n">
-        <v>0.3632841596998198</v>
+        <v>0.3482956306880024</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1890552585623301</v>
+        <v>0.1153949224352558</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.06167569731198665</v>
+        <v>0.05105949129424053</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1903513610161369</v>
+        <v>0.04101615375846408</v>
       </c>
       <c r="J185" t="n">
-        <v>0.08910795324166941</v>
+        <v>0.05105949129424053</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1907061421990545</v>
+        <v>0.04101615375846408</v>
       </c>
       <c r="L185" t="n">
-        <v>0.227436750067687</v>
+        <v>0.2162812991755785</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1907597262711838</v>
+        <v>0.11638321991424</v>
       </c>
       <c r="N185" t="n">
-        <v>0.364414765864008</v>
+        <v>0.3465898002421244</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1906439582141144</v>
+        <v>0.1163646276658042</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.06684582870896459</v>
+        <v>0.0502568074682546</v>
       </c>
       <c r="G186" t="n">
-        <v>0.191937622357938</v>
+        <v>0.04101588523000006</v>
       </c>
       <c r="J186" t="n">
-        <v>0.08923164059270171</v>
+        <v>0.0502568074682546</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1922953600507133</v>
+        <v>0.04101588523000006</v>
       </c>
       <c r="L186" t="n">
-        <v>0.2264049412138192</v>
+        <v>0.2163381283704796</v>
       </c>
       <c r="M186" t="n">
-        <v>0.192349390656777</v>
+        <v>0.117353080080192</v>
       </c>
       <c r="N186" t="n">
-        <v>0.3636257974179887</v>
+        <v>0.3492040300189547</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1922326578658986</v>
+        <v>0.1173343328963525</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.06201223719096455</v>
+        <v>0.04947868409672349</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1935238836997392</v>
+        <v>0.04101561670153605</v>
       </c>
       <c r="J187" t="n">
-        <v>0.08975045028503149</v>
+        <v>0.04947868409672349</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1938845779023721</v>
+        <v>0.04101561670153605</v>
       </c>
       <c r="L187" t="n">
-        <v>0.2270607491312505</v>
+        <v>0.2170979159419585</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1939390550423702</v>
+        <v>0.1183229402461441</v>
       </c>
       <c r="N187" t="n">
-        <v>0.3659169510463063</v>
+        <v>0.3478492347578018</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1938213575176829</v>
+        <v>0.1183040381269009</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.06717486614097558</v>
+        <v>0.04872570068238803</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1951101450415403</v>
+        <v>0.04101534817307203</v>
       </c>
       <c r="J188" t="n">
-        <v>0.08956430783771797</v>
+        <v>0.04872570068238803</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1954737957540309</v>
+        <v>0.04101534817307203</v>
       </c>
       <c r="L188" t="n">
-        <v>0.2286039846139337</v>
+        <v>0.215366522137766</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1955287194279634</v>
+        <v>0.119292800412096</v>
       </c>
       <c r="N188" t="n">
-        <v>0.3679879234335058</v>
+        <v>0.3468354397361744</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1954100571694672</v>
+        <v>0.1192737433574493</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.06433365894198663</v>
+        <v>0.0479984367280557</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1966964063833415</v>
+        <v>0.04101507964460802</v>
       </c>
       <c r="J189" t="n">
-        <v>0.08977313876982025</v>
+        <v>0.0479984367280557</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1970630136056897</v>
+        <v>0.04101507964460802</v>
       </c>
       <c r="L189" t="n">
-        <v>0.2298344584558216</v>
+        <v>0.215849983494362</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1971183838135566</v>
+        <v>0.120262660578048</v>
       </c>
       <c r="N189" t="n">
-        <v>0.369338411264132</v>
+        <v>0.3460728736749197</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1969987568212515</v>
+        <v>0.1202434485879977</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.06948855897698676</v>
+        <v>0.04729510543347269</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1982826677251426</v>
+        <v>0.041014811116144</v>
       </c>
       <c r="J190" t="n">
-        <v>0.09027686860039756</v>
+        <v>0.04729510543347269</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1986522314573485</v>
+        <v>0.041014811116144</v>
       </c>
       <c r="L190" t="n">
-        <v>0.2287519814508674</v>
+        <v>0.2136543365482069</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1987080481991498</v>
+        <v>0.121232520744</v>
       </c>
       <c r="N190" t="n">
-        <v>0.3670681112227298</v>
+        <v>0.3450717652948851</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1985874564730358</v>
+        <v>0.121213153818546</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.06963950962896498</v>
+        <v>0.04660208848346457</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1998689290669437</v>
+        <v>0.04101454258767998</v>
       </c>
       <c r="J191" t="n">
-        <v>0.09097542284850903</v>
+        <v>0.04660208848346457</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2002414493090073</v>
+        <v>0.04101454258767998</v>
       </c>
       <c r="L191" t="n">
-        <v>0.2306563643930238</v>
+        <v>0.2151856178357607</v>
       </c>
       <c r="M191" t="n">
-        <v>0.200297712584743</v>
+        <v>0.1222023809099521</v>
       </c>
       <c r="N191" t="n">
-        <v>0.3686767199938434</v>
+        <v>0.3465423433169181</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2001761561248201</v>
+        <v>0.1221828590490944</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.06478645428091032</v>
+        <v>0.04591759907777929</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2014551904087449</v>
+        <v>0.04101427405921596</v>
       </c>
       <c r="J192" t="n">
-        <v>0.09096872703321375</v>
+        <v>0.04591759907777929</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2018306671606661</v>
+        <v>0.04101427405921596</v>
       </c>
       <c r="L192" t="n">
-        <v>0.2299474180762437</v>
+        <v>0.2146498638934837</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2018873769703362</v>
+        <v>0.123172241075904</v>
       </c>
       <c r="N192" t="n">
-        <v>0.3682639342620184</v>
+        <v>0.3454948364618662</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2017648557766044</v>
+        <v>0.1231525642796428</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.06392933631581178</v>
+        <v>0.04524221671922127</v>
       </c>
       <c r="G193" t="n">
-        <v>0.203041451750546</v>
+        <v>0.04101400553075194</v>
       </c>
       <c r="J193" t="n">
-        <v>0.09095670667357102</v>
+        <v>0.04524221671922127</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2034198850123248</v>
+        <v>0.04101400553075194</v>
       </c>
       <c r="L193" t="n">
-        <v>0.2308249532944799</v>
+        <v>0.212253111257836</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2034770413559294</v>
+        <v>0.124142101241856</v>
       </c>
       <c r="N193" t="n">
-        <v>0.3716294507117993</v>
+        <v>0.3429394734505762</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2033535554283886</v>
+        <v>0.1241222695101911</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.06406809911665839</v>
+        <v>0.04457652091053586</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2046277130923471</v>
+        <v>0.04101373700228792</v>
       </c>
       <c r="J194" t="n">
-        <v>0.09143928728863994</v>
+        <v>0.04457652091053586</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2050091028639836</v>
+        <v>0.04101373700228792</v>
       </c>
       <c r="L194" t="n">
-        <v>0.2318887808416856</v>
+        <v>0.2129013964652778</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2050667057415226</v>
+        <v>0.1251119614078081</v>
       </c>
       <c r="N194" t="n">
-        <v>0.3709729660277307</v>
+        <v>0.3418864830038959</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2049422550801729</v>
+        <v>0.1250919747407395</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.06820268606643916</v>
+        <v>0.04392109115452672</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2062139744341483</v>
+        <v>0.04101346847382391</v>
       </c>
       <c r="J195" t="n">
-        <v>0.09091639439747963</v>
+        <v>0.04392109115452672</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2065983207156424</v>
+        <v>0.04101346847382391</v>
       </c>
       <c r="L195" t="n">
-        <v>0.2318387115118133</v>
+        <v>0.2104007560522692</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2066563701271158</v>
+        <v>0.12608182157376</v>
       </c>
       <c r="N195" t="n">
-        <v>0.3721941768943576</v>
+        <v>0.3422460938426725</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2065309547319572</v>
+        <v>0.1260616799712879</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.06433304054814311</v>
+        <v>0.04327650695393997</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2078002357759494</v>
+        <v>0.04101319994535989</v>
       </c>
       <c r="J196" t="n">
-        <v>0.09148795351914936</v>
+        <v>0.04327650695393997</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2081875385673012</v>
+        <v>0.04101319994535989</v>
       </c>
       <c r="L196" t="n">
-        <v>0.231874556098816</v>
+        <v>0.2107572265552705</v>
       </c>
       <c r="M196" t="n">
-        <v>0.208246034512709</v>
+        <v>0.127051681739712</v>
       </c>
       <c r="N196" t="n">
-        <v>0.3745927799962248</v>
+        <v>0.3386285346877533</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2081196543837415</v>
+        <v>0.1270313852018362</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.07045910594475925</v>
+        <v>0.04264334781157841</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2093864971177506</v>
+        <v>0.04101293141689587</v>
       </c>
       <c r="J197" t="n">
-        <v>0.09155389017270822</v>
+        <v>0.04264334781157841</v>
       </c>
       <c r="K197" t="n">
-        <v>0.20977675641896</v>
+        <v>0.04101293141689587</v>
       </c>
       <c r="L197" t="n">
-        <v>0.2329961253966466</v>
+        <v>0.2106768445107416</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2098356988983022</v>
+        <v>0.1280215419056641</v>
       </c>
       <c r="N197" t="n">
-        <v>0.3746684720178771</v>
+        <v>0.3375440342599857</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2097083540355258</v>
+        <v>0.1280010904323846</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.06658082563927661</v>
+        <v>0.04202219323020254</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2109727584595517</v>
+        <v>0.04101266288843186</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0920141298772154</v>
+        <v>0.04202219323020254</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2113659742706188</v>
+        <v>0.04101266288843186</v>
       </c>
       <c r="L198" t="n">
-        <v>0.2341032301992582</v>
+        <v>0.209665646455143</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2114253632838954</v>
+        <v>0.1289914020716161</v>
       </c>
       <c r="N198" t="n">
-        <v>0.3749209496438591</v>
+        <v>0.3370028212802171</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2112970536873101</v>
+        <v>0.128970795662933</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.06569814301468421</v>
+        <v>0.04141362271257393</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2125590198013528</v>
+        <v>0.04101239435996784</v>
       </c>
       <c r="J199" t="n">
-        <v>0.09176859815172998</v>
+        <v>0.04141362271257393</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2129551921222776</v>
+        <v>0.04101239435996784</v>
       </c>
       <c r="L199" t="n">
-        <v>0.2340956813006033</v>
+        <v>0.2082296689249347</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2130150276694886</v>
+        <v>0.129961262237568</v>
       </c>
       <c r="N199" t="n">
-        <v>0.376149909558716</v>
+        <v>0.3339151244692949</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2128857533390943</v>
+        <v>0.1299405008934814</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.07081100145397105</v>
+        <v>0.04081821576149375</v>
       </c>
       <c r="G200" t="n">
-        <v>0.214145281143154</v>
+        <v>0.04101212583150383</v>
       </c>
       <c r="J200" t="n">
-        <v>0.09211722051531128</v>
+        <v>0.04081821576149375</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2145444099739364</v>
+        <v>0.04101212583150383</v>
       </c>
       <c r="L200" t="n">
-        <v>0.2337732894946351</v>
+        <v>0.2059749484565768</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2146046920550818</v>
+        <v>0.13093112240352</v>
       </c>
       <c r="N200" t="n">
-        <v>0.373955048446992</v>
+        <v>0.3328911725480661</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2144744529908786</v>
+        <v>0.1309102061240297</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.06891934434012616</v>
+        <v>0.04023655187971079</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2157315424849552</v>
+        <v>0.04101185730303981</v>
       </c>
       <c r="J201" t="n">
-        <v>0.09185992248701834</v>
+        <v>0.04023655187971079</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2161336278255951</v>
+        <v>0.04101185730303981</v>
       </c>
       <c r="L201" t="n">
-        <v>0.2341358655753063</v>
+        <v>0.2067075215865296</v>
       </c>
       <c r="M201" t="n">
-        <v>0.216194356440675</v>
+        <v>0.1319009825694721</v>
       </c>
       <c r="N201" t="n">
-        <v>0.3767360629932327</v>
+        <v>0.3306411942373784</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2160631526426629</v>
+        <v>0.1318799113545781</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.06502311505613856</v>
+        <v>0.03966921057002504</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2173178038267563</v>
+        <v>0.04101158877457579</v>
       </c>
       <c r="J202" t="n">
-        <v>0.09259662958591038</v>
+        <v>0.03966921057002504</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2177228456772539</v>
+        <v>0.04101158877457579</v>
       </c>
       <c r="L202" t="n">
-        <v>0.2344832203365699</v>
+        <v>0.2055334248512533</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2177840208262682</v>
+        <v>0.132870842735424</v>
       </c>
       <c r="N202" t="n">
-        <v>0.3752926498819821</v>
+        <v>0.330875418258079</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2176518522944472</v>
+        <v>0.1328496165851265</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.06612225698499725</v>
+        <v>0.03911677133518653</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2189040651685574</v>
+        <v>0.04101132024611177</v>
       </c>
       <c r="J203" t="n">
-        <v>0.09262726733104655</v>
+        <v>0.03911677133518653</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2193120635289127</v>
+        <v>0.04101132024611177</v>
       </c>
       <c r="L203" t="n">
-        <v>0.2360151645723788</v>
+        <v>0.205058694787208</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2193736852118614</v>
+        <v>0.133840702901376</v>
       </c>
       <c r="N203" t="n">
-        <v>0.3760245057977856</v>
+        <v>0.3278040733310154</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2192405519462315</v>
+        <v>0.1338193218156748</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0692167135096913</v>
+        <v>0.03857981367799396</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2204903265103586</v>
+        <v>0.04101105171764776</v>
       </c>
       <c r="J204" t="n">
-        <v>0.09235176124148604</v>
+        <v>0.03857981367799396</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2209012813805715</v>
+        <v>0.04101105171764776</v>
       </c>
       <c r="L204" t="n">
-        <v>0.2356315090766857</v>
+        <v>0.2020893679308537</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2209633495974546</v>
+        <v>0.1348105630673281</v>
       </c>
       <c r="N204" t="n">
-        <v>0.3791313274251874</v>
+        <v>0.3282373881770345</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2208292515980158</v>
+        <v>0.1347890270462232</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.07030642801320965</v>
+        <v>0.03805891710119869</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2220765878521597</v>
+        <v>0.04101078318918374</v>
       </c>
       <c r="J205" t="n">
-        <v>0.09257003683628794</v>
+        <v>0.03805891710119869</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2224904992322303</v>
+        <v>0.04101078318918374</v>
       </c>
       <c r="L205" t="n">
-        <v>0.2343320646434437</v>
+        <v>0.202431480818651</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2225530139830478</v>
+        <v>0.13578042323328</v>
       </c>
       <c r="N205" t="n">
-        <v>0.377312811448733</v>
+        <v>0.3241855915169842</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2224179512498001</v>
+        <v>0.1357587322767715</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.07039134387854137</v>
+        <v>0.03755466110759804</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2236628491939608</v>
+        <v>0.04101051466071972</v>
       </c>
       <c r="J206" t="n">
-        <v>0.09278201963451151</v>
+        <v>0.03755466110759804</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2240797170838891</v>
+        <v>0.04101051466071972</v>
       </c>
       <c r="L206" t="n">
-        <v>0.2356166420666056</v>
+        <v>0.2017910699870595</v>
       </c>
       <c r="M206" t="n">
-        <v>0.224142678368641</v>
+        <v>0.136750283399232</v>
       </c>
       <c r="N206" t="n">
-        <v>0.3792686545529667</v>
+        <v>0.3231589120717118</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2240066509015844</v>
+        <v>0.1367284375073199</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.07147140448867545</v>
+        <v>0.03706762519994482</v>
       </c>
       <c r="G207" t="n">
-        <v>0.225249110535762</v>
+        <v>0.0410102461322557</v>
       </c>
       <c r="J207" t="n">
-        <v>0.09258763515521583</v>
+        <v>0.03706762519994482</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2256689349355479</v>
+        <v>0.0410102461322557</v>
       </c>
       <c r="L207" t="n">
-        <v>0.2369850521401243</v>
+        <v>0.2001741719725399</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2257323427542342</v>
+        <v>0.1377201435651841</v>
       </c>
       <c r="N207" t="n">
-        <v>0.3774985534224334</v>
+        <v>0.3246675785620641</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2255953505533687</v>
+        <v>0.1376981427378683</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.06854655322660094</v>
+        <v>0.03659838888103485</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2268353718775631</v>
+        <v>0.04100997760379169</v>
       </c>
       <c r="J208" t="n">
-        <v>0.09278680891746012</v>
+        <v>0.03659838888103485</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2272581527872067</v>
+        <v>0.04100997760379169</v>
       </c>
       <c r="L208" t="n">
-        <v>0.2353371056579527</v>
+        <v>0.199586823311552</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2273220071398274</v>
+        <v>0.138690003731136</v>
       </c>
       <c r="N208" t="n">
-        <v>0.3778022047416781</v>
+        <v>0.3204218197088889</v>
       </c>
       <c r="O208" t="n">
-        <v>0.227184050205153</v>
+        <v>0.1386678479684166</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.06561673347530683</v>
+        <v>0.03614753165362244</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2284216332193643</v>
+        <v>0.04100970907532767</v>
       </c>
       <c r="J209" t="n">
-        <v>0.09317946644030352</v>
+        <v>0.03614753165362244</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2288473706388655</v>
+        <v>0.04100970907532767</v>
       </c>
       <c r="L209" t="n">
-        <v>0.2361726134140436</v>
+        <v>0.1973350605405562</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2289116715254206</v>
+        <v>0.139659863897088</v>
       </c>
       <c r="N209" t="n">
-        <v>0.3791793051952453</v>
+        <v>0.3208318642330334</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2287727498569372</v>
+        <v>0.139637553198965</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.07068188861778216</v>
+        <v>0.03571563302050189</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2300078945611654</v>
+        <v>0.04100944054686365</v>
       </c>
       <c r="J210" t="n">
-        <v>0.09296553324280522</v>
+        <v>0.03571563302050189</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2304365884905242</v>
+        <v>0.04100944054686365</v>
       </c>
       <c r="L210" t="n">
-        <v>0.23659138620235</v>
+        <v>0.1971249201960125</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2305013359110138</v>
+        <v>0.1406297240630401</v>
       </c>
       <c r="N210" t="n">
-        <v>0.3818295514676803</v>
+        <v>0.3187079408553452</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2303614495087215</v>
+        <v>0.1406072584295134</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.06774196203701591</v>
+        <v>0.0353032724844291</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2315941559029665</v>
+        <v>0.04100917201839963</v>
       </c>
       <c r="J211" t="n">
-        <v>0.09364493484402435</v>
+        <v>0.0353032724844291</v>
       </c>
       <c r="K211" t="n">
-        <v>0.232025806342183</v>
+        <v>0.04100917201839963</v>
       </c>
       <c r="L211" t="n">
-        <v>0.2367932348168247</v>
+        <v>0.1972624388143812</v>
       </c>
       <c r="M211" t="n">
-        <v>0.232091000296607</v>
+        <v>0.141599584228992</v>
       </c>
       <c r="N211" t="n">
-        <v>0.3788526402435271</v>
+        <v>0.3173602782966712</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2319501491605058</v>
+        <v>0.1415769636600618</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.06979689711599714</v>
+        <v>0.03491102954819672</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2331804172447677</v>
+        <v>0.04100890348993562</v>
       </c>
       <c r="J212" t="n">
-        <v>0.09341759676302007</v>
+        <v>0.03491102954819672</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2336150241938418</v>
+        <v>0.04100890348993562</v>
       </c>
       <c r="L212" t="n">
-        <v>0.2360779700514206</v>
+        <v>0.1970536529321223</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2336806646822002</v>
+        <v>0.142569444394944</v>
       </c>
       <c r="N212" t="n">
-        <v>0.3808482682073313</v>
+        <v>0.318099105277859</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2335388488122901</v>
+        <v>0.1425466688906101</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.07084663723771485</v>
+        <v>0.03453948371456235</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2347666785865688</v>
+        <v>0.0410086349614716</v>
       </c>
       <c r="J213" t="n">
-        <v>0.09368344451885162</v>
+        <v>0.03453948371456235</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2352042420455006</v>
+        <v>0.0410086349614716</v>
       </c>
       <c r="L213" t="n">
-        <v>0.2363454027000906</v>
+        <v>0.1955045990856963</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2352703290677934</v>
+        <v>0.1435393045608961</v>
       </c>
       <c r="N213" t="n">
-        <v>0.3830161320436373</v>
+        <v>0.3171346505197562</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2351275484640744</v>
+        <v>0.1435163741211585</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.07189112578515805</v>
+        <v>0.03418921448631686</v>
       </c>
       <c r="G214" t="n">
-        <v>0.23635293992837</v>
+        <v>0.04100836643300759</v>
       </c>
       <c r="J214" t="n">
-        <v>0.09364240363057806</v>
+        <v>0.03418921448631686</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2367934598971594</v>
+        <v>0.04100836643300759</v>
       </c>
       <c r="L214" t="n">
-        <v>0.2383953435567875</v>
+        <v>0.1957213138115629</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2368599934533866</v>
+        <v>0.144509164726848</v>
       </c>
       <c r="N214" t="n">
-        <v>0.3799559284369898</v>
+        <v>0.3142771427432095</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2367162481158587</v>
+        <v>0.1444860793517069</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.06793030614131576</v>
+        <v>0.03418921448631686</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2379392012701711</v>
+        <v>0.04100836643300759</v>
       </c>
       <c r="J215" t="n">
-        <v>0.09349439961725863</v>
+        <v>0.03418921448631686</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2383826777488182</v>
+        <v>0.04100836643300759</v>
       </c>
       <c r="L215" t="n">
-        <v>0.2380276034154644</v>
+        <v>0.1951098336461827</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2384496578389798</v>
+        <v>0.1454790248928</v>
       </c>
       <c r="N215" t="n">
-        <v>0.3824673540719338</v>
+        <v>0.3121368106690668</v>
       </c>
       <c r="O215" t="n">
-        <v>0.238304947767643</v>
+        <v>0.1454557845822552</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.07096412168917701</v>
+        <v>0.03331392797462886</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2395254626119723</v>
+        <v>0.04100513689524327</v>
       </c>
       <c r="J216" t="n">
-        <v>0.09353935799795247</v>
+        <v>0.03331392797462886</v>
       </c>
       <c r="K216" t="n">
-        <v>0.239971895600477</v>
+        <v>0.04100513689524327</v>
       </c>
       <c r="L216" t="n">
-        <v>0.2368419930700742</v>
+        <v>0.1950761951260157</v>
       </c>
       <c r="M216" t="n">
-        <v>0.240039322224573</v>
+        <v>0.1464488850587521</v>
       </c>
       <c r="N216" t="n">
-        <v>0.383650105633014</v>
+        <v>0.3137238830181754</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2398936474194272</v>
+        <v>0.1464254898128036</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.06799251581173082</v>
+        <v>0.03244780985509445</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2411117239537734</v>
+        <v>0.04100190735747897</v>
       </c>
       <c r="J217" t="n">
-        <v>0.09387720429171874</v>
+        <v>0.03244780985509445</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2415611134521357</v>
+        <v>0.04100190735747897</v>
       </c>
       <c r="L217" t="n">
-        <v>0.2382383233145694</v>
+        <v>0.1938264347875219</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2416289866101662</v>
+        <v>0.1474187452247041</v>
       </c>
       <c r="N217" t="n">
-        <v>0.3826038798047754</v>
+        <v>0.3104485885113824</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2414823470712115</v>
+        <v>0.147395195043352</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.07001543189196618</v>
+        <v>0.03159119862233041</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2426979852955745</v>
+        <v>0.04099867781971466</v>
       </c>
       <c r="J218" t="n">
-        <v>0.09330786401761655</v>
+        <v>0.03159119862233041</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2431503313037945</v>
+        <v>0.04099867781971466</v>
       </c>
       <c r="L218" t="n">
-        <v>0.2378164049429032</v>
+        <v>0.1935665891671617</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2432186509957594</v>
+        <v>0.1483886053906561</v>
       </c>
       <c r="N218" t="n">
-        <v>0.3818283732717627</v>
+        <v>0.3116211558695351</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2430710467229958</v>
+        <v>0.1483649002739003</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.06603281331287213</v>
+        <v>0.0307444327709597</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2442842466373757</v>
+        <v>0.04099544828195036</v>
       </c>
       <c r="J219" t="n">
-        <v>0.09413126269470516</v>
+        <v>0.0307444327709597</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2447395491554533</v>
+        <v>0.04099544828195036</v>
       </c>
       <c r="L219" t="n">
-        <v>0.2380760487490285</v>
+        <v>0.1940026948013953</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2448083153813526</v>
+        <v>0.149358465556608</v>
       </c>
       <c r="N219" t="n">
-        <v>0.3815232827185204</v>
+        <v>0.3126518138134812</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2446597463747801</v>
+        <v>0.1493346055044487</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0710446034574377</v>
+        <v>0.02990785079559917</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2458705079791768</v>
+        <v>0.04099221874418605</v>
       </c>
       <c r="J220" t="n">
-        <v>0.09354732584204369</v>
+        <v>0.02990785079559917</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2463287670071121</v>
+        <v>0.04099221874418605</v>
       </c>
       <c r="L220" t="n">
-        <v>0.237717065526898</v>
+        <v>0.1942407882266826</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2463979797669458</v>
+        <v>0.1503283257225601</v>
       </c>
       <c r="N220" t="n">
-        <v>0.3803883048295937</v>
+        <v>0.3133507910640678</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2462484460265644</v>
+        <v>0.1503043107349971</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.06605074570865185</v>
+        <v>0.02908179119087027</v>
       </c>
       <c r="G221" t="n">
-        <v>0.247456769320978</v>
+        <v>0.04098898920642174</v>
       </c>
       <c r="J221" t="n">
-        <v>0.09425597897869135</v>
+        <v>0.02908179119087027</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2479179848587709</v>
+        <v>0.04098898920642174</v>
       </c>
       <c r="L221" t="n">
-        <v>0.2372392660704647</v>
+        <v>0.1929404342416323</v>
       </c>
       <c r="M221" t="n">
-        <v>0.247987644152539</v>
+        <v>0.1512981858885121</v>
       </c>
       <c r="N221" t="n">
-        <v>0.3824231362895273</v>
+        <v>0.3102502918118825</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2478371456783487</v>
+        <v>0.1512740159655455</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.06703565874436102</v>
+        <v>0.02826659245139433</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2490430306627791</v>
+        <v>0.04098575966865744</v>
       </c>
       <c r="J222" t="n">
-        <v>0.09394361992375234</v>
+        <v>0.02826659245139433</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2495072027104297</v>
+        <v>0.04098575966865744</v>
       </c>
       <c r="L222" t="n">
-        <v>0.2389104256292429</v>
+        <v>0.1919405327470426</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2495773085381322</v>
+        <v>0.152268046054464</v>
       </c>
       <c r="N222" t="n">
-        <v>0.3829678839602678</v>
+        <v>0.3124503469575829</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2494258453301329</v>
+        <v>0.1522437211960938</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.06987629783198761</v>
+        <v>0.02746259307178828</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2506292920045802</v>
+        <v>0.04098253013089313</v>
       </c>
       <c r="J223" t="n">
-        <v>0.09335158204965154</v>
+        <v>0.02746259307178828</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2510964205620885</v>
+        <v>0.04098253013089313</v>
       </c>
       <c r="L223" t="n">
-        <v>0.2380293429249485</v>
+        <v>0.1922408117304059</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2511669729237254</v>
+        <v>0.1532379062204161</v>
       </c>
       <c r="N223" t="n">
-        <v>0.3822732620313429</v>
+        <v>0.3096505025517959</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2510145449819172</v>
+        <v>0.1532134264266422</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.07056050648560626</v>
+        <v>0.02667013154667351</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2522155533463814</v>
+        <v>0.04097930059312882</v>
       </c>
       <c r="J224" t="n">
-        <v>0.09345236827395446</v>
+        <v>0.02667013154667351</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2526856384137472</v>
+        <v>0.04097930059312882</v>
       </c>
       <c r="L224" t="n">
-        <v>0.237321433929794</v>
+        <v>0.1940413652987159</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2527566373093186</v>
+        <v>0.154207766386368</v>
       </c>
       <c r="N224" t="n">
-        <v>0.3792359283250475</v>
+        <v>0.3119508107806551</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2526032446337015</v>
+        <v>0.1541831316571906</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.06610593468372808</v>
+        <v>0.02588954637067135</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2538018146881825</v>
+        <v>0.04097607105536451</v>
       </c>
       <c r="J225" t="n">
-        <v>0.09276919753708963</v>
+        <v>0.02588954637067135</v>
       </c>
       <c r="K225" t="n">
-        <v>0.254274856265406</v>
+        <v>0.04097607105536451</v>
       </c>
       <c r="L225" t="n">
-        <v>0.2351456823768979</v>
+        <v>0.193842287558966</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2543463016949118</v>
+        <v>0.15517762655232</v>
       </c>
       <c r="N225" t="n">
-        <v>0.3764504394273522</v>
+        <v>0.3099513238302931</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2541919442854858</v>
+        <v>0.1551528368877389</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0705302324048642</v>
+        <v>0.02512117603839882</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2553880760299836</v>
+        <v>0.04097284151760021</v>
       </c>
       <c r="J226" t="n">
-        <v>0.09182528877948536</v>
+        <v>0.02512117603839882</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2558640741170648</v>
+        <v>0.04097284151760021</v>
       </c>
       <c r="L226" t="n">
-        <v>0.2342610719993781</v>
+        <v>0.1940436726181503</v>
       </c>
       <c r="M226" t="n">
-        <v>0.255935966080505</v>
+        <v>0.1561474867182721</v>
       </c>
       <c r="N226" t="n">
-        <v>0.3762113519242281</v>
+        <v>0.3124520938868435</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2557806439372701</v>
+        <v>0.1561225421182873</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.06585104962752564</v>
+        <v>0.02436535904447859</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2569743373717848</v>
+        <v>0.0409696119798359</v>
       </c>
       <c r="J227" t="n">
-        <v>0.09054386094157015</v>
+        <v>0.02436535904447859</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2574532919687236</v>
+        <v>0.0409696119798359</v>
       </c>
       <c r="L227" t="n">
-        <v>0.2316265865303528</v>
+        <v>0.192345614583262</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2575256304660982</v>
+        <v>0.157117346884224</v>
       </c>
       <c r="N227" t="n">
-        <v>0.3718132224016458</v>
+        <v>0.3130531731364394</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2573693435890544</v>
+        <v>0.1570922473488356</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.06508603633022356</v>
+        <v>0.02362243388352786</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2585605987135859</v>
+        <v>0.0409663824420716</v>
       </c>
       <c r="J228" t="n">
-        <v>0.08994813296377245</v>
+        <v>0.02362243388352786</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2590425098203824</v>
+        <v>0.0409663824420716</v>
       </c>
       <c r="L228" t="n">
-        <v>0.2279012097029403</v>
+        <v>0.1933482075612951</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2591152948516914</v>
+        <v>0.1580872070501761</v>
       </c>
       <c r="N228" t="n">
-        <v>0.3651506074455763</v>
+        <v>0.309554613765214</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2589580432408387</v>
+        <v>0.158061952579384</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.06525284249146898</v>
+        <v>0.02289273905016788</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2601468600553871</v>
+        <v>0.04096315290430728</v>
       </c>
       <c r="J229" t="n">
-        <v>0.08866132378652065</v>
+        <v>0.02289273905016788</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2606317276720412</v>
+        <v>0.04096315290430728</v>
       </c>
       <c r="L229" t="n">
-        <v>0.2244439252502587</v>
+        <v>0.192951545659243</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2607049592372846</v>
+        <v>0.1590570672161281</v>
       </c>
       <c r="N229" t="n">
-        <v>0.3641180636419903</v>
+        <v>0.3132564679593006</v>
       </c>
       <c r="O229" t="n">
-        <v>0.260546742892623</v>
+        <v>0.1590316578099324</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.06236911808977307</v>
+        <v>0.0221766130390198</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2617331213971882</v>
+        <v>0.04095992336654299</v>
       </c>
       <c r="J230" t="n">
-        <v>0.08750665235024317</v>
+        <v>0.0221766130390198</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2622209455237</v>
+        <v>0.04095992336654299</v>
       </c>
       <c r="L230" t="n">
-        <v>0.2225137169054261</v>
+        <v>0.1942557229840995</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2622946236228778</v>
+        <v>0.16002692738208</v>
       </c>
       <c r="N230" t="n">
-        <v>0.3564101475768586</v>
+        <v>0.3114587879048322</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2621354425444073</v>
+        <v>0.1600013630404807</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.06645251310364687</v>
+        <v>0.02147439434470093</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2633193827389894</v>
+        <v>0.04095669382877867</v>
       </c>
       <c r="J231" t="n">
-        <v>0.08620733759536849</v>
+        <v>0.02147439434470093</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2638101633753587</v>
+        <v>0.04095669382877867</v>
       </c>
       <c r="L231" t="n">
-        <v>0.2198695684015607</v>
+        <v>0.1921608336428581</v>
       </c>
       <c r="M231" t="n">
-        <v>0.263884288008471</v>
+        <v>0.1609967875480321</v>
       </c>
       <c r="N231" t="n">
-        <v>0.3537214158361525</v>
+        <v>0.3096616257879421</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2637241421961915</v>
+        <v>0.1609710682710291</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.05952067751160151</v>
+        <v>0.02078642146183375</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2649056440807905</v>
+        <v>0.04095346429101437</v>
       </c>
       <c r="J232" t="n">
-        <v>0.08528659846232496</v>
+        <v>0.02078642146183375</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2653993812270176</v>
+        <v>0.04095346429101437</v>
       </c>
       <c r="L232" t="n">
-        <v>0.2174704634717808</v>
+        <v>0.1924669717425125</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2654739523940642</v>
+        <v>0.1619666477139841</v>
       </c>
       <c r="N232" t="n">
-        <v>0.347046425005842</v>
+        <v>0.3116650337947636</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2653128418479758</v>
+        <v>0.1619407735015775</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.06259126129214804</v>
+        <v>0.0201130328850356</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2664919054225917</v>
+        <v>0.04095023475325006</v>
       </c>
       <c r="J233" t="n">
-        <v>0.08436765389154109</v>
+        <v>0.0201130328850356</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2669885990786763</v>
+        <v>0.04095023475325006</v>
       </c>
       <c r="L233" t="n">
-        <v>0.2130753858492044</v>
+        <v>0.1935742313900565</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2670636167796574</v>
+        <v>0.162936507879936</v>
       </c>
       <c r="N233" t="n">
-        <v>0.3427797316718989</v>
+        <v>0.31086906411143</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2669015414997601</v>
+        <v>0.1629104787321259</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.06268191442379759</v>
+        <v>0.01945456710892768</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2680781667643928</v>
+        <v>0.04094700521548576</v>
       </c>
       <c r="J234" t="n">
-        <v>0.08327372282344529</v>
+        <v>0.01945456710892768</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2685778169303351</v>
+        <v>0.04094700521548576</v>
       </c>
       <c r="L234" t="n">
-        <v>0.2115433192669497</v>
+        <v>0.1929827066924835</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2686532811652506</v>
+        <v>0.1639063680458881</v>
       </c>
       <c r="N234" t="n">
-        <v>0.3369158924202932</v>
+        <v>0.3123737689240741</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2684902411515444</v>
+        <v>0.1638801839626742</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.05581028688506123</v>
+        <v>0.018811362628131</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2696644281061939</v>
+        <v>0.04094377567772145</v>
       </c>
       <c r="J235" t="n">
-        <v>0.08132802419846592</v>
+        <v>0.018811362628131</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2701670347819939</v>
+        <v>0.04094377567772145</v>
       </c>
       <c r="L235" t="n">
-        <v>0.208133247458135</v>
+        <v>0.1921924917567873</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2702429455508438</v>
+        <v>0.1648762282118401</v>
       </c>
       <c r="N235" t="n">
-        <v>0.3350494638369962</v>
+        <v>0.3130792004188294</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2700789408033287</v>
+        <v>0.1648498891932226</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.05599402865445008</v>
+        <v>0.01818375793726312</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2712506894479951</v>
+        <v>0.04094054613995714</v>
       </c>
       <c r="J236" t="n">
-        <v>0.08075377695703152</v>
+        <v>0.01818375793726312</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2717562526336527</v>
+        <v>0.04094054613995714</v>
       </c>
       <c r="L236" t="n">
-        <v>0.2057041541558783</v>
+        <v>0.1935036806899614</v>
       </c>
       <c r="M236" t="n">
-        <v>0.271832609936437</v>
+        <v>0.1658460883777921</v>
       </c>
       <c r="N236" t="n">
-        <v>0.3294750025079786</v>
+        <v>0.3124854107818291</v>
       </c>
       <c r="O236" t="n">
-        <v>0.271667640455113</v>
+        <v>0.1658195944237709</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.05624556796618606</v>
+        <v>0.01757209153094624</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2728369507897963</v>
+        <v>0.04093731660219284</v>
       </c>
       <c r="J237" t="n">
-        <v>0.08006924792902249</v>
+        <v>0.01757209153094624</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2733454704853115</v>
+        <v>0.04093731660219284</v>
       </c>
       <c r="L237" t="n">
-        <v>0.203503106257134</v>
+        <v>0.1923163675989997</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2734222743220302</v>
+        <v>0.1668159485437441</v>
       </c>
       <c r="N237" t="n">
-        <v>0.3251656264412074</v>
+        <v>0.3126924521992063</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2732563401068973</v>
+        <v>0.1667892996543193</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.05751250493393441</v>
+        <v>0.01697670190379801</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2744232121315974</v>
+        <v>0.04093408706442853</v>
       </c>
       <c r="J238" t="n">
-        <v>0.07880864514843917</v>
+        <v>0.01697670190379801</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2749346883369703</v>
+        <v>0.04093408706442853</v>
       </c>
       <c r="L238" t="n">
-        <v>0.199164296883215</v>
+        <v>0.1942306465908956</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2750119387076234</v>
+        <v>0.1677858087096961</v>
       </c>
       <c r="N238" t="n">
-        <v>0.3198510009821507</v>
+        <v>0.3126003768570943</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2748450397586815</v>
+        <v>0.1677590048848677</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.0567767439479016</v>
+        <v>0.01639792755043944</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2760094734733985</v>
+        <v>0.04093085752666422</v>
       </c>
       <c r="J239" t="n">
-        <v>0.07824450241290788</v>
+        <v>0.01639792755043944</v>
       </c>
       <c r="K239" t="n">
-        <v>0.276523906188629</v>
+        <v>0.04093085752666422</v>
       </c>
       <c r="L239" t="n">
-        <v>0.1963164984078598</v>
+        <v>0.1928466117726428</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2766016030932166</v>
+        <v>0.1687556688756481</v>
       </c>
       <c r="N239" t="n">
-        <v>0.3157219528432275</v>
+        <v>0.3096092369416262</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2764337394104658</v>
+        <v>0.1687287101154161</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.05903824319463399</v>
+        <v>0.01583472477912687</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2775957348151996</v>
+        <v>0.04092762798889991</v>
       </c>
       <c r="J240" t="n">
-        <v>0.07687676471589767</v>
+        <v>0.01583472477912687</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2781131240402878</v>
+        <v>0.04092762798889991</v>
       </c>
       <c r="L240" t="n">
-        <v>0.1958595710964174</v>
+        <v>0.194264357251235</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2781912674788098</v>
+        <v>0.1697255290416001</v>
       </c>
       <c r="N240" t="n">
-        <v>0.3139782580163795</v>
+        <v>0.3113190846389354</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2780224390622501</v>
+        <v>0.1696984153459644</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.05729696086067797</v>
+        <v>0.01527913896629081</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2791819961570008</v>
+        <v>0.04092439845113561</v>
       </c>
       <c r="J241" t="n">
-        <v>0.07550537705087774</v>
+        <v>0.01527913896629081</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2797023418919466</v>
+        <v>0.04092439845113561</v>
       </c>
       <c r="L241" t="n">
-        <v>0.1919933752142368</v>
+        <v>0.1935839771336658</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2797809318644029</v>
+        <v>0.1706953892075521</v>
       </c>
       <c r="N241" t="n">
-        <v>0.3079196924935476</v>
+        <v>0.311029972135155</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2796111387140344</v>
+        <v>0.1706681205765128</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.05755285513257995</v>
+        <v>0.01473012642018762</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2807682574988019</v>
+        <v>0.0409211689133713</v>
       </c>
       <c r="J242" t="n">
-        <v>0.07453028441131705</v>
+        <v>0.01473012642018762</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2812915597436054</v>
+        <v>0.0409211689133713</v>
       </c>
       <c r="L242" t="n">
-        <v>0.1900177710266666</v>
+        <v>0.192205565526929</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2813705962499961</v>
+        <v>0.1716652493735041</v>
       </c>
       <c r="N242" t="n">
-        <v>0.3049460322666734</v>
+        <v>0.3111419516164181</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2811998383658187</v>
+        <v>0.1716378258070612</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.05180588419688628</v>
+        <v>0.01418802563543815</v>
       </c>
       <c r="G243" t="n">
-        <v>0.282354518840603</v>
+        <v>0.040917939375607</v>
       </c>
       <c r="J243" t="n">
-        <v>0.07415143179068473</v>
+        <v>0.01418802563543815</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2828807775952642</v>
+        <v>0.040917939375607</v>
       </c>
       <c r="L243" t="n">
-        <v>0.1878326187990558</v>
+        <v>0.193529216538018</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2829602606355893</v>
+        <v>0.172635109539456</v>
       </c>
       <c r="N243" t="n">
-        <v>0.3007570533276982</v>
+        <v>0.3098550752688579</v>
       </c>
       <c r="O243" t="n">
-        <v>0.282788538017603</v>
+        <v>0.1726075310376095</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.05405600624014337</v>
+        <v>0.01365317510666036</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2839407801824042</v>
+        <v>0.04091470983784268</v>
       </c>
       <c r="J244" t="n">
-        <v>0.07246876418244989</v>
+        <v>0.01365317510666036</v>
       </c>
       <c r="K244" t="n">
-        <v>0.284469995446923</v>
+        <v>0.04091470983784268</v>
       </c>
       <c r="L244" t="n">
-        <v>0.1842377787967536</v>
+        <v>0.1926550242739265</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2845499250211825</v>
+        <v>0.1736049697054081</v>
       </c>
       <c r="N244" t="n">
-        <v>0.2985525316685633</v>
+        <v>0.3102693952786079</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2843772376693872</v>
+        <v>0.1735772362681579</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.05130317944889756</v>
+        <v>0.01312591332847607</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2855270415242053</v>
+        <v>0.04091148030007839</v>
       </c>
       <c r="J245" t="n">
-        <v>0.07188222658008155</v>
+        <v>0.01312591332847607</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2860592132985818</v>
+        <v>0.04091148030007839</v>
       </c>
       <c r="L245" t="n">
-        <v>0.1826331112851087</v>
+        <v>0.1923830828416483</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2861395894067758</v>
+        <v>0.1745748298713601</v>
       </c>
       <c r="N245" t="n">
-        <v>0.2917322432812102</v>
+        <v>0.3122849638318009</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2859659373211715</v>
+        <v>0.1745469414987063</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.05454736200969533</v>
+        <v>0.01260657879550323</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2871133028660065</v>
+        <v>0.04090825076231407</v>
       </c>
       <c r="J246" t="n">
-        <v>0.07129176397704887</v>
+        <v>0.01260657879550323</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2876484311502406</v>
+        <v>0.04090825076231407</v>
       </c>
       <c r="L246" t="n">
-        <v>0.1790184765294699</v>
+        <v>0.1940134863481769</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2877292537923689</v>
+        <v>0.175544690037312</v>
       </c>
       <c r="N246" t="n">
-        <v>0.2891959641575802</v>
+        <v>0.3123018331145704</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2875546369729558</v>
+        <v>0.1755166467292547</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.05378851210908298</v>
+        <v>0.01209551000236272</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2886995642078076</v>
+        <v>0.04090502122454977</v>
       </c>
       <c r="J247" t="n">
-        <v>0.06979732136682093</v>
+        <v>0.01209551000236272</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2892376490018994</v>
+        <v>0.04090502122454977</v>
       </c>
       <c r="L247" t="n">
-        <v>0.1763937347951865</v>
+        <v>0.1935463289005059</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2893189181779621</v>
+        <v>0.1765145502032641</v>
       </c>
       <c r="N247" t="n">
-        <v>0.2843434702896144</v>
+        <v>0.3127200553130495</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2891433366247401</v>
+        <v>0.176486351959803</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.04702658793360691</v>
+        <v>0.01159304544367535</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2902858255496087</v>
+        <v>0.04090179168678546</v>
       </c>
       <c r="J248" t="n">
-        <v>0.06889884374286678</v>
+        <v>0.01159304544367535</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2908268668535582</v>
+        <v>0.04090179168678546</v>
       </c>
       <c r="L248" t="n">
-        <v>0.1742587463476071</v>
+        <v>0.1940817046056292</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2909085825635553</v>
+        <v>0.1774844103692161</v>
       </c>
       <c r="N248" t="n">
-        <v>0.2828745376692545</v>
+        <v>0.3115396826133714</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2907320362765244</v>
+        <v>0.1774560571903514</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.05026154766981349</v>
+        <v>0.01109952361405916</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2918720868914099</v>
+        <v>0.04089856214902116</v>
       </c>
       <c r="J249" t="n">
-        <v>0.06839627609865553</v>
+        <v>0.01109952361405916</v>
       </c>
       <c r="K249" t="n">
-        <v>0.292416084705217</v>
+        <v>0.04089856214902116</v>
       </c>
       <c r="L249" t="n">
-        <v>0.1736133714520808</v>
+        <v>0.1946197075705401</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2924982469491486</v>
+        <v>0.178454270535168</v>
       </c>
       <c r="N249" t="n">
-        <v>0.2779889422884416</v>
+        <v>0.3112607672016693</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2923207359283087</v>
+        <v>0.1784257624208997</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.04749334950424916</v>
+        <v>0.01061528300813586</v>
       </c>
       <c r="G250" t="n">
-        <v>0.293458348233211</v>
+        <v>0.04089533261125685</v>
       </c>
       <c r="J250" t="n">
-        <v>0.06658956342765626</v>
+        <v>0.01061528300813586</v>
       </c>
       <c r="K250" t="n">
-        <v>0.2940053025568757</v>
+        <v>0.04089533261125685</v>
       </c>
       <c r="L250" t="n">
-        <v>0.1706574703739563</v>
+        <v>0.1945604319022326</v>
       </c>
       <c r="M250" t="n">
-        <v>0.2940879113347417</v>
+        <v>0.1794241307011201</v>
       </c>
       <c r="N250" t="n">
-        <v>0.2731864601391172</v>
+        <v>0.3118833612640763</v>
       </c>
       <c r="O250" t="n">
-        <v>0.293909435580093</v>
+        <v>0.1793954676514481</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.05072195162346027</v>
+        <v>0.01014066212052354</v>
       </c>
       <c r="G251" t="n">
-        <v>0.2950446095750122</v>
+        <v>0.04089210307349254</v>
       </c>
       <c r="J251" t="n">
-        <v>0.06587865072333804</v>
+        <v>0.01014066212052354</v>
       </c>
       <c r="K251" t="n">
-        <v>0.2955945204085346</v>
+        <v>0.04089210307349254</v>
       </c>
       <c r="L251" t="n">
-        <v>0.1662909033785828</v>
+        <v>0.1938039717077</v>
       </c>
       <c r="M251" t="n">
-        <v>0.2956775757203349</v>
+        <v>0.1803939908670721</v>
       </c>
       <c r="N251" t="n">
-        <v>0.2694668672132225</v>
+        <v>0.3130075169867259</v>
       </c>
       <c r="O251" t="n">
-        <v>0.2954981352318773</v>
+        <v>0.1803651728819965</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.04294731221399321</v>
+        <v>0.009675999445843027</v>
       </c>
       <c r="G252" t="n">
-        <v>0.2966308709168133</v>
+        <v>0.04088887353572823</v>
       </c>
       <c r="J252" t="n">
-        <v>0.06516348297916998</v>
+        <v>0.009675999445843027</v>
       </c>
       <c r="K252" t="n">
-        <v>0.2971837382601933</v>
+        <v>0.04088887353572823</v>
       </c>
       <c r="L252" t="n">
-        <v>0.165213530731309</v>
+        <v>0.1927504210939362</v>
       </c>
       <c r="M252" t="n">
-        <v>0.2972672401059281</v>
+        <v>0.181363851033024</v>
       </c>
       <c r="N252" t="n">
-        <v>0.2660299395026994</v>
+        <v>0.3107332865557512</v>
       </c>
       <c r="O252" t="n">
-        <v>0.2970868348836615</v>
+        <v>0.1813348781125449</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.04216938946239435</v>
+        <v>0.009221633478715012</v>
       </c>
       <c r="G253" t="n">
-        <v>0.2982171322586145</v>
+        <v>0.04088564399796393</v>
       </c>
       <c r="J253" t="n">
-        <v>0.06434400518862113</v>
+        <v>0.009221633478715012</v>
       </c>
       <c r="K253" t="n">
-        <v>0.2987729561118521</v>
+        <v>0.04088564399796393</v>
       </c>
       <c r="L253" t="n">
-        <v>0.1620252126974839</v>
+        <v>0.1934998741679347</v>
       </c>
       <c r="M253" t="n">
-        <v>0.2988569044915213</v>
+        <v>0.1823337111989761</v>
       </c>
       <c r="N253" t="n">
-        <v>0.2615754529994881</v>
+        <v>0.3115607221572853</v>
       </c>
       <c r="O253" t="n">
-        <v>0.2986755345354458</v>
+        <v>0.1823045833430932</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.04738814155521011</v>
+        <v>0.008777902713757731</v>
       </c>
       <c r="G254" t="n">
-        <v>0.2998033936004156</v>
+        <v>0.04088241446019962</v>
       </c>
       <c r="J254" t="n">
-        <v>0.06312016234516062</v>
+        <v>0.008777902713757731</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3003621739635109</v>
+        <v>0.04088241446019962</v>
       </c>
       <c r="L254" t="n">
-        <v>0.1599258095424564</v>
+        <v>0.1932524250366893</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3004465688771145</v>
+        <v>0.1833035713649281</v>
       </c>
       <c r="N254" t="n">
-        <v>0.256303183695531</v>
+        <v>0.3119898759774613</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3002642341872301</v>
+        <v>0.1832742885736416</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.04360352667898684</v>
+        <v>0.008345145645592689</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3013896549422168</v>
+        <v>0.04087918492243531</v>
       </c>
       <c r="J255" t="n">
-        <v>0.0621918994422575</v>
+        <v>0.008345145645592689</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3019513918151697</v>
+        <v>0.04087918492243531</v>
       </c>
       <c r="L255" t="n">
-        <v>0.1564151815315756</v>
+        <v>0.1945081678071934</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3020362332627077</v>
+        <v>0.1842734315308801</v>
       </c>
       <c r="N255" t="n">
-        <v>0.2539129075827691</v>
+        <v>0.3107208002024127</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3018529338390144</v>
+        <v>0.18424399380419</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.04681550302027093</v>
+        <v>0.007923700768838214</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3029759162840179</v>
+        <v>0.04087595538467101</v>
       </c>
       <c r="J256" t="n">
-        <v>0.06065916147338089</v>
+        <v>0.007923700768838214</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3035406096668285</v>
+        <v>0.04087595538467101</v>
       </c>
       <c r="L256" t="n">
-        <v>0.1543931889301902</v>
+        <v>0.1948671965864409</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3036258976483009</v>
+        <v>0.1852432916968321</v>
       </c>
       <c r="N256" t="n">
-        <v>0.2459044006531435</v>
+        <v>0.3126535470182724</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3034416334907987</v>
+        <v>0.1852136990347383</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.04402402876560878</v>
+        <v>0.00751390657811498</v>
       </c>
       <c r="G257" t="n">
-        <v>0.304562177625819</v>
+        <v>0.0408727258469067</v>
       </c>
       <c r="J257" t="n">
-        <v>0.05962189343199985</v>
+        <v>0.00751390657811498</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3051298275184873</v>
+        <v>0.0408727258469067</v>
       </c>
       <c r="L257" t="n">
-        <v>0.1517596920036491</v>
+        <v>0.1927296054814253</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3052155620338941</v>
+        <v>0.1862131518627841</v>
       </c>
       <c r="N257" t="n">
-        <v>0.2421774388985959</v>
+        <v>0.3101881686111738</v>
       </c>
       <c r="O257" t="n">
-        <v>0.305030333142583</v>
+        <v>0.1861834042652867</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.04122906210154673</v>
+        <v>0.007116101568043605</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3061484389676202</v>
+        <v>0.0408694963091424</v>
       </c>
       <c r="J258" t="n">
-        <v>0.05888004031158349</v>
+        <v>0.007116101568043605</v>
       </c>
       <c r="K258" t="n">
-        <v>0.306719045370146</v>
+        <v>0.0408694963091424</v>
       </c>
       <c r="L258" t="n">
-        <v>0.1496145510173015</v>
+        <v>0.1942954885991403</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3068052264194873</v>
+        <v>0.1871830120287361</v>
       </c>
       <c r="N258" t="n">
-        <v>0.2381317983110676</v>
+        <v>0.3118247171672502</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3066190327943673</v>
+        <v>0.1871531094958351</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03843056121463123</v>
+        <v>0.00673062423324252</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3077347003094213</v>
+        <v>0.04086626677137808</v>
       </c>
       <c r="J259" t="n">
-        <v>0.05793354710560085</v>
+        <v>0.00673062423324252</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3083082632218048</v>
+        <v>0.04086626677137808</v>
       </c>
       <c r="L259" t="n">
-        <v>0.145857626236496</v>
+        <v>0.1938649400465794</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3083948908050805</v>
+        <v>0.188152872194688</v>
       </c>
       <c r="N259" t="n">
-        <v>0.2344672548824997</v>
+        <v>0.3136632448726346</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3082077324461516</v>
+        <v>0.1881228147263834</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.04062848429140863</v>
+        <v>0.006357813068332364</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3093209616512224</v>
+        <v>0.04086303723361378</v>
       </c>
       <c r="J260" t="n">
-        <v>0.05658235880752106</v>
+        <v>0.006357813068332364</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3098974810734636</v>
+        <v>0.04086303723361378</v>
       </c>
       <c r="L260" t="n">
-        <v>0.1427887779265816</v>
+        <v>0.1932380539307365</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3099845551906737</v>
+        <v>0.1891227323606401</v>
       </c>
       <c r="N260" t="n">
-        <v>0.2317835846048338</v>
+        <v>0.3105038039134603</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3097964320979358</v>
+        <v>0.1890925199569318</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.04182278951842533</v>
+        <v>0.005998006567933672</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3109072229930236</v>
+        <v>0.04085980769584947</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0558264204108132</v>
+        <v>0.005998006567933672</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3114866989251224</v>
+        <v>0.04085980769584947</v>
       </c>
       <c r="L261" t="n">
-        <v>0.1421078663529074</v>
+        <v>0.195214924358605</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3115742195762669</v>
+        <v>0.1900925925265921</v>
       </c>
       <c r="N261" t="n">
-        <v>0.2254805634700112</v>
+        <v>0.3118464464758605</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3113851317497202</v>
+        <v>0.1900622251874802</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.04101343508222767</v>
+        <v>0.005651543226665029</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3124934843348248</v>
+        <v>0.04085657815808517</v>
       </c>
       <c r="J262" t="n">
-        <v>0.05406567690894633</v>
+        <v>0.005651543226665029</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3130759167767812</v>
+        <v>0.04085657815808517</v>
       </c>
       <c r="L262" t="n">
-        <v>0.1383147517808221</v>
+        <v>0.1936956454371788</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3131638839618601</v>
+        <v>0.1910624526925441</v>
       </c>
       <c r="N262" t="n">
-        <v>0.2202579674699732</v>
+        <v>0.3123912247459683</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3129738314015044</v>
+        <v>0.1910319304180285</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.0402003791693621</v>
+        <v>0.005318761539147579</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3140797456766259</v>
+        <v>0.04085334862032086</v>
       </c>
       <c r="J263" t="n">
-        <v>0.05300007329538958</v>
+        <v>0.005318761539147579</v>
       </c>
       <c r="K263" t="n">
-        <v>0.31466513462844</v>
+        <v>0.04085334862032086</v>
       </c>
       <c r="L263" t="n">
-        <v>0.1362092944756748</v>
+        <v>0.1932803112734512</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3147535483474533</v>
+        <v>0.1920323128584961</v>
       </c>
       <c r="N263" t="n">
-        <v>0.2194155725966612</v>
+        <v>0.310838190909917</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3145625310532887</v>
+        <v>0.1920016356485769</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.03738357996637495</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.315666007018427</v>
+        <v>0.04085011908255656</v>
       </c>
       <c r="J264" t="n">
-        <v>0.05262955456361196</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3162543524800988</v>
+        <v>0.04085011908255656</v>
       </c>
       <c r="L264" t="n">
-        <v>0.1328913547028143</v>
+        <v>0.1944690159744162</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3163432127330466</v>
+        <v>0.1930021730244481</v>
       </c>
       <c r="N264" t="n">
-        <v>0.2115531548420164</v>
+        <v>0.3134873971538398</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3161512307050729</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1929713408791253</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04083696118781971</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.04083696118781971</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005876852070552913</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04083722971628373</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.005876852070552913</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.04083722971628373</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006749140548420636</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04083749824474775</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.006749140548420636</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.04083749824474775</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007616817898076521</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04083776677321176</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.007616817898076521</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.04083776677321176</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.008479836584069672</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04083803530167578</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.008479836584069672</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.04083803530167578</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.009338149070873845</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.0408383038301398</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.009338149070873845</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.0408383038301398</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.01019170782303774</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04083857235860382</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.01019170782303774</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.04083857235860382</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01104046530503552</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04083884088706783</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.01104046530503552</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.04083884088706783</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01188437398141549</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04083910941553185</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.01188437398141549</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.04083910941553185</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01272338631665222</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04083937794399586</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.01272338631665222</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.04083937794399586</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01355745477529355</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04083964647245988</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.01355745477529355</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.04083964647245988</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01438653182181451</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.0408399150009239</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.01438653182181451</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.0408399150009239</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01521056992076254</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04084018352938792</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.01521056992076254</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.04084018352938792</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01602952153661311</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04084045205785194</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.01602952153661311</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.04084045205785194</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01684333913391314</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04084072058631596</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.01684333913391314</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.04084072058631596</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01765197517713857</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04084098911477997</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.01765197517713857</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.04084098911477997</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01845538213083595</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04084125764324399</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.01845538213083595</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.04084125764324399</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01925351245948162</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.040841526171708</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.01925351245948162</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.040841526171708</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.02004631862760442</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04084179470017202</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.02004631862760442</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.04084179470017202</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.02083375309973282</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04084206322863604</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.02083375309973282</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.04084206322863604</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.02161576834034383</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04084233175710005</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.02161576834034383</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.04084233175710005</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.02239231681398283</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04084260028556407</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.02239231681398283</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.04084260028556407</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.02316335098512737</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04084286881402809</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.02316335098512737</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.04084286881402809</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02392882331832231</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04084313734249211</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.02392882331832231</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.04084313734249211</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.0246886862780457</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04084340587095612</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.0246886862780457</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.04084340587095612</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.0254430864320873</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04084367439942014</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.0254430864320873</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.04084367439942014</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02619314086439806</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04084394292788416</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.02619314086439806</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.04084394292788416</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02693899614276733</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04084421145634818</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.02693899614276733</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.04084421145634818</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.027680604731674</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04084447998481219</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.027680604731674</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.04084447998481219</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02841791909566166</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04084474851327621</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.02841791909566166</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.04084474851327621</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02915089169920955</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04084501704174023</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.02915089169920955</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.04084501704174023</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.0298794750068609</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04084528557020425</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.0298794750068609</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.04084528557020425</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.03060362148309533</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04084555409866826</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.03060362148309533</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.04084555409866826</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.03132328359244009</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04084582262713227</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.03132328359244009</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.04084582262713227</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.032038413799422</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04084609115559629</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.032038413799422</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.04084609115559629</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.03274896456852128</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04084635968406031</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.03274896456852128</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.04084635968406031</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.03345488836428018</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04084662821252433</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.03345488836428018</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.04084662821252433</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.03415613765117932</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04084689674098835</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.03415613765117932</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.04084689674098835</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03485266489376053</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04084716526945237</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.03485266489376053</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.04084716526945237</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03554442255650483</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04084743379791638</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.03554442255650483</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.04084743379791638</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03623136310395367</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.0408477023263804</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.03623136310395367</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.0408477023263804</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.03691343900058845</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04084797085484441</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.03691343900058845</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.04084797085484441</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03759060271095022</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04084823938330844</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.03759060271095022</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.04084823938330844</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03826280669952084</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04084850791177245</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.03826280669952084</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.04084850791177245</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03893000343084087</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04084877644023647</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.03893000343084087</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.04084877644023647</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03959214536939261</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04084904496870048</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.03959214536939261</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.04084904496870048</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.0402491849797162</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.0408493134971645</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.0402491849797162</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.0408493134971645</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.0409010747262944</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04084958202562852</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.0409010747262944</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.04084958202562852</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.04154776707366689</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04084985055409254</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.04154776707366689</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.04084985055409254</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.04218921448631688</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04085011908255656</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.04218921448631688</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.04085011908255656</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.04218921448631686</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04083696118781971</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.04218921448631686</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.04083696118781971</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.04293500015045437</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04084072778251206</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.04293500015045437</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.04084072778251206</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.04367464054863156</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04084449437720439</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.04367464054863156</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.04084449437720439</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.0444080048848892</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04084826097189673</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.0444080048848892</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.04084826097189673</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.04513496236326354</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04085202756658907</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.04513496236326354</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.04085202756658907</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.04585538218779536</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04085579416128142</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.04585538218779536</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.04085579416128142</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.04656913356252092</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04085956075597376</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.04656913356252092</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.04085956075597376</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.04727608569148094</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.0408633273506661</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.04727608569148094</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.0408633273506661</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04797610777871172</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04086709394535844</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.04797610777871172</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.04086709394535844</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.04866906902825398</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04087086054005078</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.04866906902825398</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.04087086054005078</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.0493548386441451</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04087462713474312</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.0493548386441451</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.04087462713474312</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.05003328583042253</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04087839372943546</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.05003328583042253</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.04087839372943546</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.05070427979112695</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04088216032412781</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.05070427979112695</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.04088216032412781</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.05136768973029471</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04088592691882015</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.05136768973029471</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.04088592691882015</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.05202338485196642</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04088969351351249</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.05202338485196642</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.04088969351351249</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.05267123436017852</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04089346010820483</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.05267123436017852</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.04089346010820483</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.05331110745897157</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04089722670289717</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.05331110745897157</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.04089722670289717</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.05394287335238208</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04090099329758951</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.05394287335238208</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.04090099329758951</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.0545664012444505</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04090475989228185</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.0545664012444505</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.04090475989228185</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.05518156033921341</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04090852648697419</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.05518156033921341</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.04090852648697419</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.05578821984071124</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04091229308166653</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.05578821984071124</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.04091229308166653</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.05638624895298151</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04091605967635888</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.05638624895298151</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.04091605967635888</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.05697551688006186</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04091982627105122</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.05697551688006186</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.04091982627105122</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.05755589282599259</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04092359286574356</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.05755589282599259</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.04092359286574356</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.05812724599481041</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04092735946043589</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.05812724599481041</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.04092735946043589</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.05868997967406506</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04093112605512824</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.05868997967406506</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.04093112605512824</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.05924716756884982</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04093489264982058</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.05924716756884982</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.04093489264982058</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.05979921296671437</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04093865924451292</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.05979921296671437</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.04093865924451292</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.0603459850716955</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04094242583920526</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.0603459850716955</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.04094242583920526</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.06088735308783343</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.0409461924338976</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.06088735308783343</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.0409461924338976</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.06142318621916577</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04094995902858994</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.06142318621916577</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.04094995902858994</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.06195335366973025</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04095372562328228</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.06195335366973025</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.04095372562328228</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.06247772464356702</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04095749221797463</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.06247772464356702</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.04095749221797463</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.06299616834471294</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04096125881266697</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.06299616834471294</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.04096125881266697</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.06350855397720816</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04096502540735931</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.06350855397720816</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.04096502540735931</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.06401475074508957</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04096879200205165</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.06401475074508957</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.04096879200205165</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.06451462785239725</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04097255859674399</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.06451462785239725</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.04097255859674399</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.06500805450316818</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04097632519143633</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.06500805450316818</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.04097632519143633</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.06549489990144237</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04098009178612867</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.06549489990144237</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.04098009178612867</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.06597503325125684</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04098385838082101</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.06597503325125684</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.04098385838082101</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.06644832375665156</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04098762497551336</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.06644832375665156</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.04098762497551336</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.06691464062166431</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.0409913915702057</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.06691464062166431</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.0409913915702057</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.06737385305033292</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04099515816489804</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.06737385305033292</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.04099515816489804</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.06782583024669725</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04099892475959038</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.06782583024669725</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.04099892475959038</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.06827044141479445</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04100269135428272</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.06827044141479445</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.04100269135428272</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.06870755575866443</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04100645794897506</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.06870755575866443</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.04100645794897506</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.06913704248234427</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.0410102245436674</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.06913704248234427</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.0410102245436674</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.06955877078987388</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04101399113835974</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.06955877078987388</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.04101399113835974</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.06997260988529046</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04101775773305208</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.06997260988529046</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.04101775773305208</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.07037842897263374</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04102152432774443</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.07037842897263374</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.04102152432774443</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.07037842897263373</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04102152432774443</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.07037842897263373</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.04102152432774443</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.0691974104244841</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.04420195067640352</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.0691974104244841</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.04420195067640352</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.06815710377437692</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.04738237702506262</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.06815710377437692</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.04738237702506262</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.06724895813318538</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05056280337372171</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.06724895813318538</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.05056280337372171</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.06646442261178252</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.0537432297223808</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.06646442261178252</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.0537432297223808</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.06579494632104155</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05692365607103991</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.06579494632104155</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.05692365607103991</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.06523197837183553</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.060104082419699</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.06523197837183553</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.060104082419699</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.06476696787503758</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.0632845087683581</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.06476696787503758</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.0632845087683581</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.06439136394152084</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06646493511701719</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.06439136394152084</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.06646493511701719</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.06409661568215844</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06964536146567629</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.06409661568215844</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.06964536146567629</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.06387417220782346</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07282578781433538</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.06387417220782346</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.07282578781433538</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.06371548262938907</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07600621416299448</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.06371548262938907</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.07600621416299448</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.06361199605772834</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07918664051165358</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.06361199605772834</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.07918664051165358</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.06355516160371444</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08236706686031266</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.06355516160371444</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.08236706686031266</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.06353642837822046</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08554749320897176</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.06353642837822046</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.08554749320897176</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.0637444341623549</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08872791955763086</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.0637444341623549</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.08872791955763086</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.0643669740032837</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09190834590628996</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.0643669740032837</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.09190834590628996</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.06527023493017736</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09508877225494905</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.06527023493017736</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.09508877225494905</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.06631846247247182</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.09826919860360815</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.06631846247247182</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.09826919860360815</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.067375902159603</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1014496249522672</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.067375902159603</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.1014496249522672</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.06830679952100685</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1046300513009263</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.06830679952100685</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.1046300513009263</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.06897540008611931</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1078104776495854</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.06897540008611931</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.1078104776495854</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.06924594938437631</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1109909039982445</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.06924594938437631</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.1109909039982445</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.06912542108831644</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1141713303469036</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.06912542108831644</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.1141713303469036</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.06875142569912557</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1173517566955627</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.06875142569912557</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.1173517566955627</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.06814755399832158</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1205321830442218</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.06814755399832158</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.1205321830442218</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.06733708268651566</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1237126093928809</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.06733708268651566</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.1237126093928809</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.06634328846431904</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.12689303574154</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.06634328846431904</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.12689303574154</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.06518944803234288</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1300734620901991</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.06518944803234288</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.1300734620901991</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.06389883809119838</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1332538884388582</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.06389883809119838</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.1332538884388582</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.06249473534149676</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1364343147875173</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.06249473534149676</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.1364343147875173</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.06100041648384917</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1396147411361764</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.06100041648384917</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.1396147411361764</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.05943915821886685</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1427951674848355</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.05943915821886685</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.1427951674848355</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.05783423724716096</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1459755938334946</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.05783423724716096</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.1459755938334946</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.05606719464723224</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.05606719464723224</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.05302386114164762</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1523364465308128</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.05302386114164762</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.1523364465308128</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.04962489884432082</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1555168728794719</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.04962489884432082</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.1555168728794719</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.04732852749986606</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.158697299228131</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.04732852749986606</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.158697299228131</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.0470456194679989</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1618777255767901</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.0470456194679989</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.1618777255767901</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.04706271605550673</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1650581519254492</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.04706271605550673</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.1650581519254492</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.04709706573479026</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1682385782741083</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.04709706573479026</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.1682385782741083</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.04714984417667711</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1714190046227674</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.04714984417667711</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.1714190046227674</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.04722222705199487</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1745994309714265</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.04722222705199487</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.1745994309714265</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04731539003157113</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1777798573200856</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.04731539003157113</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.1777798573200856</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04743050878623351</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1809602836687446</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.04743050878623351</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.1809602836687446</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04756875898680961</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1841407100174038</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.04756875898680961</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.1841407100174038</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04782368222654751</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1873211363660628</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.04782368222654751</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.1873211363660628</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04902786386070526</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.190501562714722</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.04902786386070526</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.190501562714722</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.05071752986168042</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.193681989063381</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.05071752986168042</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.193681989063381</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.05206607789574783</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1968624154120401</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.05206607789574783</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.1968624154120401</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.05303271123978158</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2000428417606992</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.05303271123978158</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.2000428417606992</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.05390448086813154</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2032232681093583</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.05390448086813154</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.2032232681093583</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.05470774864345571</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2064036944580174</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.05470774864345571</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.2064036944580174</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.05546887642841193</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2095841208066765</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.05546887642841193</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.2095841208066765</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.05621422608565817</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2127645471553356</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.05621422608565817</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.2127645471553356</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.05696021759789509</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2159449735039947</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.05696021759789509</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.2159449735039947</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.05762538761393578</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2191253998526538</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.05762538761393578</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.2191253998526538</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.05825606807431377</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2223058262013129</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.05825606807431377</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.2223058262013129</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.05894166417823683</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.225486252549972</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.05894166417823683</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.225486252549972</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.05977158112491265</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2286666788986311</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.05977158112491265</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.2286666788986311</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.06089226144582659</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2318471052472902</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.06089226144582659</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.2318471052472902</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.06237019607123449</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2350275315959493</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.06237019607123449</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.2350275315959493</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.06415697750955421</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2382079579446084</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.06415697750955421</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2382079579446084</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.06620408676267857</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2413883842932675</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.06620408676267857</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.2413883842932675</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.06846300483250051</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2445688106419266</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.06846300483250051</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.2445688106419266</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.0708852127209129</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2477492369905857</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.0708852127209129</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.2477492369905857</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.07342219142980863</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2509296633392448</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.07342219142980863</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.2509296633392448</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.07602542196108057</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2541100896879039</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.07602542196108057</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2541100896879039</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.07864638531662164</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2572905160365629</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.07864638531662164</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.2572905160365629</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.08123656249832474</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2604709423852221</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.08123656249832474</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.2604709423852221</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.08374743450808268</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2636513687338812</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.08374743450808268</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.2636513687338812</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.08613048234778843</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2668317950825402</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.08613048234778843</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.2668317950825402</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.08833718701933486</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2700122214311994</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.08833718701933486</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.2700122214311994</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.09031902952461486</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2731926477798585</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.09031902952461486</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.2731926477798585</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.0920274908655213</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2763730741285175</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.0920274908655213</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.2763730741285175</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.09341405204394702</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2795535004771766</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.09341405204394702</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.2795535004771766</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.09443019406178509</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2827339268258357</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.09443019406178509</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.2827339268258357</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.0951712386301783</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2859143531744948</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.0951712386301783</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.2859143531744948</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.09507048839605232</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2890947795231539</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.09507048839605232</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.2890947795231539</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.09262557169761977</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.292275205871813</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.09262557169761977</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.292275205871813</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.08758263170015489</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2954556322204721</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.08758263170015489</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.2954556322204721</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.08083706214216514</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2986360585691312</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.08083706214216514</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.2986360585691312</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.07328425676215813</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3018164849177903</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.07328425676215813</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.3018164849177903</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.06581960929864132</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3049969112664494</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.06581960929864132</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3049969112664494</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.05933851349012227</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3081773376151085</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.05933851349012227</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.3081773376151085</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.05473636307510847</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3113577639637676</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.05473636307510847</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.3113577639637676</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.05225778215452301</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3145381903124267</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.05225778215452301</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.3145381903124267</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.05005878778040788</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3177186166610858</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.05005878778040788</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.3177186166610858</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.04796054584960723</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3208990430097449</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.04796054584960723</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.3208990430097449</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.04597613648508182</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.324079469358404</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.04597613648508182</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.324079469358404</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.04411863980979251</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3272598957070631</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.04411863980979251</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.3272598957070631</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.04240113594670004</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3304403220557222</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.04240113594670004</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.3304403220557222</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.04083670501876525</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3336207484043813</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.04083670501876525</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.3336207484043813</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03943842714894895</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3368011747530404</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.03943842714894895</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.3368011747530404</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03821938246021192</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3399816011016994</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.03821938246021192</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.3399816011016994</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03719265107551498</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.3431620274503586</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.03719265107551498</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.3431620274503586</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03637131311781891</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3463424537990177</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.03637131311781891</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.3463424537990177</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03576844871008454</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3495228801476767</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.03576844871008454</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.3495228801476767</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03539713797527268</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3527033064963358</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.03539713797527268</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.3527033064963358</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03527046103634407</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3558837328449949</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.03527046103634407</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.3558837328449949</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
